--- a/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12975" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
@@ -11333,7 +11333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -15609,7 +15609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G94" sqref="A3:G94"/>
     </sheetView>
   </sheetViews>

--- a/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12975"/>
+    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
-    <sheet name="internal" sheetId="2" r:id="rId2"/>
-    <sheet name="external" sheetId="3" r:id="rId3"/>
+    <sheet name="external" sheetId="2" r:id="rId2"/>
+    <sheet name="internal" sheetId="3" r:id="rId3"/>
     <sheet name="upper" sheetId="4" r:id="rId4"/>
     <sheet name="final ini" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,13 +790,31 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,14 +847,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>534787</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>897673</xdr:colOff>
+      <xdr:colOff>979316</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
     </xdr:to>
@@ -847,7 +865,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10087001" y="2423105"/>
+          <a:off x="10508823" y="2423105"/>
           <a:ext cx="4349779" cy="4100085"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -1853,16 +1871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210156</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>140607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2497667</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>719668</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1870,9 +1888,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9800167" y="3418417"/>
-          <a:ext cx="2825750" cy="3132666"/>
+        <a:xfrm rot="17976406">
+          <a:off x="11277299" y="3401786"/>
+          <a:ext cx="2827262" cy="3135690"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8197,7 +8215,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10504287" y="0"/>
+          <a:off x="10705370" y="0"/>
           <a:ext cx="4038894" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -9221,7 +9239,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10461954" y="2320295"/>
+          <a:off x="10663037" y="2320295"/>
           <a:ext cx="4524046" cy="3716062"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -11333,22 +11351,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -11422,22 +11440,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="24">
-        <f t="shared" ref="C3" si="1">((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-18.397459621556116</v>
+        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-76.397459621556123</v>
       </c>
       <c r="D3" s="24">
-        <f t="shared" ref="D3" si="2">((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
-        <v>136.60254037844388</v>
+        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <v>101.60254037844388</v>
       </c>
       <c r="E3" s="24">
-        <f t="shared" ref="E3:E4" si="3">($M3/3.1416*180)+$N$5</f>
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
       <c r="F3" s="11">
         <v>5</v>
       </c>
       <c r="G3" s="26">
-        <f t="shared" ref="G3:G4" si="4">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -11475,30 +11493,30 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
-        <f t="shared" ref="B4" si="5">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
+      <c r="B4" s="71">
+        <f t="shared" ref="B4" si="2">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="24">
-        <f t="shared" ref="C4" si="6">((+O4*COS($N$3)-P4*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-9.1598553145221047</v>
-      </c>
-      <c r="D4" s="24">
-        <f t="shared" ref="D4" si="7">((O4*SIN($N$3)+P4*COS($N$3))*$R$4)+$N$9</f>
-        <v>152.60254037844385</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" si="3"/>
+      <c r="C4" s="71">
+        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-67.159855314522105</v>
+      </c>
+      <c r="D4" s="71">
+        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <v>117.60254037844385</v>
+      </c>
+      <c r="E4" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="70">
         <v>5</v>
       </c>
-      <c r="G4" s="26">
-        <f t="shared" si="4"/>
+      <c r="G4" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -11629,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-55</v>
+        <v>-113</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -11698,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -11740,30 +11758,30 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="24">
-        <f t="shared" ref="B11:B14" si="8">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+      <c r="B11" s="71">
+        <f t="shared" ref="B11:B14" si="3">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="24">
-        <f t="shared" ref="C11:C14" si="9">((+O11*COS($N$3)-P11*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-18.397459621556102</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" ref="D11:D14" si="10">((O11*SIN($N$3)+P11*COS($N$3))*$R$4)+$N$9</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" ref="E11:E14" si="11">($M11/3.1416*180)+$N$5</f>
+      <c r="C11" s="71">
+        <f t="shared" ref="C11:C14" si="4">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-76.397459621556095</v>
+      </c>
+      <c r="D11" s="71">
+        <f t="shared" ref="D11:D14" si="5">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <v>133.60254037844382</v>
+      </c>
+      <c r="E11" s="71">
+        <f t="shared" ref="E11:E14" si="6">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="70">
         <v>5</v>
       </c>
-      <c r="G11" s="26">
-        <f t="shared" ref="G11:G14" si="12">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G11" s="73">
+        <f t="shared" ref="G11:G14" si="7">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -11790,30 +11808,30 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24">
-        <f t="shared" si="8"/>
+      <c r="B12" s="71">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" si="9"/>
-        <v>-9.1598553145220762</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="10"/>
-        <v>184.60254037844379</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="11"/>
+      <c r="C12" s="71">
+        <f t="shared" si="4"/>
+        <v>-67.159855314522076</v>
+      </c>
+      <c r="D12" s="71">
+        <f t="shared" si="5"/>
+        <v>149.60254037844379</v>
+      </c>
+      <c r="E12" s="71">
+        <f t="shared" si="6"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="70">
         <v>5</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" si="12"/>
+      <c r="G12" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -11838,30 +11856,30 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24">
-        <f t="shared" si="8"/>
+      <c r="B13" s="71">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C13" s="24">
-        <f t="shared" si="9"/>
-        <v>-18.397459621556081</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="10"/>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="11"/>
+      <c r="C13" s="71">
+        <f t="shared" si="4"/>
+        <v>-76.397459621556081</v>
+      </c>
+      <c r="D13" s="71">
+        <f t="shared" si="5"/>
+        <v>165.60254037844379</v>
+      </c>
+      <c r="E13" s="71">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="70">
         <v>5</v>
       </c>
-      <c r="G13" s="26">
-        <f t="shared" si="12"/>
+      <c r="G13" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -11886,30 +11904,30 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24">
-        <f t="shared" si="8"/>
+      <c r="B14" s="71">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C14" s="24">
-        <f t="shared" si="9"/>
-        <v>-36.87266823562409</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="10"/>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="11"/>
+      <c r="C14" s="71">
+        <f t="shared" si="4"/>
+        <v>-94.87266823562409</v>
+      </c>
+      <c r="D14" s="71">
+        <f t="shared" si="5"/>
+        <v>165.60254037844379</v>
+      </c>
+      <c r="E14" s="71">
+        <f t="shared" si="6"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="70">
         <v>5</v>
       </c>
-      <c r="G14" s="26">
-        <f t="shared" si="12"/>
+      <c r="G14" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -12050,30 +12068,30 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="24">
-        <f t="shared" ref="B19" si="13">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+      <c r="B19" s="71">
+        <f t="shared" ref="B19" si="8">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="24">
-        <f t="shared" ref="C19" si="14">((+O19*COS($N$3)-P19*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-46.110272542658109</v>
-      </c>
-      <c r="D19" s="24">
-        <f t="shared" ref="D19" si="15">((O19*SIN($N$3)+P19*COS($N$3))*$R$4)+$N$9</f>
-        <v>184.60254037844382</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" ref="E19" si="16">($M19/3.1416*180)+$N$5</f>
+      <c r="C19" s="71">
+        <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-104.11027254265811</v>
+      </c>
+      <c r="D19" s="71">
+        <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
+        <v>149.60254037844382</v>
+      </c>
+      <c r="E19" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="70">
         <v>5</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" ref="G19" si="17">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G19" s="73">
+        <f t="shared" ref="G19" si="9">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -12185,30 +12203,30 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="24">
-        <f t="shared" ref="B23:B25" si="18">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+      <c r="B23" s="71">
+        <f t="shared" ref="B23:B25" si="10">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:C25" si="19">((+O23*COS($N$3)-P23*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-36.872668235624104</v>
-      </c>
-      <c r="D23" s="24">
-        <f t="shared" ref="D23:D25" si="20">((O23*SIN($N$3)+P23*COS($N$3))*$R$4)+$N$9</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" ref="E23:E25" si="21">($M23/3.1416*180)+$N$5</f>
+      <c r="C23" s="71">
+        <f t="shared" ref="C23:C25" si="11">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-94.872668235624104</v>
+      </c>
+      <c r="D23" s="71">
+        <f t="shared" ref="D23:D25" si="12">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <v>133.60254037844382</v>
+      </c>
+      <c r="E23" s="71">
+        <f t="shared" ref="E23:E25" si="13">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>209.99957908268468</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="70">
         <v>5</v>
       </c>
-      <c r="G23" s="26">
-        <f t="shared" ref="G23:G25" si="22">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G23" s="73">
+        <f t="shared" ref="G23:G25" si="14">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -12233,30 +12251,30 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="24">
-        <f t="shared" si="18"/>
+      <c r="B24" s="71">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="C24" s="24">
-        <f t="shared" si="19"/>
-        <v>-46.110272542658144</v>
-      </c>
-      <c r="D24" s="24">
-        <f t="shared" si="20"/>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" si="21"/>
+      <c r="C24" s="71">
+        <f t="shared" si="11"/>
+        <v>-104.11027254265815</v>
+      </c>
+      <c r="D24" s="71">
+        <f t="shared" si="12"/>
+        <v>117.60254037844382</v>
+      </c>
+      <c r="E24" s="71">
+        <f t="shared" si="13"/>
         <v>149.99971938845687</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="70">
         <v>5</v>
       </c>
-      <c r="G24" s="26">
-        <f t="shared" si="22"/>
+      <c r="G24" s="73">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -12281,30 +12299,30 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="24">
-        <f t="shared" si="18"/>
+      <c r="B25" s="71">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="C25" s="24">
-        <f t="shared" si="19"/>
-        <v>-36.872668235624147</v>
-      </c>
-      <c r="D25" s="24">
-        <f t="shared" si="20"/>
-        <v>136.60254037844385</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="21"/>
+      <c r="C25" s="71">
+        <f t="shared" si="11"/>
+        <v>-94.872668235624147</v>
+      </c>
+      <c r="D25" s="71">
+        <f t="shared" si="12"/>
+        <v>101.60254037844385</v>
+      </c>
+      <c r="E25" s="71">
+        <f t="shared" si="13"/>
         <v>209.99957908268468</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="70">
         <v>5</v>
       </c>
-      <c r="G25" s="26">
-        <f t="shared" si="22"/>
+      <c r="G25" s="73">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -12591,8 +12609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12667,30 +12685,30 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="71">
         <f t="shared" ref="B3:B4" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>32</v>
       </c>
-      <c r="C3" s="24">
-        <f t="shared" ref="C3:C4" si="1">((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>49.602540378443884</v>
-      </c>
-      <c r="D3" s="24">
-        <f t="shared" ref="D3:D4" si="2">((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
-        <v>136.60254037844388</v>
-      </c>
-      <c r="E3" s="24">
-        <f t="shared" ref="E3:E4" si="3">($M3/3.1416*180)+$N$5</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="71">
+        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-36.602540378443848</v>
+      </c>
+      <c r="D3" s="71">
+        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <v>163.39745962155612</v>
+      </c>
+      <c r="E3" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <v>210</v>
+      </c>
+      <c r="F3" s="70">
         <v>5</v>
       </c>
-      <c r="G3" s="26">
-        <f t="shared" ref="G3:G4" si="4">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G3" s="73">
+        <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -12709,7 +12727,7 @@
       </c>
       <c r="N3" s="15">
         <f>+RADIANS(N5)</f>
-        <v>0.52359877559829882</v>
+        <v>3.6651914291880923</v>
       </c>
       <c r="O3" s="16">
         <v>100</v>
@@ -12728,35 +12746,35 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="71">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="71">
+        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-45.84014468547786</v>
+      </c>
+      <c r="D4" s="71">
+        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <v>147.39745962155615</v>
+      </c>
+      <c r="E4" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <v>150.00014030577157</v>
+      </c>
+      <c r="F4" s="70">
+        <v>5</v>
+      </c>
+      <c r="G4" s="73">
         <f t="shared" si="1"/>
-        <v>58.840144685477895</v>
-      </c>
-      <c r="D4" s="24">
-        <f t="shared" si="2"/>
-        <v>152.60254037844385</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F4" s="11">
-        <v>5</v>
-      </c>
-      <c r="G4" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="43">
+      <c r="J4" s="74">
         <v>3</v>
       </c>
       <c r="K4" s="10">
@@ -12795,7 +12813,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="43">
+      <c r="J5" s="74">
         <v>3</v>
       </c>
       <c r="K5" s="10">
@@ -12808,7 +12826,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="O5" s="46">
         <v>132</v>
@@ -12833,7 +12851,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="43">
+      <c r="J6" s="74">
         <v>3</v>
       </c>
       <c r="K6" s="10">
@@ -12869,7 +12887,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="43">
+      <c r="J7" s="74">
         <v>3</v>
       </c>
       <c r="K7" s="10">
@@ -12882,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -12904,7 +12922,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="43">
+      <c r="J8" s="74">
         <v>3</v>
       </c>
       <c r="K8" s="10">
@@ -12938,7 +12956,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="26"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="43">
+      <c r="J9" s="74">
         <v>3</v>
       </c>
       <c r="K9" s="10">
@@ -12951,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -12970,7 +12988,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="26"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="43">
+      <c r="J10" s="74">
         <v>3</v>
       </c>
       <c r="K10" s="10">
@@ -12993,34 +13011,34 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="24">
-        <f t="shared" ref="B11:B15" si="5">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+      <c r="B11" s="71">
+        <f t="shared" ref="B11:B15" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>44</v>
       </c>
-      <c r="C11" s="24">
-        <f t="shared" ref="C11:C15" si="6">((+O11*COS($N$3)-P11*SIN($N$3))*$R$3)+$N$7</f>
-        <v>49.602540378443898</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" ref="D11:D15" si="7">((O11*SIN($N$3)+P11*COS($N$3))*$R$4)+$N$9</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" ref="E11:E15" si="8">($M11/3.1416*180)+$N$5</f>
-        <v>30</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="C11" s="71">
+        <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-36.602540378443862</v>
+      </c>
+      <c r="D11" s="71">
+        <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <v>131.39745962155615</v>
+      </c>
+      <c r="E11" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <v>210</v>
+      </c>
+      <c r="F11" s="70">
         <v>5</v>
       </c>
-      <c r="G11" s="26">
-        <f t="shared" ref="G11:G15" si="9">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G11" s="73">
+        <f t="shared" ref="G11:G15" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="43">
+      <c r="J11" s="74">
         <v>3</v>
       </c>
       <c r="K11" s="10">
@@ -13043,34 +13061,34 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24">
-        <f t="shared" si="5"/>
+      <c r="B12" s="71">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" si="6"/>
-        <v>58.840144685477924</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="7"/>
-        <v>184.60254037844379</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="8"/>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="C12" s="71">
+        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-45.840144685477881</v>
+      </c>
+      <c r="D12" s="71">
+        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <v>115.39745962155618</v>
+      </c>
+      <c r="E12" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <v>150.00014030577157</v>
+      </c>
+      <c r="F12" s="70">
         <v>5</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" si="9"/>
+      <c r="G12" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="43">
+      <c r="J12" s="74">
         <v>3</v>
       </c>
       <c r="K12" s="10">
@@ -13091,34 +13109,34 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24">
-        <f t="shared" si="5"/>
+      <c r="B13" s="71">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="C13" s="24">
-        <f t="shared" si="6"/>
-        <v>49.602540378443919</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="7"/>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="C13" s="71">
+        <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-36.602540378443877</v>
+      </c>
+      <c r="D13" s="71">
+        <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
+        <v>99.397459621556209</v>
+      </c>
+      <c r="E13" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
+        <v>210</v>
+      </c>
+      <c r="F13" s="70">
         <v>5</v>
       </c>
-      <c r="G13" s="26">
-        <f t="shared" si="9"/>
+      <c r="G13" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43">
+      <c r="J13" s="74">
         <v>3</v>
       </c>
       <c r="K13" s="10">
@@ -13139,34 +13157,34 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24">
-        <f t="shared" si="5"/>
+      <c r="B14" s="71">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C14" s="24">
-        <f t="shared" si="6"/>
-        <v>31.12733176437591</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="7"/>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="8"/>
-        <v>89.999859694228434</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="C14" s="71">
+        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-18.127331764375867</v>
+      </c>
+      <c r="D14" s="71">
+        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <v>99.397459621556209</v>
+      </c>
+      <c r="E14" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <v>269.99985969422841</v>
+      </c>
+      <c r="F14" s="70">
         <v>5</v>
       </c>
-      <c r="G14" s="26">
-        <f t="shared" si="9"/>
+      <c r="G14" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="43">
+      <c r="J14" s="74">
         <v>3</v>
       </c>
       <c r="K14" s="10">
@@ -13187,34 +13205,34 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="24">
-        <f t="shared" si="5"/>
+      <c r="B15" s="71">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C15" s="24">
-        <f t="shared" si="6"/>
-        <v>21.889727457341905</v>
-      </c>
-      <c r="D15" s="24">
-        <f t="shared" si="7"/>
-        <v>216.60254037844379</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="C15" s="71">
+        <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-8.8897274573418628</v>
+      </c>
+      <c r="D15" s="71">
+        <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
+        <v>83.397459621556209</v>
+      </c>
+      <c r="E15" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
+        <v>210</v>
+      </c>
+      <c r="F15" s="70">
         <v>5</v>
       </c>
-      <c r="G15" s="26">
-        <f t="shared" si="9"/>
+      <c r="G15" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="43">
+      <c r="J15" s="74">
         <v>3</v>
       </c>
       <c r="K15" s="10">
@@ -13243,7 +13261,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43">
+      <c r="J16" s="74">
         <v>3</v>
       </c>
       <c r="K16" s="10">
@@ -13272,7 +13290,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="43">
+      <c r="J17" s="74">
         <v>3</v>
       </c>
       <c r="K17" s="10">
@@ -13301,7 +13319,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43">
+      <c r="J18" s="74">
         <v>3</v>
       </c>
       <c r="K18" s="10">
@@ -13322,34 +13340,34 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="24">
-        <f t="shared" ref="B19" si="10">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+      <c r="B19" s="71">
+        <f t="shared" ref="B19" si="4">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>42</v>
       </c>
-      <c r="C19" s="24">
-        <f t="shared" ref="C19" si="11">((+O19*COS($N$3)-P19*SIN($N$3))*$R$3)+$N$7</f>
-        <v>21.889727457341891</v>
-      </c>
-      <c r="D19" s="24">
-        <f t="shared" ref="D19" si="12">((O19*SIN($N$3)+P19*COS($N$3))*$R$4)+$N$9</f>
-        <v>184.60254037844382</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" ref="E19" si="13">($M19/3.1416*180)+$N$5</f>
-        <v>149.99971938845687</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="C19" s="71">
+        <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-8.8897274573418485</v>
+      </c>
+      <c r="D19" s="71">
+        <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
+        <v>115.39745962155621</v>
+      </c>
+      <c r="E19" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
+        <v>329.99971938845687</v>
+      </c>
+      <c r="F19" s="70">
         <v>5</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" ref="G19" si="14">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G19" s="73">
+        <f t="shared" ref="G19" si="5">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="43">
+      <c r="J19" s="74">
         <v>3</v>
       </c>
       <c r="K19" s="10">
@@ -13378,7 +13396,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="26"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="43">
+      <c r="J20" s="74">
         <v>3</v>
       </c>
       <c r="K20" s="10">
@@ -13407,7 +13425,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="26"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="43">
+      <c r="J21" s="74">
         <v>3</v>
       </c>
       <c r="K21" s="10">
@@ -13436,7 +13454,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="43">
+      <c r="J22" s="74">
         <v>3</v>
       </c>
       <c r="K22" s="10">
@@ -13457,34 +13475,34 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="24">
-        <f t="shared" ref="B23:B25" si="15">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+      <c r="B23" s="71">
+        <f t="shared" ref="B23:B25" si="6">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>43</v>
       </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:C25" si="16">((+O23*COS($N$3)-P23*SIN($N$3))*$R$3)+$N$7</f>
-        <v>31.127331764375896</v>
-      </c>
-      <c r="D23" s="24">
-        <f t="shared" ref="D23:D25" si="17">((O23*SIN($N$3)+P23*COS($N$3))*$R$4)+$N$9</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" ref="E23:E25" si="18">($M23/3.1416*180)+$N$5</f>
-        <v>209.99957908268468</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="C23" s="71">
+        <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-18.127331764375853</v>
+      </c>
+      <c r="D23" s="71">
+        <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <v>131.39745962155618</v>
+      </c>
+      <c r="E23" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
+        <v>389.9995790826847</v>
+      </c>
+      <c r="F23" s="70">
         <v>5</v>
       </c>
-      <c r="G23" s="26">
-        <f t="shared" ref="G23:G25" si="19">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G23" s="73">
+        <f t="shared" ref="G23:G25" si="7">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="43">
+      <c r="J23" s="74">
         <v>3</v>
       </c>
       <c r="K23" s="10">
@@ -13505,34 +13523,34 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="24">
-        <f t="shared" si="15"/>
+      <c r="B24" s="71">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="C24" s="24">
-        <f t="shared" si="16"/>
-        <v>21.889727457341856</v>
-      </c>
-      <c r="D24" s="24">
-        <f t="shared" si="17"/>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" si="18"/>
-        <v>149.99971938845687</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="C24" s="71">
+        <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-8.8897274573418343</v>
+      </c>
+      <c r="D24" s="71">
+        <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
+        <v>147.39745962155618</v>
+      </c>
+      <c r="E24" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
+        <v>329.99971938845687</v>
+      </c>
+      <c r="F24" s="70">
         <v>5</v>
       </c>
-      <c r="G24" s="26">
-        <f t="shared" si="19"/>
+      <c r="G24" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="43">
+      <c r="J24" s="74">
         <v>3</v>
       </c>
       <c r="K24" s="10">
@@ -13553,34 +13571,34 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="24">
-        <f t="shared" si="15"/>
+      <c r="B25" s="71">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="C25" s="24">
-        <f t="shared" si="16"/>
-        <v>31.127331764375853</v>
-      </c>
-      <c r="D25" s="24">
-        <f t="shared" si="17"/>
-        <v>136.60254037844385</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="18"/>
-        <v>209.99957908268468</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="C25" s="71">
+        <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-18.127331764375832</v>
+      </c>
+      <c r="D25" s="71">
+        <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
+        <v>163.39745962155615</v>
+      </c>
+      <c r="E25" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
+        <v>389.9995790826847</v>
+      </c>
+      <c r="F25" s="70">
         <v>5</v>
       </c>
-      <c r="G25" s="26">
-        <f t="shared" si="19"/>
+      <c r="G25" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="43">
+      <c r="J25" s="74">
         <v>3</v>
       </c>
       <c r="K25" s="49">
@@ -13619,8 +13637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13694,30 +13712,30 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24">
-        <f t="shared" ref="B3:B7" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
+      <c r="B3" s="71">
+        <f t="shared" ref="B3:B13" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>16</v>
       </c>
-      <c r="C3" s="24">
-        <f t="shared" ref="C3:C7" si="1">((+O3*COS($N$3)-P3*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-76.602540378443848</v>
-      </c>
-      <c r="D3" s="24">
-        <f t="shared" ref="D3:D7" si="2">((O3*SIN($N$3)+P3*COS($N$3))*$R$4)+$N$9</f>
-        <v>215.39745962155612</v>
-      </c>
-      <c r="E3" s="24">
-        <f t="shared" ref="E3:E7" si="3">($M3/3.1416*180)+$N$5</f>
-        <v>210</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="71">
+        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-163.39745962155612</v>
+      </c>
+      <c r="D3" s="71">
+        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <v>86.602540378443877</v>
+      </c>
+      <c r="E3" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="70">
         <v>5</v>
       </c>
-      <c r="G3" s="26">
-        <f t="shared" ref="G3:G7" si="4">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G3" s="73">
+        <f t="shared" ref="G3:G13" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -13736,7 +13754,7 @@
       </c>
       <c r="N3" s="15">
         <f>+RADIANS(N5)</f>
-        <v>3.6651914291880923</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="O3" s="16">
         <v>100</v>
@@ -13755,35 +13773,35 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="71">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="71">
+        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-154.1598553145221</v>
+      </c>
+      <c r="D4" s="71">
+        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <v>102.60254037844385</v>
+      </c>
+      <c r="E4" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <v>-29.999859694228427</v>
+      </c>
+      <c r="F4" s="70">
+        <v>5</v>
+      </c>
+      <c r="G4" s="73">
         <f t="shared" si="1"/>
-        <v>-85.840144685477867</v>
-      </c>
-      <c r="D4" s="24">
-        <f t="shared" si="2"/>
-        <v>199.39745962155615</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" si="3"/>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F4" s="11">
-        <v>5</v>
-      </c>
-      <c r="G4" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="43">
+      <c r="J4" s="74">
         <v>2</v>
       </c>
       <c r="K4" s="10">
@@ -13813,35 +13831,35 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="71">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="71">
+        <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-135.6846467004541</v>
+      </c>
+      <c r="D5" s="71">
+        <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
+        <v>102.60254037844385</v>
+      </c>
+      <c r="E5" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
+        <v>-89.999719388456853</v>
+      </c>
+      <c r="F5" s="70">
+        <v>5</v>
+      </c>
+      <c r="G5" s="73">
         <f t="shared" si="1"/>
-        <v>-104.31535329954588</v>
-      </c>
-      <c r="D5" s="24">
-        <f t="shared" si="2"/>
-        <v>199.39745962155612</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" si="3"/>
-        <v>90.000280611543147</v>
-      </c>
-      <c r="F5" s="11">
-        <v>5</v>
-      </c>
-      <c r="G5" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="43">
+      <c r="J5" s="74">
         <v>2</v>
       </c>
       <c r="K5" s="10">
@@ -13854,7 +13872,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="O5" s="46">
         <v>132</v>
@@ -13870,35 +13888,35 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="71">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="71">
+        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-126.44704239342006</v>
+      </c>
+      <c r="D6" s="71">
+        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <v>118.60254037844385</v>
+      </c>
+      <c r="E6" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <v>-29.999859694228427</v>
+      </c>
+      <c r="F6" s="70">
+        <v>5</v>
+      </c>
+      <c r="G6" s="73">
         <f t="shared" si="1"/>
-        <v>-113.55295760657989</v>
-      </c>
-      <c r="D6" s="24">
-        <f t="shared" si="2"/>
-        <v>183.39745962155615</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="3"/>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F6" s="11">
-        <v>5</v>
-      </c>
-      <c r="G6" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="43">
+      <c r="J6" s="74">
         <v>2</v>
       </c>
       <c r="K6" s="10">
@@ -13925,35 +13943,35 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="71">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="71">
+        <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-135.68464670045407</v>
+      </c>
+      <c r="D7" s="71">
+        <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <v>134.60254037844382</v>
+      </c>
+      <c r="E7" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <v>30</v>
+      </c>
+      <c r="F7" s="70">
+        <v>5</v>
+      </c>
+      <c r="G7" s="73">
         <f t="shared" si="1"/>
-        <v>-104.31535329954589</v>
-      </c>
-      <c r="D7" s="24">
-        <f t="shared" si="2"/>
-        <v>167.39745962155615</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5</v>
-      </c>
-      <c r="G7" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="43">
+      <c r="J7" s="74">
         <v>2</v>
       </c>
       <c r="K7" s="10">
@@ -13966,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-40</v>
+        <v>-200</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -13979,35 +13997,35 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24">
-        <f t="shared" ref="B8:B13" si="5">((ROUND($L8/10,0))-1)*4+MOD($L8,10)+((J8-1)*16)</f>
+      <c r="B8" s="71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C8" s="24">
-        <f t="shared" ref="C8:C13" si="6">((+O8*COS($N$3)-P8*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-113.55295760657992</v>
-      </c>
-      <c r="D8" s="24">
-        <f t="shared" ref="D8:D13" si="7">((O8*SIN($N$3)+P8*COS($N$3))*$R$4)+$N$9</f>
-        <v>151.39745962155618</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" ref="E8:E13" si="8">($M8/3.1416*180)+$N$5</f>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="C8" s="71">
+        <f>((+O8*COS($N$3)-P8*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-126.44704239342002</v>
+      </c>
+      <c r="D8" s="71">
+        <f>((O8*SIN($N$3)+P8*COS($N$3)+$N$9)*$R$4)</f>
+        <v>150.60254037844379</v>
+      </c>
+      <c r="E8" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M8/3.1416*180)+$N$5)</f>
+        <v>-29.999859694228427</v>
+      </c>
+      <c r="F8" s="70">
         <v>5</v>
       </c>
-      <c r="G8" s="26">
-        <f t="shared" ref="G8:G13" si="9">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G8" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="43">
+      <c r="J8" s="74">
         <v>2</v>
       </c>
       <c r="K8" s="10">
@@ -14033,34 +14051,34 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24">
-        <f t="shared" si="5"/>
+      <c r="B9" s="71">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C9" s="24">
-        <f t="shared" si="6"/>
-        <v>-104.31535329954592</v>
-      </c>
-      <c r="D9" s="24">
-        <f t="shared" si="7"/>
-        <v>135.39745962155621</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="8"/>
-        <v>210</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="C9" s="71">
+        <f>((+O9*COS($N$3)-P9*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-135.68464670045404</v>
+      </c>
+      <c r="D9" s="71">
+        <f>((O9*SIN($N$3)+P9*COS($N$3)+$N$9)*$R$4)</f>
+        <v>166.60254037844379</v>
+      </c>
+      <c r="E9" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M9/3.1416*180)+$N$5)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="70">
         <v>5</v>
       </c>
-      <c r="G9" s="26">
-        <f t="shared" si="9"/>
+      <c r="G9" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="43">
+      <c r="J9" s="74">
         <v>2</v>
       </c>
       <c r="K9" s="10">
@@ -14073,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>352</v>
+        <v>-50</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -14084,34 +14102,34 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24">
-        <f t="shared" si="5"/>
+      <c r="B10" s="71">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10" s="24">
-        <f t="shared" si="6"/>
-        <v>-85.840144685477895</v>
-      </c>
-      <c r="D10" s="24">
-        <f t="shared" si="7"/>
-        <v>135.39745962155621</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="8"/>
-        <v>269.99985969422841</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="C10" s="71">
+        <f>((+O10*COS($N$3)-P10*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-154.15985531452205</v>
+      </c>
+      <c r="D10" s="71">
+        <f>((O10*SIN($N$3)+P10*COS($N$3)+$N$9)*$R$4)</f>
+        <v>166.60254037844379</v>
+      </c>
+      <c r="E10" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M10/3.1416*180)+$N$5)</f>
+        <v>89.999859694228434</v>
+      </c>
+      <c r="F10" s="70">
         <v>5</v>
       </c>
-      <c r="G10" s="26">
-        <f t="shared" si="9"/>
+      <c r="G10" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="43">
+      <c r="J10" s="74">
         <v>2</v>
       </c>
       <c r="K10" s="10">
@@ -14134,34 +14152,34 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="24">
-        <f t="shared" si="5"/>
+      <c r="B11" s="71">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C11" s="24">
-        <f t="shared" si="6"/>
-        <v>-76.602540378443862</v>
-      </c>
-      <c r="D11" s="24">
-        <f t="shared" si="7"/>
-        <v>183.39745962155615</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="8"/>
-        <v>210</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="C11" s="71">
+        <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-163.3974596215561</v>
+      </c>
+      <c r="D11" s="71">
+        <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <v>118.60254037844382</v>
+      </c>
+      <c r="E11" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <v>30</v>
+      </c>
+      <c r="F11" s="70">
         <v>5</v>
       </c>
-      <c r="G11" s="26">
-        <f t="shared" si="9"/>
+      <c r="G11" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="43">
+      <c r="J11" s="74">
         <v>2</v>
       </c>
       <c r="K11" s="10">
@@ -14185,34 +14203,34 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24">
-        <f t="shared" si="5"/>
+      <c r="B12" s="71">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" si="6"/>
-        <v>-85.840144685477881</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="7"/>
-        <v>167.39745962155618</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="8"/>
-        <v>150.00014030577157</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="C12" s="71">
+        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-154.15985531452208</v>
+      </c>
+      <c r="D12" s="71">
+        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <v>134.60254037844379</v>
+      </c>
+      <c r="E12" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <v>-29.999859694228427</v>
+      </c>
+      <c r="F12" s="70">
         <v>5</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" si="9"/>
+      <c r="G12" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="43">
+      <c r="J12" s="74">
         <v>2</v>
       </c>
       <c r="K12" s="10">
@@ -14233,34 +14251,34 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24">
-        <f t="shared" si="5"/>
+      <c r="B13" s="71">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C13" s="24">
-        <f t="shared" si="6"/>
-        <v>-76.602540378443877</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="7"/>
-        <v>151.39745962155621</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="8"/>
-        <v>210</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="C13" s="71">
+        <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-163.3974596215561</v>
+      </c>
+      <c r="D13" s="71">
+        <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
+        <v>150.60254037844379</v>
+      </c>
+      <c r="E13" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
+        <v>30</v>
+      </c>
+      <c r="F13" s="70">
         <v>5</v>
       </c>
-      <c r="G13" s="26">
-        <f t="shared" si="9"/>
+      <c r="G13" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43">
+      <c r="J13" s="74">
         <v>2</v>
       </c>
       <c r="K13" s="10">
@@ -14289,7 +14307,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="26"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="43">
+      <c r="J14" s="74">
         <v>2</v>
       </c>
       <c r="K14" s="10">
@@ -14318,7 +14336,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="26"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="43">
+      <c r="J15" s="74">
         <v>2</v>
       </c>
       <c r="K15" s="10">
@@ -14347,7 +14365,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43">
+      <c r="J16" s="74">
         <v>2</v>
       </c>
       <c r="K16" s="10">
@@ -14376,7 +14394,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="43">
+      <c r="J17" s="74">
         <v>2</v>
       </c>
       <c r="K17" s="10">
@@ -14405,7 +14423,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43">
+      <c r="J18" s="74">
         <v>2</v>
       </c>
       <c r="K18" s="10">
@@ -14434,7 +14452,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="26"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="43">
+      <c r="J19" s="74">
         <v>2</v>
       </c>
       <c r="K19" s="10">
@@ -14463,7 +14481,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="26"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="43">
+      <c r="J20" s="74">
         <v>2</v>
       </c>
       <c r="K20" s="10">
@@ -14492,7 +14510,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="26"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="43">
+      <c r="J21" s="74">
         <v>2</v>
       </c>
       <c r="K21" s="10">
@@ -14521,7 +14539,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="43">
+      <c r="J22" s="74">
         <v>2</v>
       </c>
       <c r="K22" s="10">
@@ -14550,7 +14568,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="26"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="43">
+      <c r="J23" s="74">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -14579,7 +14597,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="26"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="43">
+      <c r="J24" s="74">
         <v>2</v>
       </c>
       <c r="K24" s="10">
@@ -14608,7 +14626,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="43">
+      <c r="J25" s="74">
         <v>2</v>
       </c>
       <c r="K25" s="49">
@@ -14643,15 +14661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -14740,7 +14758,7 @@
       </c>
       <c r="N3" s="15">
         <f>+RADIANS(N5)</f>
-        <v>3.1415926535897931</v>
+        <v>0</v>
       </c>
       <c r="O3" s="16">
         <v>100</v>
@@ -14820,7 +14838,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O5" s="46">
         <v>132</v>
@@ -14894,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>72</v>
+        <v>-184</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -14963,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>220</v>
+        <v>-100</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -15037,30 +15055,30 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="71">
         <f t="shared" ref="B12:B14" si="0">((ROUND($L12/10,0))-1)*4+MOD($L12,10)+((J12-1)*16)</f>
         <v>61</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" ref="C12:C14" si="1">((+O12*COS($N$3)-P12*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-60.000000000000028</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" ref="D12:D14" si="2">((O12*SIN($N$3)+P12*COS($N$3))*$R$4)+$N$9</f>
-        <v>83.049582771864038</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" ref="E12:E14" si="3">($M12/3.1416*180)+$N$5</f>
-        <v>120.00014030577157</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="C12" s="71">
+        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-52</v>
+      </c>
+      <c r="D12" s="71">
+        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E12" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <v>-59.999859694228427</v>
+      </c>
+      <c r="F12" s="70">
         <v>5</v>
       </c>
-      <c r="G12" s="26">
-        <f t="shared" ref="G12:G14" si="4">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G12" s="73">
+        <f t="shared" ref="G12:G14" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -15085,30 +15103,30 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="71">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="71">
+        <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-52</v>
+      </c>
+      <c r="D13" s="71">
+        <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E13" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="70">
+        <v>5</v>
+      </c>
+      <c r="G13" s="73">
         <f t="shared" si="1"/>
-        <v>-60.000000000000028</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="2"/>
-        <v>64.574374157796029</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="F13" s="11">
-        <v>5</v>
-      </c>
-      <c r="G13" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -15133,30 +15151,30 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="71">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="71">
+        <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-68</v>
+      </c>
+      <c r="D14" s="71">
+        <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
+        <v>64.66323014923799</v>
+      </c>
+      <c r="E14" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F14" s="70">
+        <v>5</v>
+      </c>
+      <c r="G14" s="73">
         <f t="shared" si="1"/>
-        <v>-44.000000000000014</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="2"/>
-        <v>55.336769850762039</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="3"/>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F14" s="11">
-        <v>5</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -15297,30 +15315,30 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="24">
-        <f t="shared" ref="B19:B20" si="5">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+      <c r="B19" s="71">
+        <f t="shared" ref="B19:B23" si="2">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>58</v>
       </c>
-      <c r="C19" s="24">
-        <f t="shared" ref="C19:C20" si="6">((+O19*COS($N$3)-P19*SIN($N$3))*$R$3)+$N$7</f>
-        <v>-28.000000000000014</v>
-      </c>
-      <c r="D19" s="24">
-        <f t="shared" ref="D19:D20" si="7">((O19*SIN($N$3)+P19*COS($N$3))*$R$4)+$N$9</f>
-        <v>64.574374157796001</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" ref="E19:E20" si="8">($M19/3.1416*180)+$N$5</f>
-        <v>299.99971938845687</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="C19" s="71">
+        <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-84</v>
+      </c>
+      <c r="D19" s="71">
+        <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E19" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
+        <v>119.99971938845685</v>
+      </c>
+      <c r="F19" s="70">
         <v>5</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" ref="G19:G20" si="9">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G19" s="73">
+        <f t="shared" ref="G19:G23" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -15345,30 +15363,30 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="24">
-        <f t="shared" si="5"/>
+      <c r="B20" s="71">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C20" s="24">
-        <f t="shared" si="6"/>
-        <v>-12.000000000000014</v>
-      </c>
-      <c r="D20" s="24">
-        <f t="shared" si="7"/>
-        <v>55.33676985076201</v>
-      </c>
-      <c r="E20" s="24">
-        <f t="shared" si="8"/>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="C20" s="71">
+        <f>((+O20*COS($N$3)-P20*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-100</v>
+      </c>
+      <c r="D20" s="71">
+        <f>((O20*SIN($N$3)+P20*COS($N$3)+$N$9)*$R$4)</f>
+        <v>64.66323014923799</v>
+      </c>
+      <c r="E20" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M20/3.1416*180)+$N$5)</f>
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F20" s="70">
         <v>5</v>
       </c>
-      <c r="G20" s="26">
-        <f t="shared" si="9"/>
+      <c r="G20" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -15393,30 +15411,30 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="24">
-        <f t="shared" ref="B21:B23" si="10">((ROUND($L21/10,0))-1)*4+MOD($L21,10)+((J21-1)*16)</f>
+      <c r="B21" s="71">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C21" s="24">
-        <f t="shared" ref="C21:C23" si="11">((+O21*COS($N$3)-P21*SIN($N$3))*$R$3)+$N$7</f>
-        <v>3.9999999999999858</v>
-      </c>
-      <c r="D21" s="24">
-        <f t="shared" ref="D21:D23" si="12">((O21*SIN($N$3)+P21*COS($N$3))*$R$4)+$N$9</f>
-        <v>64.574374157796001</v>
-      </c>
-      <c r="E21" s="24">
-        <f t="shared" ref="E21:E23" si="13">($M21/3.1416*180)+$N$5</f>
-        <v>299.99971938845687</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="C21" s="71">
+        <f>((+O21*COS($N$3)-P21*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-116</v>
+      </c>
+      <c r="D21" s="71">
+        <f>((O21*SIN($N$3)+P21*COS($N$3)+$N$9)*$R$4)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E21" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M21/3.1416*180)+$N$5)</f>
+        <v>119.99971938845685</v>
+      </c>
+      <c r="F21" s="70">
         <v>5</v>
       </c>
-      <c r="G21" s="26">
-        <f t="shared" ref="G21:G23" si="14">IF($R$3*$R$4=-1,1,0)</f>
+      <c r="G21" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -15441,30 +15459,30 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="24">
-        <f t="shared" si="10"/>
+      <c r="B22" s="71">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C22" s="24">
-        <f t="shared" si="11"/>
-        <v>3.9999999999999858</v>
-      </c>
-      <c r="D22" s="24">
-        <f t="shared" si="12"/>
-        <v>83.04958277186401</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="13"/>
-        <v>359.9995790826847</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="C22" s="71">
+        <f>((+O22*COS($N$3)-P22*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-116</v>
+      </c>
+      <c r="D22" s="71">
+        <f>((O22*SIN($N$3)+P22*COS($N$3)+$N$9)*$R$4)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E22" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M22/3.1416*180)+$N$5)</f>
+        <v>179.99957908268468</v>
+      </c>
+      <c r="F22" s="70">
         <v>5</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" si="14"/>
+      <c r="G22" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -15489,30 +15507,30 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="24">
-        <f t="shared" si="10"/>
+      <c r="B23" s="71">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C23" s="24">
-        <f t="shared" si="11"/>
-        <v>-28.000000000000014</v>
-      </c>
-      <c r="D23" s="24">
-        <f t="shared" si="12"/>
-        <v>83.04958277186401</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" si="13"/>
-        <v>359.9995790826847</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="C23" s="71">
+        <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-84</v>
+      </c>
+      <c r="D23" s="71">
+        <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E23" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
+        <v>179.99957908268468</v>
+      </c>
+      <c r="F23" s="70">
         <v>5</v>
       </c>
-      <c r="G23" s="26">
-        <f t="shared" si="14"/>
+      <c r="G23" s="73">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -15609,15 +15627,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G94" sqref="A3:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="68"/>
-    <col min="5" max="5" width="11.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="78"/>
+    <col min="5" max="5" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15628,13 +15646,13 @@
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="83" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="40" t="s">
@@ -15653,16 +15671,16 @@
         <f>IF(lower!B3="", "", lower!B3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="80">
         <f>IF(lower!C3="", "", lower!C3)</f>
-        <v>-18.397459621556116</v>
-      </c>
-      <c r="D3" s="70">
-        <f>IF(lower!D3=0, "", lower!D3)</f>
-        <v>136.60254037844388</v>
-      </c>
-      <c r="E3" s="70">
-        <f>IF(lower!E3=0, "", lower!E3)</f>
+        <v>-76.397459621556123</v>
+      </c>
+      <c r="D3" s="80">
+        <f>IF(lower!D3="", "", lower!D3)</f>
+        <v>101.60254037844388</v>
+      </c>
+      <c r="E3" s="80">
+        <f>IF(lower!E3="", "", lower!E3)</f>
         <v>30</v>
       </c>
       <c r="F3" s="64">
@@ -15670,2746 +15688,2746 @@
         <v>5</v>
       </c>
       <c r="G3" s="64">
-        <f>IF(lower!$A3=0, "", lower!G3)</f>
+        <f>IF(lower!$A3="", "", lower!G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="75" t="str">
         <f>IF(lower!A4=0, "", lower!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="77">
         <f>IF(lower!B4="", "", lower!B4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="80">
         <f>IF(lower!C4="", "", lower!C4)</f>
-        <v>-9.1598553145221047</v>
-      </c>
-      <c r="D4" s="70">
-        <f>IF(lower!D4=0, "", lower!D4)</f>
-        <v>152.60254037844385</v>
-      </c>
-      <c r="E4" s="70">
-        <f>IF(lower!E4=0, "", lower!E4)</f>
+        <v>-67.159855314522105</v>
+      </c>
+      <c r="D4" s="80">
+        <f>IF(lower!D4="", "", lower!D4)</f>
+        <v>117.60254037844385</v>
+      </c>
+      <c r="E4" s="80">
+        <f>IF(lower!E4="", "", lower!E4)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="75">
         <f>IF(lower!F4=0, "", lower!F4)</f>
         <v>5</v>
       </c>
-      <c r="G4" s="64">
-        <f>IF(lower!$A4=0, "", lower!G4)</f>
+      <c r="G4" s="75">
+        <f>IF(lower!$A4="", "", lower!G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="str">
+      <c r="A5" s="75" t="str">
         <f>IF(lower!A5=0, "", lower!A5)</f>
         <v/>
       </c>
-      <c r="B5" s="67" t="str">
+      <c r="B5" s="77" t="str">
         <f>IF(lower!B5="", "", lower!B5)</f>
         <v/>
       </c>
-      <c r="C5" s="70" t="str">
+      <c r="C5" s="80" t="str">
         <f>IF(lower!C5="", "", lower!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="70" t="str">
-        <f>IF(lower!D5=0, "", lower!D5)</f>
-        <v/>
-      </c>
-      <c r="E5" s="70" t="str">
-        <f>IF(lower!E5=0, "", lower!E5)</f>
-        <v/>
-      </c>
-      <c r="F5" s="64" t="str">
+      <c r="D5" s="80" t="str">
+        <f>IF(lower!D5="", "", lower!D5)</f>
+        <v/>
+      </c>
+      <c r="E5" s="80" t="str">
+        <f>IF(lower!E5="", "", lower!E5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="75" t="str">
         <f>IF(lower!F5=0, "", lower!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="64" t="str">
-        <f>IF(lower!$A5=0, "", lower!G5)</f>
+      <c r="G5" s="75" t="str">
+        <f>IF(lower!$A5="", "", lower!G5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="str">
+      <c r="A6" s="75" t="str">
         <f>IF(lower!A6=0, "", lower!A6)</f>
         <v/>
       </c>
-      <c r="B6" s="67" t="str">
+      <c r="B6" s="77" t="str">
         <f>IF(lower!B6="", "", lower!B6)</f>
         <v/>
       </c>
-      <c r="C6" s="70" t="str">
+      <c r="C6" s="80" t="str">
         <f>IF(lower!C6="", "", lower!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="70" t="str">
-        <f>IF(lower!D6=0, "", lower!D6)</f>
-        <v/>
-      </c>
-      <c r="E6" s="70" t="str">
-        <f>IF(lower!E6=0, "", lower!E6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="64" t="str">
+      <c r="D6" s="80" t="str">
+        <f>IF(lower!D6="", "", lower!D6)</f>
+        <v/>
+      </c>
+      <c r="E6" s="80" t="str">
+        <f>IF(lower!E6="", "", lower!E6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="75" t="str">
         <f>IF(lower!F6=0, "", lower!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="64" t="str">
-        <f>IF(lower!$A6=0, "", lower!G6)</f>
+      <c r="G6" s="75" t="str">
+        <f>IF(lower!$A6="", "", lower!G6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="str">
+      <c r="A7" s="75" t="str">
         <f>IF(lower!A7=0, "", lower!A7)</f>
         <v/>
       </c>
-      <c r="B7" s="67" t="str">
+      <c r="B7" s="77" t="str">
         <f>IF(lower!B7="", "", lower!B7)</f>
         <v/>
       </c>
-      <c r="C7" s="70" t="str">
+      <c r="C7" s="80" t="str">
         <f>IF(lower!C7="", "", lower!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="70" t="str">
-        <f>IF(lower!D7=0, "", lower!D7)</f>
-        <v/>
-      </c>
-      <c r="E7" s="70" t="str">
-        <f>IF(lower!E7=0, "", lower!E7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="64" t="str">
+      <c r="D7" s="80" t="str">
+        <f>IF(lower!D7="", "", lower!D7)</f>
+        <v/>
+      </c>
+      <c r="E7" s="80" t="str">
+        <f>IF(lower!E7="", "", lower!E7)</f>
+        <v/>
+      </c>
+      <c r="F7" s="75" t="str">
         <f>IF(lower!F7=0, "", lower!F7)</f>
         <v/>
       </c>
-      <c r="G7" s="64" t="str">
-        <f>IF(lower!$A7=0, "", lower!G7)</f>
+      <c r="G7" s="75" t="str">
+        <f>IF(lower!$A7="", "", lower!G7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="str">
+      <c r="A8" s="75" t="str">
         <f>IF(lower!A8=0, "", lower!A8)</f>
         <v/>
       </c>
-      <c r="B8" s="67" t="str">
+      <c r="B8" s="77" t="str">
         <f>IF(lower!B8="", "", lower!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="70" t="str">
+      <c r="C8" s="80" t="str">
         <f>IF(lower!C8="", "", lower!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="70" t="str">
-        <f>IF(lower!D8=0, "", lower!D8)</f>
-        <v/>
-      </c>
-      <c r="E8" s="70" t="str">
-        <f>IF(lower!E8=0, "", lower!E8)</f>
-        <v/>
-      </c>
-      <c r="F8" s="64" t="str">
+      <c r="D8" s="80" t="str">
+        <f>IF(lower!D8="", "", lower!D8)</f>
+        <v/>
+      </c>
+      <c r="E8" s="80" t="str">
+        <f>IF(lower!E8="", "", lower!E8)</f>
+        <v/>
+      </c>
+      <c r="F8" s="75" t="str">
         <f>IF(lower!F8=0, "", lower!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="64" t="str">
-        <f>IF(lower!$A8=0, "", lower!G8)</f>
+      <c r="G8" s="75" t="str">
+        <f>IF(lower!$A8="", "", lower!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="str">
+      <c r="A9" s="75" t="str">
         <f>IF(lower!A9=0, "", lower!A9)</f>
         <v/>
       </c>
-      <c r="B9" s="67" t="str">
+      <c r="B9" s="77" t="str">
         <f>IF(lower!B9="", "", lower!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="70" t="str">
+      <c r="C9" s="80" t="str">
         <f>IF(lower!C9="", "", lower!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="70" t="str">
-        <f>IF(lower!D9=0, "", lower!D9)</f>
-        <v/>
-      </c>
-      <c r="E9" s="70" t="str">
-        <f>IF(lower!E9=0, "", lower!E9)</f>
-        <v/>
-      </c>
-      <c r="F9" s="64" t="str">
+      <c r="D9" s="80" t="str">
+        <f>IF(lower!D9="", "", lower!D9)</f>
+        <v/>
+      </c>
+      <c r="E9" s="80" t="str">
+        <f>IF(lower!E9="", "", lower!E9)</f>
+        <v/>
+      </c>
+      <c r="F9" s="75" t="str">
         <f>IF(lower!F9=0, "", lower!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="64" t="str">
-        <f>IF(lower!$A9=0, "", lower!G9)</f>
+      <c r="G9" s="75" t="str">
+        <f>IF(lower!$A9="", "", lower!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="str">
+      <c r="A10" s="75" t="str">
         <f>IF(lower!A10=0, "", lower!A10)</f>
         <v/>
       </c>
-      <c r="B10" s="67" t="str">
+      <c r="B10" s="77" t="str">
         <f>IF(lower!B10="", "", lower!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="70" t="str">
+      <c r="C10" s="80" t="str">
         <f>IF(lower!C10="", "", lower!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="70" t="str">
-        <f>IF(lower!D10=0, "", lower!D10)</f>
-        <v/>
-      </c>
-      <c r="E10" s="70" t="str">
-        <f>IF(lower!E10=0, "", lower!E10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="64" t="str">
+      <c r="D10" s="80" t="str">
+        <f>IF(lower!D10="", "", lower!D10)</f>
+        <v/>
+      </c>
+      <c r="E10" s="80" t="str">
+        <f>IF(lower!E10="", "", lower!E10)</f>
+        <v/>
+      </c>
+      <c r="F10" s="75" t="str">
         <f>IF(lower!F10=0, "", lower!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="64" t="str">
-        <f>IF(lower!$A10=0, "", lower!G10)</f>
+      <c r="G10" s="75" t="str">
+        <f>IF(lower!$A10="", "", lower!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="str">
+      <c r="A11" s="75" t="str">
         <f>IF(lower!A11=0, "", lower!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="77">
         <f>IF(lower!B11="", "", lower!B11)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="80">
         <f>IF(lower!C11="", "", lower!C11)</f>
-        <v>-18.397459621556102</v>
-      </c>
-      <c r="D11" s="70">
-        <f>IF(lower!D11=0, "", lower!D11)</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E11" s="70">
-        <f>IF(lower!E11=0, "", lower!E11)</f>
+        <v>-76.397459621556095</v>
+      </c>
+      <c r="D11" s="80">
+        <f>IF(lower!D11="", "", lower!D11)</f>
+        <v>133.60254037844382</v>
+      </c>
+      <c r="E11" s="80">
+        <f>IF(lower!E11="", "", lower!E11)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="75">
         <f>IF(lower!F11=0, "", lower!F11)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="64">
-        <f>IF(lower!$A11=0, "", lower!G11)</f>
+      <c r="G11" s="75">
+        <f>IF(lower!$A11="", "", lower!G11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="str">
+      <c r="A12" s="75" t="str">
         <f>IF(lower!A12=0, "", lower!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="77">
         <f>IF(lower!B12="", "", lower!B12)</f>
         <v>13</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="80">
         <f>IF(lower!C12="", "", lower!C12)</f>
-        <v>-9.1598553145220762</v>
-      </c>
-      <c r="D12" s="70">
-        <f>IF(lower!D12=0, "", lower!D12)</f>
-        <v>184.60254037844379</v>
-      </c>
-      <c r="E12" s="70">
-        <f>IF(lower!E12=0, "", lower!E12)</f>
+        <v>-67.159855314522076</v>
+      </c>
+      <c r="D12" s="80">
+        <f>IF(lower!D12="", "", lower!D12)</f>
+        <v>149.60254037844379</v>
+      </c>
+      <c r="E12" s="80">
+        <f>IF(lower!E12="", "", lower!E12)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="75">
         <f>IF(lower!F12=0, "", lower!F12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="64">
-        <f>IF(lower!$A12=0, "", lower!G12)</f>
+      <c r="G12" s="75">
+        <f>IF(lower!$A12="", "", lower!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="str">
+      <c r="A13" s="75" t="str">
         <f>IF(lower!A13=0, "", lower!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="77">
         <f>IF(lower!B13="", "", lower!B13)</f>
         <v>8</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="80">
         <f>IF(lower!C13="", "", lower!C13)</f>
-        <v>-18.397459621556081</v>
-      </c>
-      <c r="D13" s="70">
-        <f>IF(lower!D13=0, "", lower!D13)</f>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E13" s="70">
-        <f>IF(lower!E13=0, "", lower!E13)</f>
+        <v>-76.397459621556081</v>
+      </c>
+      <c r="D13" s="80">
+        <f>IF(lower!D13="", "", lower!D13)</f>
+        <v>165.60254037844379</v>
+      </c>
+      <c r="E13" s="80">
+        <f>IF(lower!E13="", "", lower!E13)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="75">
         <f>IF(lower!F13=0, "", lower!F13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="64">
-        <f>IF(lower!$A13=0, "", lower!G13)</f>
+      <c r="G13" s="75">
+        <f>IF(lower!$A13="", "", lower!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="str">
+      <c r="A14" s="75" t="str">
         <f>IF(lower!A14=0, "", lower!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="77">
         <f>IF(lower!B14="", "", lower!B14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="80">
         <f>IF(lower!C14="", "", lower!C14)</f>
-        <v>-36.87266823562409</v>
-      </c>
-      <c r="D14" s="70">
-        <f>IF(lower!D14=0, "", lower!D14)</f>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E14" s="70">
-        <f>IF(lower!E14=0, "", lower!E14)</f>
+        <v>-94.87266823562409</v>
+      </c>
+      <c r="D14" s="80">
+        <f>IF(lower!D14="", "", lower!D14)</f>
+        <v>165.60254037844379</v>
+      </c>
+      <c r="E14" s="80">
+        <f>IF(lower!E14="", "", lower!E14)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="75">
         <f>IF(lower!F14=0, "", lower!F14)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="64">
-        <f>IF(lower!$A14=0, "", lower!G14)</f>
+      <c r="G14" s="75">
+        <f>IF(lower!$A14="", "", lower!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="str">
+      <c r="A15" s="75" t="str">
         <f>IF(lower!A15=0, "", lower!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="67" t="str">
+      <c r="B15" s="77" t="str">
         <f>IF(lower!B15="", "", lower!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="70" t="str">
+      <c r="C15" s="80" t="str">
         <f>IF(lower!C15="", "", lower!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="70" t="str">
-        <f>IF(lower!D15=0, "", lower!D15)</f>
-        <v/>
-      </c>
-      <c r="E15" s="70" t="str">
-        <f>IF(lower!E15=0, "", lower!E15)</f>
-        <v/>
-      </c>
-      <c r="F15" s="64" t="str">
+      <c r="D15" s="80" t="str">
+        <f>IF(lower!D15="", "", lower!D15)</f>
+        <v/>
+      </c>
+      <c r="E15" s="80" t="str">
+        <f>IF(lower!E15="", "", lower!E15)</f>
+        <v/>
+      </c>
+      <c r="F15" s="75" t="str">
         <f>IF(lower!F15=0, "", lower!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="64" t="str">
-        <f>IF(lower!$A15=0, "", lower!G15)</f>
+      <c r="G15" s="75" t="str">
+        <f>IF(lower!$A15="", "", lower!G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="str">
+      <c r="A16" s="75" t="str">
         <f>IF(lower!A16=0, "", lower!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="67" t="str">
+      <c r="B16" s="77" t="str">
         <f>IF(lower!B16="", "", lower!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="80" t="str">
         <f>IF(lower!C16="", "", lower!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="70" t="str">
-        <f>IF(lower!D16=0, "", lower!D16)</f>
-        <v/>
-      </c>
-      <c r="E16" s="70" t="str">
-        <f>IF(lower!E16=0, "", lower!E16)</f>
-        <v/>
-      </c>
-      <c r="F16" s="64" t="str">
+      <c r="D16" s="80" t="str">
+        <f>IF(lower!D16="", "", lower!D16)</f>
+        <v/>
+      </c>
+      <c r="E16" s="80" t="str">
+        <f>IF(lower!E16="", "", lower!E16)</f>
+        <v/>
+      </c>
+      <c r="F16" s="75" t="str">
         <f>IF(lower!F16=0, "", lower!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="64" t="str">
-        <f>IF(lower!$A16=0, "", lower!G16)</f>
+      <c r="G16" s="75" t="str">
+        <f>IF(lower!$A16="", "", lower!G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="str">
+      <c r="A17" s="75" t="str">
         <f>IF(lower!A17=0, "", lower!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="67" t="str">
+      <c r="B17" s="77" t="str">
         <f>IF(lower!B17="", "", lower!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="70" t="str">
+      <c r="C17" s="80" t="str">
         <f>IF(lower!C17="", "", lower!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="70" t="str">
-        <f>IF(lower!D17=0, "", lower!D17)</f>
-        <v/>
-      </c>
-      <c r="E17" s="70" t="str">
-        <f>IF(lower!E17=0, "", lower!E17)</f>
-        <v/>
-      </c>
-      <c r="F17" s="64" t="str">
+      <c r="D17" s="80" t="str">
+        <f>IF(lower!D17="", "", lower!D17)</f>
+        <v/>
+      </c>
+      <c r="E17" s="80" t="str">
+        <f>IF(lower!E17="", "", lower!E17)</f>
+        <v/>
+      </c>
+      <c r="F17" s="75" t="str">
         <f>IF(lower!F17=0, "", lower!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="64" t="str">
-        <f>IF(lower!$A17=0, "", lower!G17)</f>
+      <c r="G17" s="75" t="str">
+        <f>IF(lower!$A17="", "", lower!G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="str">
+      <c r="A18" s="75" t="str">
         <f>IF(lower!A18=0, "", lower!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="67" t="str">
+      <c r="B18" s="77" t="str">
         <f>IF(lower!B18="", "", lower!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="70" t="str">
+      <c r="C18" s="80" t="str">
         <f>IF(lower!C18="", "", lower!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="70" t="str">
-        <f>IF(lower!D18=0, "", lower!D18)</f>
-        <v/>
-      </c>
-      <c r="E18" s="70" t="str">
-        <f>IF(lower!E18=0, "", lower!E18)</f>
-        <v/>
-      </c>
-      <c r="F18" s="64" t="str">
+      <c r="D18" s="80" t="str">
+        <f>IF(lower!D18="", "", lower!D18)</f>
+        <v/>
+      </c>
+      <c r="E18" s="80" t="str">
+        <f>IF(lower!E18="", "", lower!E18)</f>
+        <v/>
+      </c>
+      <c r="F18" s="75" t="str">
         <f>IF(lower!F18=0, "", lower!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="64" t="str">
-        <f>IF(lower!$A18=0, "", lower!G18)</f>
+      <c r="G18" s="75" t="str">
+        <f>IF(lower!$A18="", "", lower!G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="str">
+      <c r="A19" s="75" t="str">
         <f>IF(lower!A19=0, "", lower!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="77">
         <f>IF(lower!B19="", "", lower!B19)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="80">
         <f>IF(lower!C19="", "", lower!C19)</f>
-        <v>-46.110272542658109</v>
-      </c>
-      <c r="D19" s="70">
-        <f>IF(lower!D19=0, "", lower!D19)</f>
-        <v>184.60254037844382</v>
-      </c>
-      <c r="E19" s="70">
-        <f>IF(lower!E19=0, "", lower!E19)</f>
+        <v>-104.11027254265811</v>
+      </c>
+      <c r="D19" s="80">
+        <f>IF(lower!D19="", "", lower!D19)</f>
+        <v>149.60254037844382</v>
+      </c>
+      <c r="E19" s="80">
+        <f>IF(lower!E19="", "", lower!E19)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="75">
         <f>IF(lower!F19=0, "", lower!F19)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="64">
-        <f>IF(lower!$A19=0, "", lower!G19)</f>
+      <c r="G19" s="75">
+        <f>IF(lower!$A19="", "", lower!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="str">
+      <c r="A20" s="75" t="str">
         <f>IF(lower!A20=0, "", lower!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="67" t="str">
+      <c r="B20" s="77" t="str">
         <f>IF(lower!B20="", "", lower!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="70" t="str">
+      <c r="C20" s="80" t="str">
         <f>IF(lower!C20="", "", lower!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="70" t="str">
-        <f>IF(lower!D20=0, "", lower!D20)</f>
-        <v/>
-      </c>
-      <c r="E20" s="70" t="str">
-        <f>IF(lower!E20=0, "", lower!E20)</f>
-        <v/>
-      </c>
-      <c r="F20" s="64" t="str">
+      <c r="D20" s="80" t="str">
+        <f>IF(lower!D20="", "", lower!D20)</f>
+        <v/>
+      </c>
+      <c r="E20" s="80" t="str">
+        <f>IF(lower!E20="", "", lower!E20)</f>
+        <v/>
+      </c>
+      <c r="F20" s="75" t="str">
         <f>IF(lower!F20=0, "", lower!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="64" t="str">
-        <f>IF(lower!$A20=0, "", lower!G20)</f>
+      <c r="G20" s="75" t="str">
+        <f>IF(lower!$A20="", "", lower!G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="str">
+      <c r="A21" s="75" t="str">
         <f>IF(lower!A21=0, "", lower!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="67" t="str">
+      <c r="B21" s="77" t="str">
         <f>IF(lower!B21="", "", lower!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="70" t="str">
+      <c r="C21" s="80" t="str">
         <f>IF(lower!C21="", "", lower!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="70" t="str">
-        <f>IF(lower!D21=0, "", lower!D21)</f>
-        <v/>
-      </c>
-      <c r="E21" s="70" t="str">
-        <f>IF(lower!E21=0, "", lower!E21)</f>
-        <v/>
-      </c>
-      <c r="F21" s="64" t="str">
+      <c r="D21" s="80" t="str">
+        <f>IF(lower!D21="", "", lower!D21)</f>
+        <v/>
+      </c>
+      <c r="E21" s="80" t="str">
+        <f>IF(lower!E21="", "", lower!E21)</f>
+        <v/>
+      </c>
+      <c r="F21" s="75" t="str">
         <f>IF(lower!F21=0, "", lower!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="64" t="str">
-        <f>IF(lower!$A21=0, "", lower!G21)</f>
+      <c r="G21" s="75" t="str">
+        <f>IF(lower!$A21="", "", lower!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="str">
+      <c r="A22" s="75" t="str">
         <f>IF(lower!A22=0, "", lower!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="67" t="str">
+      <c r="B22" s="77" t="str">
         <f>IF(lower!B22="", "", lower!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="70" t="str">
+      <c r="C22" s="80" t="str">
         <f>IF(lower!C22="", "", lower!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="70" t="str">
-        <f>IF(lower!D22=0, "", lower!D22)</f>
-        <v/>
-      </c>
-      <c r="E22" s="70" t="str">
-        <f>IF(lower!E22=0, "", lower!E22)</f>
-        <v/>
-      </c>
-      <c r="F22" s="64" t="str">
+      <c r="D22" s="80" t="str">
+        <f>IF(lower!D22="", "", lower!D22)</f>
+        <v/>
+      </c>
+      <c r="E22" s="80" t="str">
+        <f>IF(lower!E22="", "", lower!E22)</f>
+        <v/>
+      </c>
+      <c r="F22" s="75" t="str">
         <f>IF(lower!F22=0, "", lower!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="64" t="str">
-        <f>IF(lower!$A22=0, "", lower!G22)</f>
+      <c r="G22" s="75" t="str">
+        <f>IF(lower!$A22="", "", lower!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="str">
+      <c r="A23" s="75" t="str">
         <f>IF(lower!A23=0, "", lower!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="77">
         <f>IF(lower!B23="", "", lower!B23)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="80">
         <f>IF(lower!C23="", "", lower!C23)</f>
-        <v>-36.872668235624104</v>
-      </c>
-      <c r="D23" s="70">
-        <f>IF(lower!D23=0, "", lower!D23)</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E23" s="70">
-        <f>IF(lower!E23=0, "", lower!E23)</f>
+        <v>-94.872668235624104</v>
+      </c>
+      <c r="D23" s="80">
+        <f>IF(lower!D23="", "", lower!D23)</f>
+        <v>133.60254037844382</v>
+      </c>
+      <c r="E23" s="80">
+        <f>IF(lower!E23="", "", lower!E23)</f>
         <v>209.99957908268468</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="75">
         <f>IF(lower!F23=0, "", lower!F23)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="64">
-        <f>IF(lower!$A23=0, "", lower!G23)</f>
+      <c r="G23" s="75">
+        <f>IF(lower!$A23="", "", lower!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="str">
+      <c r="A24" s="75" t="str">
         <f>IF(lower!A24=0, "", lower!A24)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="77">
         <f>IF(lower!B24="", "", lower!B24)</f>
         <v>14</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="80">
         <f>IF(lower!C24="", "", lower!C24)</f>
-        <v>-46.110272542658144</v>
-      </c>
-      <c r="D24" s="70">
-        <f>IF(lower!D24=0, "", lower!D24)</f>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="E24" s="70">
-        <f>IF(lower!E24=0, "", lower!E24)</f>
+        <v>-104.11027254265815</v>
+      </c>
+      <c r="D24" s="80">
+        <f>IF(lower!D24="", "", lower!D24)</f>
+        <v>117.60254037844382</v>
+      </c>
+      <c r="E24" s="80">
+        <f>IF(lower!E24="", "", lower!E24)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="75">
         <f>IF(lower!F24=0, "", lower!F24)</f>
         <v>5</v>
       </c>
-      <c r="G24" s="64">
-        <f>IF(lower!$A24=0, "", lower!G24)</f>
+      <c r="G24" s="75">
+        <f>IF(lower!$A24="", "", lower!G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="str">
+      <c r="A25" s="75" t="str">
         <f>IF(lower!A25=0, "", lower!A25)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="77">
         <f>IF(lower!B25="", "", lower!B25)</f>
         <v>15</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="80">
         <f>IF(lower!C25="", "", lower!C25)</f>
-        <v>-36.872668235624147</v>
-      </c>
-      <c r="D25" s="70">
-        <f>IF(lower!D25=0, "", lower!D25)</f>
-        <v>136.60254037844385</v>
-      </c>
-      <c r="E25" s="70">
-        <f>IF(lower!E25=0, "", lower!E25)</f>
+        <v>-94.872668235624147</v>
+      </c>
+      <c r="D25" s="80">
+        <f>IF(lower!D25="", "", lower!D25)</f>
+        <v>101.60254037844385</v>
+      </c>
+      <c r="E25" s="80">
+        <f>IF(lower!E25="", "", lower!E25)</f>
         <v>209.99957908268468</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="75">
         <f>IF(lower!F25=0, "", lower!F25)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="64">
-        <f>IF(lower!$A25=0, "", lower!G25)</f>
+      <c r="G25" s="75">
+        <f>IF(lower!$A25="", "", lower!G25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="str">
-        <f>IF(internal!A3=0, "", internal!A3)</f>
+        <f>IF(external!A3="", "", external!A3)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B26" s="63">
-        <f>IF(internal!B3="", "", internal!B3)</f>
+        <f>IF(external!B3="", "", external!B3)</f>
         <v>32</v>
       </c>
-      <c r="C26" s="71">
-        <f>IF(internal!C3="", "", internal!C3)</f>
-        <v>49.602540378443884</v>
-      </c>
-      <c r="D26" s="71">
-        <f>IF(internal!D3=0, "", internal!D3)</f>
-        <v>136.60254037844388</v>
-      </c>
-      <c r="E26" s="71">
-        <f>IF(internal!E3=0, "", internal!E3)</f>
-        <v>30</v>
+      <c r="C26" s="68">
+        <f>IF(external!C3="", "", external!C3)</f>
+        <v>-36.602540378443848</v>
+      </c>
+      <c r="D26" s="68">
+        <f>IF(external!D3="", "", external!D3)</f>
+        <v>163.39745962155612</v>
+      </c>
+      <c r="E26" s="68">
+        <f>IF(external!E3="", "", external!E3)</f>
+        <v>210</v>
       </c>
       <c r="F26" s="63">
-        <f>IF(internal!F3=0, "", internal!F3)</f>
+        <f>IF(external!F3="", "", external!F3)</f>
         <v>5</v>
       </c>
       <c r="G26" s="63">
-        <f>IF(internal!A3=0, "", internal!G3)</f>
+        <f>IF(external!A3="", "", external!G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="str">
-        <f>IF(internal!A4=0, "", internal!A4)</f>
+        <f>IF(external!A4="", "", external!A4)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B27" s="63">
-        <f>IF(internal!B4="", "", internal!B4)</f>
+        <f>IF(external!B4="", "", external!B4)</f>
         <v>33</v>
       </c>
-      <c r="C27" s="71">
-        <f>IF(internal!C4="", "", internal!C4)</f>
-        <v>58.840144685477895</v>
-      </c>
-      <c r="D27" s="71">
-        <f>IF(internal!D4=0, "", internal!D4)</f>
-        <v>152.60254037844385</v>
-      </c>
-      <c r="E27" s="71">
-        <f>IF(internal!E4=0, "", internal!E4)</f>
-        <v>-29.999859694228427</v>
+      <c r="C27" s="68">
+        <f>IF(external!C4="", "", external!C4)</f>
+        <v>-45.84014468547786</v>
+      </c>
+      <c r="D27" s="68">
+        <f>IF(external!D4="", "", external!D4)</f>
+        <v>147.39745962155615</v>
+      </c>
+      <c r="E27" s="68">
+        <f>IF(external!E4="", "", external!E4)</f>
+        <v>150.00014030577157</v>
       </c>
       <c r="F27" s="63">
-        <f>IF(internal!F4=0, "", internal!F4)</f>
+        <f>IF(external!F4="", "", external!F4)</f>
         <v>5</v>
       </c>
       <c r="G27" s="63">
-        <f>IF(internal!A4=0, "", internal!G4)</f>
+        <f>IF(external!A4="", "", external!G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="str">
-        <f>IF(internal!A5=0, "", internal!A5)</f>
+        <f>IF(external!A5="", "", external!A5)</f>
         <v/>
       </c>
       <c r="B28" s="63" t="str">
-        <f>IF(internal!B5="", "", internal!B5)</f>
-        <v/>
-      </c>
-      <c r="C28" s="71" t="str">
-        <f>IF(internal!C5="", "", internal!C5)</f>
-        <v/>
-      </c>
-      <c r="D28" s="71" t="str">
-        <f>IF(internal!D5=0, "", internal!D5)</f>
-        <v/>
-      </c>
-      <c r="E28" s="71" t="str">
-        <f>IF(internal!E5=0, "", internal!E5)</f>
+        <f>IF(external!B5="", "", external!B5)</f>
+        <v/>
+      </c>
+      <c r="C28" s="68" t="str">
+        <f>IF(external!C5="", "", external!C5)</f>
+        <v/>
+      </c>
+      <c r="D28" s="68" t="str">
+        <f>IF(external!D5="", "", external!D5)</f>
+        <v/>
+      </c>
+      <c r="E28" s="68" t="str">
+        <f>IF(external!E5="", "", external!E5)</f>
         <v/>
       </c>
       <c r="F28" s="63" t="str">
-        <f>IF(internal!F5=0, "", internal!F5)</f>
+        <f>IF(external!F5="", "", external!F5)</f>
         <v/>
       </c>
       <c r="G28" s="63" t="str">
-        <f>IF(internal!A5=0, "", internal!G5)</f>
+        <f>IF(external!A5="", "", external!G5)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="str">
-        <f>IF(internal!A6=0, "", internal!A6)</f>
+        <f>IF(external!A6="", "", external!A6)</f>
         <v/>
       </c>
       <c r="B29" s="63" t="str">
-        <f>IF(internal!B6="", "", internal!B6)</f>
-        <v/>
-      </c>
-      <c r="C29" s="71" t="str">
-        <f>IF(internal!C6="", "", internal!C6)</f>
-        <v/>
-      </c>
-      <c r="D29" s="71" t="str">
-        <f>IF(internal!D6=0, "", internal!D6)</f>
-        <v/>
-      </c>
-      <c r="E29" s="71" t="str">
-        <f>IF(internal!E6=0, "", internal!E6)</f>
+        <f>IF(external!B6="", "", external!B6)</f>
+        <v/>
+      </c>
+      <c r="C29" s="68" t="str">
+        <f>IF(external!C6="", "", external!C6)</f>
+        <v/>
+      </c>
+      <c r="D29" s="68" t="str">
+        <f>IF(external!D6="", "", external!D6)</f>
+        <v/>
+      </c>
+      <c r="E29" s="68" t="str">
+        <f>IF(external!E6="", "", external!E6)</f>
         <v/>
       </c>
       <c r="F29" s="63" t="str">
-        <f>IF(internal!F6=0, "", internal!F6)</f>
+        <f>IF(external!F6="", "", external!F6)</f>
         <v/>
       </c>
       <c r="G29" s="63" t="str">
-        <f>IF(internal!A6=0, "", internal!G6)</f>
+        <f>IF(external!A6="", "", external!G6)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="str">
-        <f>IF(internal!A7=0, "", internal!A7)</f>
+        <f>IF(external!A7="", "", external!A7)</f>
         <v/>
       </c>
       <c r="B30" s="63" t="str">
-        <f>IF(internal!B7="", "", internal!B7)</f>
-        <v/>
-      </c>
-      <c r="C30" s="71" t="str">
-        <f>IF(internal!C7="", "", internal!C7)</f>
-        <v/>
-      </c>
-      <c r="D30" s="71" t="str">
-        <f>IF(internal!D7=0, "", internal!D7)</f>
-        <v/>
-      </c>
-      <c r="E30" s="71" t="str">
-        <f>IF(internal!E7=0, "", internal!E7)</f>
+        <f>IF(external!B7="", "", external!B7)</f>
+        <v/>
+      </c>
+      <c r="C30" s="68" t="str">
+        <f>IF(external!C7="", "", external!C7)</f>
+        <v/>
+      </c>
+      <c r="D30" s="68" t="str">
+        <f>IF(external!D7="", "", external!D7)</f>
+        <v/>
+      </c>
+      <c r="E30" s="68" t="str">
+        <f>IF(external!E7="", "", external!E7)</f>
         <v/>
       </c>
       <c r="F30" s="63" t="str">
-        <f>IF(internal!F7=0, "", internal!F7)</f>
+        <f>IF(external!F7="", "", external!F7)</f>
         <v/>
       </c>
       <c r="G30" s="63" t="str">
-        <f>IF(internal!A7=0, "", internal!G7)</f>
+        <f>IF(external!A7="", "", external!G7)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="str">
-        <f>IF(internal!A8=0, "", internal!A8)</f>
+        <f>IF(external!A8="", "", external!A8)</f>
         <v/>
       </c>
       <c r="B31" s="63" t="str">
-        <f>IF(internal!B8="", "", internal!B8)</f>
-        <v/>
-      </c>
-      <c r="C31" s="71" t="str">
-        <f>IF(internal!C8="", "", internal!C8)</f>
-        <v/>
-      </c>
-      <c r="D31" s="71" t="str">
-        <f>IF(internal!D8=0, "", internal!D8)</f>
-        <v/>
-      </c>
-      <c r="E31" s="71" t="str">
-        <f>IF(internal!E8=0, "", internal!E8)</f>
+        <f>IF(external!B8="", "", external!B8)</f>
+        <v/>
+      </c>
+      <c r="C31" s="68" t="str">
+        <f>IF(external!C8="", "", external!C8)</f>
+        <v/>
+      </c>
+      <c r="D31" s="68" t="str">
+        <f>IF(external!D8="", "", external!D8)</f>
+        <v/>
+      </c>
+      <c r="E31" s="68" t="str">
+        <f>IF(external!E8="", "", external!E8)</f>
         <v/>
       </c>
       <c r="F31" s="63" t="str">
-        <f>IF(internal!F8=0, "", internal!F8)</f>
+        <f>IF(external!F8="", "", external!F8)</f>
         <v/>
       </c>
       <c r="G31" s="63" t="str">
-        <f>IF(internal!A8=0, "", internal!G8)</f>
+        <f>IF(external!A8="", "", external!G8)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="str">
-        <f>IF(internal!A9=0, "", internal!A9)</f>
+        <f>IF(external!A9="", "", external!A9)</f>
         <v/>
       </c>
       <c r="B32" s="63" t="str">
-        <f>IF(internal!B9="", "", internal!B9)</f>
-        <v/>
-      </c>
-      <c r="C32" s="71" t="str">
-        <f>IF(internal!C9="", "", internal!C9)</f>
-        <v/>
-      </c>
-      <c r="D32" s="71" t="str">
-        <f>IF(internal!D9=0, "", internal!D9)</f>
-        <v/>
-      </c>
-      <c r="E32" s="71" t="str">
-        <f>IF(internal!E9=0, "", internal!E9)</f>
+        <f>IF(external!B9="", "", external!B9)</f>
+        <v/>
+      </c>
+      <c r="C32" s="68" t="str">
+        <f>IF(external!C9="", "", external!C9)</f>
+        <v/>
+      </c>
+      <c r="D32" s="68" t="str">
+        <f>IF(external!D9="", "", external!D9)</f>
+        <v/>
+      </c>
+      <c r="E32" s="68" t="str">
+        <f>IF(external!E9="", "", external!E9)</f>
         <v/>
       </c>
       <c r="F32" s="63" t="str">
-        <f>IF(internal!F9=0, "", internal!F9)</f>
+        <f>IF(external!F9="", "", external!F9)</f>
         <v/>
       </c>
       <c r="G32" s="63" t="str">
-        <f>IF(internal!A9=0, "", internal!G9)</f>
+        <f>IF(external!A9="", "", external!G9)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="str">
-        <f>IF(internal!A10=0, "", internal!A10)</f>
+        <f>IF(external!A10="", "", external!A10)</f>
         <v/>
       </c>
       <c r="B33" s="63" t="str">
-        <f>IF(internal!B10="", "", internal!B10)</f>
-        <v/>
-      </c>
-      <c r="C33" s="71" t="str">
-        <f>IF(internal!C10="", "", internal!C10)</f>
-        <v/>
-      </c>
-      <c r="D33" s="71" t="str">
-        <f>IF(internal!D10=0, "", internal!D10)</f>
-        <v/>
-      </c>
-      <c r="E33" s="71" t="str">
-        <f>IF(internal!E10=0, "", internal!E10)</f>
+        <f>IF(external!B10="", "", external!B10)</f>
+        <v/>
+      </c>
+      <c r="C33" s="68" t="str">
+        <f>IF(external!C10="", "", external!C10)</f>
+        <v/>
+      </c>
+      <c r="D33" s="68" t="str">
+        <f>IF(external!D10="", "", external!D10)</f>
+        <v/>
+      </c>
+      <c r="E33" s="68" t="str">
+        <f>IF(external!E10="", "", external!E10)</f>
         <v/>
       </c>
       <c r="F33" s="63" t="str">
-        <f>IF(internal!F10=0, "", internal!F10)</f>
+        <f>IF(external!F10="", "", external!F10)</f>
         <v/>
       </c>
       <c r="G33" s="63" t="str">
-        <f>IF(internal!A10=0, "", internal!G10)</f>
+        <f>IF(external!A10="", "", external!G10)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="str">
-        <f>IF(internal!A11=0, "", internal!A11)</f>
+        <f>IF(external!A11="", "", external!A11)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B34" s="63">
-        <f>IF(internal!B11="", "", internal!B11)</f>
+        <f>IF(external!B11="", "", external!B11)</f>
         <v>44</v>
       </c>
-      <c r="C34" s="71">
-        <f>IF(internal!C11="", "", internal!C11)</f>
-        <v>49.602540378443898</v>
-      </c>
-      <c r="D34" s="71">
-        <f>IF(internal!D11=0, "", internal!D11)</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E34" s="71">
-        <f>IF(internal!E11=0, "", internal!E11)</f>
-        <v>30</v>
+      <c r="C34" s="68">
+        <f>IF(external!C11="", "", external!C11)</f>
+        <v>-36.602540378443862</v>
+      </c>
+      <c r="D34" s="68">
+        <f>IF(external!D11="", "", external!D11)</f>
+        <v>131.39745962155615</v>
+      </c>
+      <c r="E34" s="68">
+        <f>IF(external!E11="", "", external!E11)</f>
+        <v>210</v>
       </c>
       <c r="F34" s="63">
-        <f>IF(internal!F11=0, "", internal!F11)</f>
+        <f>IF(external!F11="", "", external!F11)</f>
         <v>5</v>
       </c>
       <c r="G34" s="63">
-        <f>IF(internal!A11=0, "", internal!G11)</f>
+        <f>IF(external!A11="", "", external!G11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="str">
-        <f>IF(internal!A12=0, "", internal!A12)</f>
+        <f>IF(external!A12="", "", external!A12)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B35" s="63">
-        <f>IF(internal!B12="", "", internal!B12)</f>
+        <f>IF(external!B12="", "", external!B12)</f>
         <v>45</v>
       </c>
-      <c r="C35" s="71">
-        <f>IF(internal!C12="", "", internal!C12)</f>
-        <v>58.840144685477924</v>
-      </c>
-      <c r="D35" s="71">
-        <f>IF(internal!D12=0, "", internal!D12)</f>
-        <v>184.60254037844379</v>
-      </c>
-      <c r="E35" s="71">
-        <f>IF(internal!E12=0, "", internal!E12)</f>
-        <v>-29.999859694228427</v>
+      <c r="C35" s="68">
+        <f>IF(external!C12="", "", external!C12)</f>
+        <v>-45.840144685477881</v>
+      </c>
+      <c r="D35" s="68">
+        <f>IF(external!D12="", "", external!D12)</f>
+        <v>115.39745962155618</v>
+      </c>
+      <c r="E35" s="68">
+        <f>IF(external!E12="", "", external!E12)</f>
+        <v>150.00014030577157</v>
       </c>
       <c r="F35" s="63">
-        <f>IF(internal!F12=0, "", internal!F12)</f>
+        <f>IF(external!F12="", "", external!F12)</f>
         <v>5</v>
       </c>
       <c r="G35" s="63">
-        <f>IF(internal!A12=0, "", internal!G12)</f>
+        <f>IF(external!A12="", "", external!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="str">
-        <f>IF(internal!A13=0, "", internal!A13)</f>
+        <f>IF(external!A13="", "", external!A13)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B36" s="63">
-        <f>IF(internal!B13="", "", internal!B13)</f>
+        <f>IF(external!B13="", "", external!B13)</f>
         <v>40</v>
       </c>
-      <c r="C36" s="71">
-        <f>IF(internal!C13="", "", internal!C13)</f>
-        <v>49.602540378443919</v>
-      </c>
-      <c r="D36" s="71">
-        <f>IF(internal!D13=0, "", internal!D13)</f>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E36" s="71">
-        <f>IF(internal!E13=0, "", internal!E13)</f>
-        <v>30</v>
+      <c r="C36" s="68">
+        <f>IF(external!C13="", "", external!C13)</f>
+        <v>-36.602540378443877</v>
+      </c>
+      <c r="D36" s="68">
+        <f>IF(external!D13="", "", external!D13)</f>
+        <v>99.397459621556209</v>
+      </c>
+      <c r="E36" s="68">
+        <f>IF(external!E13="", "", external!E13)</f>
+        <v>210</v>
       </c>
       <c r="F36" s="63">
-        <f>IF(internal!F13=0, "", internal!F13)</f>
+        <f>IF(external!F13="", "", external!F13)</f>
         <v>5</v>
       </c>
       <c r="G36" s="63">
-        <f>IF(internal!A13=0, "", internal!G13)</f>
+        <f>IF(external!A13="", "", external!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="str">
-        <f>IF(internal!A14=0, "", internal!A14)</f>
+        <f>IF(external!A14="", "", external!A14)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B37" s="63">
-        <f>IF(internal!B14="", "", internal!B14)</f>
+        <f>IF(external!B14="", "", external!B14)</f>
         <v>41</v>
       </c>
-      <c r="C37" s="71">
-        <f>IF(internal!C14="", "", internal!C14)</f>
-        <v>31.12733176437591</v>
-      </c>
-      <c r="D37" s="71">
-        <f>IF(internal!D14=0, "", internal!D14)</f>
-        <v>200.60254037844379</v>
-      </c>
-      <c r="E37" s="71">
-        <f>IF(internal!E14=0, "", internal!E14)</f>
-        <v>89.999859694228434</v>
+      <c r="C37" s="68">
+        <f>IF(external!C14="", "", external!C14)</f>
+        <v>-18.127331764375867</v>
+      </c>
+      <c r="D37" s="68">
+        <f>IF(external!D14="", "", external!D14)</f>
+        <v>99.397459621556209</v>
+      </c>
+      <c r="E37" s="68">
+        <f>IF(external!E14="", "", external!E14)</f>
+        <v>269.99985969422841</v>
       </c>
       <c r="F37" s="63">
-        <f>IF(internal!F14=0, "", internal!F14)</f>
+        <f>IF(external!F14="", "", external!F14)</f>
         <v>5</v>
       </c>
       <c r="G37" s="63">
-        <f>IF(internal!A14=0, "", internal!G14)</f>
+        <f>IF(external!A14="", "", external!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="str">
-        <f>IF(internal!A15=0, "", internal!A15)</f>
+        <f>IF(external!A15="", "", external!A15)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B38" s="63">
-        <f>IF(internal!B15="", "", internal!B15)</f>
+        <f>IF(external!B15="", "", external!B15)</f>
         <v>38</v>
       </c>
-      <c r="C38" s="71">
-        <f>IF(internal!C15="", "", internal!C15)</f>
-        <v>21.889727457341905</v>
-      </c>
-      <c r="D38" s="71">
-        <f>IF(internal!D15=0, "", internal!D15)</f>
-        <v>216.60254037844379</v>
-      </c>
-      <c r="E38" s="71">
-        <f>IF(internal!E15=0, "", internal!E15)</f>
-        <v>30</v>
+      <c r="C38" s="68">
+        <f>IF(external!C15="", "", external!C15)</f>
+        <v>-8.8897274573418628</v>
+      </c>
+      <c r="D38" s="68">
+        <f>IF(external!D15="", "", external!D15)</f>
+        <v>83.397459621556209</v>
+      </c>
+      <c r="E38" s="68">
+        <f>IF(external!E15="", "", external!E15)</f>
+        <v>210</v>
       </c>
       <c r="F38" s="63">
-        <f>IF(internal!F15=0, "", internal!F15)</f>
+        <f>IF(external!F15="", "", external!F15)</f>
         <v>5</v>
       </c>
       <c r="G38" s="63">
-        <f>IF(internal!A15=0, "", internal!G15)</f>
+        <f>IF(external!A15="", "", external!G15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="str">
-        <f>IF(internal!A16=0, "", internal!A16)</f>
+        <f>IF(external!A16="", "", external!A16)</f>
         <v/>
       </c>
       <c r="B39" s="63" t="str">
-        <f>IF(internal!B16="", "", internal!B16)</f>
-        <v/>
-      </c>
-      <c r="C39" s="71" t="str">
-        <f>IF(internal!C16="", "", internal!C16)</f>
-        <v/>
-      </c>
-      <c r="D39" s="71" t="str">
-        <f>IF(internal!D16=0, "", internal!D16)</f>
-        <v/>
-      </c>
-      <c r="E39" s="71" t="str">
-        <f>IF(internal!E16=0, "", internal!E16)</f>
+        <f>IF(external!B16="", "", external!B16)</f>
+        <v/>
+      </c>
+      <c r="C39" s="68" t="str">
+        <f>IF(external!C16="", "", external!C16)</f>
+        <v/>
+      </c>
+      <c r="D39" s="68" t="str">
+        <f>IF(external!D16="", "", external!D16)</f>
+        <v/>
+      </c>
+      <c r="E39" s="68" t="str">
+        <f>IF(external!E16="", "", external!E16)</f>
         <v/>
       </c>
       <c r="F39" s="63" t="str">
-        <f>IF(internal!F16=0, "", internal!F16)</f>
+        <f>IF(external!F16="", "", external!F16)</f>
         <v/>
       </c>
       <c r="G39" s="63" t="str">
-        <f>IF(internal!A16=0, "", internal!G16)</f>
+        <f>IF(external!A16="", "", external!G16)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="str">
-        <f>IF(internal!A17=0, "", internal!A17)</f>
+        <f>IF(external!A17="", "", external!A17)</f>
         <v/>
       </c>
       <c r="B40" s="63" t="str">
-        <f>IF(internal!B17="", "", internal!B17)</f>
-        <v/>
-      </c>
-      <c r="C40" s="71" t="str">
-        <f>IF(internal!C17="", "", internal!C17)</f>
-        <v/>
-      </c>
-      <c r="D40" s="71" t="str">
-        <f>IF(internal!D17=0, "", internal!D17)</f>
-        <v/>
-      </c>
-      <c r="E40" s="71" t="str">
-        <f>IF(internal!E17=0, "", internal!E17)</f>
+        <f>IF(external!B17="", "", external!B17)</f>
+        <v/>
+      </c>
+      <c r="C40" s="68" t="str">
+        <f>IF(external!C17="", "", external!C17)</f>
+        <v/>
+      </c>
+      <c r="D40" s="68" t="str">
+        <f>IF(external!D17="", "", external!D17)</f>
+        <v/>
+      </c>
+      <c r="E40" s="68" t="str">
+        <f>IF(external!E17="", "", external!E17)</f>
         <v/>
       </c>
       <c r="F40" s="63" t="str">
-        <f>IF(internal!F17=0, "", internal!F17)</f>
+        <f>IF(external!F17="", "", external!F17)</f>
         <v/>
       </c>
       <c r="G40" s="63" t="str">
-        <f>IF(internal!A17=0, "", internal!G17)</f>
+        <f>IF(external!A17="", "", external!G17)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="str">
-        <f>IF(internal!A18=0, "", internal!A18)</f>
+        <f>IF(external!A18="", "", external!A18)</f>
         <v/>
       </c>
       <c r="B41" s="63" t="str">
-        <f>IF(internal!B18="", "", internal!B18)</f>
-        <v/>
-      </c>
-      <c r="C41" s="71" t="str">
-        <f>IF(internal!C18="", "", internal!C18)</f>
-        <v/>
-      </c>
-      <c r="D41" s="71" t="str">
-        <f>IF(internal!D18=0, "", internal!D18)</f>
-        <v/>
-      </c>
-      <c r="E41" s="71" t="str">
-        <f>IF(internal!E18=0, "", internal!E18)</f>
+        <f>IF(external!B18="", "", external!B18)</f>
+        <v/>
+      </c>
+      <c r="C41" s="68" t="str">
+        <f>IF(external!C18="", "", external!C18)</f>
+        <v/>
+      </c>
+      <c r="D41" s="68" t="str">
+        <f>IF(external!D18="", "", external!D18)</f>
+        <v/>
+      </c>
+      <c r="E41" s="68" t="str">
+        <f>IF(external!E18="", "", external!E18)</f>
         <v/>
       </c>
       <c r="F41" s="63" t="str">
-        <f>IF(internal!F18=0, "", internal!F18)</f>
+        <f>IF(external!F18="", "", external!F18)</f>
         <v/>
       </c>
       <c r="G41" s="63" t="str">
-        <f>IF(internal!A18=0, "", internal!G18)</f>
+        <f>IF(external!A18="", "", external!G18)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="str">
-        <f>IF(internal!A19=0, "", internal!A19)</f>
+        <f>IF(external!A19="", "", external!A19)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B42" s="63">
-        <f>IF(internal!B19="", "", internal!B19)</f>
+        <f>IF(external!B19="", "", external!B19)</f>
         <v>42</v>
       </c>
-      <c r="C42" s="71">
-        <f>IF(internal!C19="", "", internal!C19)</f>
-        <v>21.889727457341891</v>
-      </c>
-      <c r="D42" s="71">
-        <f>IF(internal!D19=0, "", internal!D19)</f>
-        <v>184.60254037844382</v>
-      </c>
-      <c r="E42" s="71">
-        <f>IF(internal!E19=0, "", internal!E19)</f>
-        <v>149.99971938845687</v>
+      <c r="C42" s="68">
+        <f>IF(external!C19="", "", external!C19)</f>
+        <v>-8.8897274573418485</v>
+      </c>
+      <c r="D42" s="68">
+        <f>IF(external!D19="", "", external!D19)</f>
+        <v>115.39745962155621</v>
+      </c>
+      <c r="E42" s="68">
+        <f>IF(external!E19="", "", external!E19)</f>
+        <v>329.99971938845687</v>
       </c>
       <c r="F42" s="63">
-        <f>IF(internal!F19=0, "", internal!F19)</f>
+        <f>IF(external!F19="", "", external!F19)</f>
         <v>5</v>
       </c>
       <c r="G42" s="63">
-        <f>IF(internal!A19=0, "", internal!G19)</f>
+        <f>IF(external!A19="", "", external!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="str">
-        <f>IF(internal!A20=0, "", internal!A20)</f>
+        <f>IF(external!A20="", "", external!A20)</f>
         <v/>
       </c>
       <c r="B43" s="63" t="str">
-        <f>IF(internal!B20="", "", internal!B20)</f>
-        <v/>
-      </c>
-      <c r="C43" s="71" t="str">
-        <f>IF(internal!C20="", "", internal!C20)</f>
-        <v/>
-      </c>
-      <c r="D43" s="71" t="str">
-        <f>IF(internal!D20=0, "", internal!D20)</f>
-        <v/>
-      </c>
-      <c r="E43" s="71" t="str">
-        <f>IF(internal!E20=0, "", internal!E20)</f>
+        <f>IF(external!B20="", "", external!B20)</f>
+        <v/>
+      </c>
+      <c r="C43" s="68" t="str">
+        <f>IF(external!C20="", "", external!C20)</f>
+        <v/>
+      </c>
+      <c r="D43" s="68" t="str">
+        <f>IF(external!D20="", "", external!D20)</f>
+        <v/>
+      </c>
+      <c r="E43" s="68" t="str">
+        <f>IF(external!E20="", "", external!E20)</f>
         <v/>
       </c>
       <c r="F43" s="63" t="str">
-        <f>IF(internal!F20=0, "", internal!F20)</f>
+        <f>IF(external!F20="", "", external!F20)</f>
         <v/>
       </c>
       <c r="G43" s="63" t="str">
-        <f>IF(internal!A20=0, "", internal!G20)</f>
+        <f>IF(external!A20="", "", external!G20)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="str">
-        <f>IF(internal!A21=0, "", internal!A21)</f>
+        <f>IF(external!A21="", "", external!A21)</f>
         <v/>
       </c>
       <c r="B44" s="63" t="str">
-        <f>IF(internal!B21="", "", internal!B21)</f>
-        <v/>
-      </c>
-      <c r="C44" s="71" t="str">
-        <f>IF(internal!C21="", "", internal!C21)</f>
-        <v/>
-      </c>
-      <c r="D44" s="71" t="str">
-        <f>IF(internal!D21=0, "", internal!D21)</f>
-        <v/>
-      </c>
-      <c r="E44" s="71" t="str">
-        <f>IF(internal!E21=0, "", internal!E21)</f>
+        <f>IF(external!B21="", "", external!B21)</f>
+        <v/>
+      </c>
+      <c r="C44" s="68" t="str">
+        <f>IF(external!C21="", "", external!C21)</f>
+        <v/>
+      </c>
+      <c r="D44" s="68" t="str">
+        <f>IF(external!D21="", "", external!D21)</f>
+        <v/>
+      </c>
+      <c r="E44" s="68" t="str">
+        <f>IF(external!E21="", "", external!E21)</f>
         <v/>
       </c>
       <c r="F44" s="63" t="str">
-        <f>IF(internal!F21=0, "", internal!F21)</f>
+        <f>IF(external!F21="", "", external!F21)</f>
         <v/>
       </c>
       <c r="G44" s="63" t="str">
-        <f>IF(internal!A21=0, "", internal!G21)</f>
+        <f>IF(external!A21="", "", external!G21)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="str">
-        <f>IF(internal!A22=0, "", internal!A22)</f>
+        <f>IF(external!A22="", "", external!A22)</f>
         <v/>
       </c>
       <c r="B45" s="63" t="str">
-        <f>IF(internal!B22="", "", internal!B22)</f>
-        <v/>
-      </c>
-      <c r="C45" s="71" t="str">
-        <f>IF(internal!C22="", "", internal!C22)</f>
-        <v/>
-      </c>
-      <c r="D45" s="71" t="str">
-        <f>IF(internal!D22=0, "", internal!D22)</f>
-        <v/>
-      </c>
-      <c r="E45" s="71" t="str">
-        <f>IF(internal!E22=0, "", internal!E22)</f>
+        <f>IF(external!B22="", "", external!B22)</f>
+        <v/>
+      </c>
+      <c r="C45" s="68" t="str">
+        <f>IF(external!C22="", "", external!C22)</f>
+        <v/>
+      </c>
+      <c r="D45" s="68" t="str">
+        <f>IF(external!D22="", "", external!D22)</f>
+        <v/>
+      </c>
+      <c r="E45" s="68" t="str">
+        <f>IF(external!E22="", "", external!E22)</f>
         <v/>
       </c>
       <c r="F45" s="63" t="str">
-        <f>IF(internal!F22=0, "", internal!F22)</f>
+        <f>IF(external!F22="", "", external!F22)</f>
         <v/>
       </c>
       <c r="G45" s="63" t="str">
-        <f>IF(internal!A22=0, "", internal!G22)</f>
+        <f>IF(external!A22="", "", external!G22)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="str">
-        <f>IF(internal!A23=0, "", internal!A23)</f>
+        <f>IF(external!A23="", "", external!A23)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B46" s="63">
-        <f>IF(internal!B23="", "", internal!B23)</f>
+        <f>IF(external!B23="", "", external!B23)</f>
         <v>43</v>
       </c>
-      <c r="C46" s="71">
-        <f>IF(internal!C23="", "", internal!C23)</f>
-        <v>31.127331764375896</v>
-      </c>
-      <c r="D46" s="71">
-        <f>IF(internal!D23=0, "", internal!D23)</f>
-        <v>168.60254037844382</v>
-      </c>
-      <c r="E46" s="71">
-        <f>IF(internal!E23=0, "", internal!E23)</f>
-        <v>209.99957908268468</v>
+      <c r="C46" s="68">
+        <f>IF(external!C23="", "", external!C23)</f>
+        <v>-18.127331764375853</v>
+      </c>
+      <c r="D46" s="68">
+        <f>IF(external!D23="", "", external!D23)</f>
+        <v>131.39745962155618</v>
+      </c>
+      <c r="E46" s="68">
+        <f>IF(external!E23="", "", external!E23)</f>
+        <v>389.9995790826847</v>
       </c>
       <c r="F46" s="63">
-        <f>IF(internal!F23=0, "", internal!F23)</f>
+        <f>IF(external!F23="", "", external!F23)</f>
         <v>5</v>
       </c>
       <c r="G46" s="63">
-        <f>IF(internal!A23=0, "", internal!G23)</f>
+        <f>IF(external!A23="", "", external!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="str">
-        <f>IF(internal!A24=0, "", internal!A24)</f>
+        <f>IF(external!A24="", "", external!A24)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B47" s="63">
-        <f>IF(internal!B24="", "", internal!B24)</f>
+        <f>IF(external!B24="", "", external!B24)</f>
         <v>46</v>
       </c>
-      <c r="C47" s="71">
-        <f>IF(internal!C24="", "", internal!C24)</f>
-        <v>21.889727457341856</v>
-      </c>
-      <c r="D47" s="71">
-        <f>IF(internal!D24=0, "", internal!D24)</f>
-        <v>152.60254037844382</v>
-      </c>
-      <c r="E47" s="71">
-        <f>IF(internal!E24=0, "", internal!E24)</f>
-        <v>149.99971938845687</v>
+      <c r="C47" s="68">
+        <f>IF(external!C24="", "", external!C24)</f>
+        <v>-8.8897274573418343</v>
+      </c>
+      <c r="D47" s="68">
+        <f>IF(external!D24="", "", external!D24)</f>
+        <v>147.39745962155618</v>
+      </c>
+      <c r="E47" s="68">
+        <f>IF(external!E24="", "", external!E24)</f>
+        <v>329.99971938845687</v>
       </c>
       <c r="F47" s="63">
-        <f>IF(internal!F24=0, "", internal!F24)</f>
+        <f>IF(external!F24="", "", external!F24)</f>
         <v>5</v>
       </c>
       <c r="G47" s="63">
-        <f>IF(internal!A24=0, "", internal!G24)</f>
+        <f>IF(external!A24="", "", external!G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="str">
-        <f>IF(internal!A25=0, "", internal!A25)</f>
+        <f>IF(external!A25="", "", external!A25)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B48" s="63">
-        <f>IF(internal!B25="", "", internal!B25)</f>
+        <f>IF(external!B25="", "", external!B25)</f>
         <v>47</v>
       </c>
-      <c r="C48" s="71">
-        <f>IF(internal!C25="", "", internal!C25)</f>
-        <v>31.127331764375853</v>
-      </c>
-      <c r="D48" s="71">
-        <f>IF(internal!D25=0, "", internal!D25)</f>
-        <v>136.60254037844385</v>
-      </c>
-      <c r="E48" s="71">
-        <f>IF(internal!E25=0, "", internal!E25)</f>
-        <v>209.99957908268468</v>
+      <c r="C48" s="68">
+        <f>IF(external!C25="", "", external!C25)</f>
+        <v>-18.127331764375832</v>
+      </c>
+      <c r="D48" s="68">
+        <f>IF(external!D25="", "", external!D25)</f>
+        <v>163.39745962155615</v>
+      </c>
+      <c r="E48" s="68">
+        <f>IF(external!E25="", "", external!E25)</f>
+        <v>389.9995790826847</v>
       </c>
       <c r="F48" s="63">
-        <f>IF(internal!F25=0, "", internal!F25)</f>
+        <f>IF(external!F25="", "", external!F25)</f>
         <v>5</v>
       </c>
       <c r="G48" s="63">
-        <f>IF(internal!A25=0, "", internal!G25)</f>
+        <f>IF(external!A25="", "", external!G25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="str">
-        <f>IF(external!A3=0, "", external!A3)</f>
+        <f>IF(internal!A3="", "", internal!A3)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B49" s="62">
-        <f>IF(external!B3="", "", external!B3)</f>
+        <f>IF(internal!B3="", "", internal!B3)</f>
         <v>16</v>
       </c>
-      <c r="C49" s="72">
-        <f>IF(external!C3="", "", external!C3)</f>
-        <v>-76.602540378443848</v>
-      </c>
-      <c r="D49" s="72">
-        <f>IF(external!D3=0, "", external!D3)</f>
-        <v>215.39745962155612</v>
-      </c>
-      <c r="E49" s="72">
-        <f>IF(external!E3=0, "", external!E3)</f>
-        <v>210</v>
+      <c r="C49" s="69">
+        <f>IF(internal!C3="", "", internal!C3)</f>
+        <v>-163.39745962155612</v>
+      </c>
+      <c r="D49" s="69">
+        <f>IF(internal!D3="", "", internal!D3)</f>
+        <v>86.602540378443877</v>
+      </c>
+      <c r="E49" s="69">
+        <f>IF(internal!E3="", "", internal!E3)</f>
+        <v>30</v>
       </c>
       <c r="F49" s="62">
-        <f>IF(external!F3=0, "", external!F3)</f>
+        <f>IF(internal!F3="", "", internal!F3)</f>
         <v>5</v>
       </c>
       <c r="G49" s="62">
-        <f>IF(external!A3=0, "", external!G3)</f>
+        <f>IF(internal!A3="", "", internal!G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="str">
-        <f>IF(external!A4=0, "", external!A4)</f>
+        <f>IF(internal!A4="", "", internal!A4)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B50" s="62">
-        <f>IF(external!B4="", "", external!B4)</f>
+        <f>IF(internal!B4="", "", internal!B4)</f>
         <v>17</v>
       </c>
-      <c r="C50" s="72">
-        <f>IF(external!C4="", "", external!C4)</f>
-        <v>-85.840144685477867</v>
-      </c>
-      <c r="D50" s="72">
-        <f>IF(external!D4=0, "", external!D4)</f>
-        <v>199.39745962155615</v>
-      </c>
-      <c r="E50" s="72">
-        <f>IF(external!E4=0, "", external!E4)</f>
-        <v>150.00014030577157</v>
+      <c r="C50" s="69">
+        <f>IF(internal!C4="", "", internal!C4)</f>
+        <v>-154.1598553145221</v>
+      </c>
+      <c r="D50" s="69">
+        <f>IF(internal!D4="", "", internal!D4)</f>
+        <v>102.60254037844385</v>
+      </c>
+      <c r="E50" s="69">
+        <f>IF(internal!E4="", "", internal!E4)</f>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F50" s="62">
-        <f>IF(external!F4=0, "", external!F4)</f>
+        <f>IF(internal!F4="", "", internal!F4)</f>
         <v>5</v>
       </c>
       <c r="G50" s="62">
-        <f>IF(external!A4=0, "", external!G4)</f>
+        <f>IF(internal!A4="", "", internal!G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="str">
-        <f>IF(external!A5=0, "", external!A5)</f>
+        <f>IF(internal!A5="", "", internal!A5)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B51" s="62">
-        <f>IF(external!B5="", "", external!B5)</f>
+        <f>IF(internal!B5="", "", internal!B5)</f>
         <v>18</v>
       </c>
-      <c r="C51" s="72">
-        <f>IF(external!C5="", "", external!C5)</f>
-        <v>-104.31535329954588</v>
-      </c>
-      <c r="D51" s="72">
-        <f>IF(external!D5=0, "", external!D5)</f>
-        <v>199.39745962155612</v>
-      </c>
-      <c r="E51" s="72">
-        <f>IF(external!E5=0, "", external!E5)</f>
-        <v>90.000280611543147</v>
+      <c r="C51" s="69">
+        <f>IF(internal!C5="", "", internal!C5)</f>
+        <v>-135.6846467004541</v>
+      </c>
+      <c r="D51" s="69">
+        <f>IF(internal!D5="", "", internal!D5)</f>
+        <v>102.60254037844385</v>
+      </c>
+      <c r="E51" s="69">
+        <f>IF(internal!E5="", "", internal!E5)</f>
+        <v>-89.999719388456853</v>
       </c>
       <c r="F51" s="62">
-        <f>IF(external!F5=0, "", external!F5)</f>
+        <f>IF(internal!F5="", "", internal!F5)</f>
         <v>5</v>
       </c>
       <c r="G51" s="62">
-        <f>IF(external!A5=0, "", external!G5)</f>
+        <f>IF(internal!A5="", "", internal!G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="str">
-        <f>IF(external!A6=0, "", external!A6)</f>
+        <f>IF(internal!A6="", "", internal!A6)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B52" s="62">
-        <f>IF(external!B6="", "", external!B6)</f>
+        <f>IF(internal!B6="", "", internal!B6)</f>
         <v>19</v>
       </c>
-      <c r="C52" s="72">
-        <f>IF(external!C6="", "", external!C6)</f>
-        <v>-113.55295760657989</v>
-      </c>
-      <c r="D52" s="72">
-        <f>IF(external!D6=0, "", external!D6)</f>
-        <v>183.39745962155615</v>
-      </c>
-      <c r="E52" s="72">
-        <f>IF(external!E6=0, "", external!E6)</f>
-        <v>150.00014030577157</v>
+      <c r="C52" s="69">
+        <f>IF(internal!C6="", "", internal!C6)</f>
+        <v>-126.44704239342006</v>
+      </c>
+      <c r="D52" s="69">
+        <f>IF(internal!D6="", "", internal!D6)</f>
+        <v>118.60254037844385</v>
+      </c>
+      <c r="E52" s="69">
+        <f>IF(internal!E6="", "", internal!E6)</f>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F52" s="62">
-        <f>IF(external!F6=0, "", external!F6)</f>
+        <f>IF(internal!F6="", "", internal!F6)</f>
         <v>5</v>
       </c>
       <c r="G52" s="62">
-        <f>IF(external!A6=0, "", external!G6)</f>
+        <f>IF(internal!A6="", "", internal!G6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="str">
-        <f>IF(external!A7=0, "", external!A7)</f>
+        <f>IF(internal!A7="", "", internal!A7)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B53" s="62">
-        <f>IF(external!B7="", "", external!B7)</f>
+        <f>IF(internal!B7="", "", internal!B7)</f>
         <v>20</v>
       </c>
-      <c r="C53" s="72">
-        <f>IF(external!C7="", "", external!C7)</f>
-        <v>-104.31535329954589</v>
-      </c>
-      <c r="D53" s="72">
-        <f>IF(external!D7=0, "", external!D7)</f>
-        <v>167.39745962155615</v>
-      </c>
-      <c r="E53" s="72">
-        <f>IF(external!E7=0, "", external!E7)</f>
-        <v>210</v>
+      <c r="C53" s="69">
+        <f>IF(internal!C7="", "", internal!C7)</f>
+        <v>-135.68464670045407</v>
+      </c>
+      <c r="D53" s="69">
+        <f>IF(internal!D7="", "", internal!D7)</f>
+        <v>134.60254037844382</v>
+      </c>
+      <c r="E53" s="69">
+        <f>IF(internal!E7="", "", internal!E7)</f>
+        <v>30</v>
       </c>
       <c r="F53" s="62">
-        <f>IF(external!F7=0, "", external!F7)</f>
+        <f>IF(internal!F7="", "", internal!F7)</f>
         <v>5</v>
       </c>
       <c r="G53" s="62">
-        <f>IF(external!A7=0, "", external!G7)</f>
+        <f>IF(internal!A7="", "", internal!G7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="str">
-        <f>IF(external!A8=0, "", external!A8)</f>
+        <f>IF(internal!A8="", "", internal!A8)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B54" s="62">
-        <f>IF(external!B8="", "", external!B8)</f>
+        <f>IF(internal!B8="", "", internal!B8)</f>
         <v>21</v>
       </c>
-      <c r="C54" s="72">
-        <f>IF(external!C8="", "", external!C8)</f>
-        <v>-113.55295760657992</v>
-      </c>
-      <c r="D54" s="72">
-        <f>IF(external!D8=0, "", external!D8)</f>
-        <v>151.39745962155618</v>
-      </c>
-      <c r="E54" s="72">
-        <f>IF(external!E8=0, "", external!E8)</f>
-        <v>150.00014030577157</v>
+      <c r="C54" s="69">
+        <f>IF(internal!C8="", "", internal!C8)</f>
+        <v>-126.44704239342002</v>
+      </c>
+      <c r="D54" s="69">
+        <f>IF(internal!D8="", "", internal!D8)</f>
+        <v>150.60254037844379</v>
+      </c>
+      <c r="E54" s="69">
+        <f>IF(internal!E8="", "", internal!E8)</f>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F54" s="62">
-        <f>IF(external!F8=0, "", external!F8)</f>
+        <f>IF(internal!F8="", "", internal!F8)</f>
         <v>5</v>
       </c>
       <c r="G54" s="62">
-        <f>IF(external!A8=0, "", external!G8)</f>
+        <f>IF(internal!A8="", "", internal!G8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="str">
-        <f>IF(external!A9=0, "", external!A9)</f>
+        <f>IF(internal!A9="", "", internal!A9)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B55" s="62">
-        <f>IF(external!B9="", "", external!B9)</f>
+        <f>IF(internal!B9="", "", internal!B9)</f>
         <v>22</v>
       </c>
-      <c r="C55" s="72">
-        <f>IF(external!C9="", "", external!C9)</f>
-        <v>-104.31535329954592</v>
-      </c>
-      <c r="D55" s="72">
-        <f>IF(external!D9=0, "", external!D9)</f>
-        <v>135.39745962155621</v>
-      </c>
-      <c r="E55" s="72">
-        <f>IF(external!E9=0, "", external!E9)</f>
-        <v>210</v>
+      <c r="C55" s="69">
+        <f>IF(internal!C9="", "", internal!C9)</f>
+        <v>-135.68464670045404</v>
+      </c>
+      <c r="D55" s="69">
+        <f>IF(internal!D9="", "", internal!D9)</f>
+        <v>166.60254037844379</v>
+      </c>
+      <c r="E55" s="69">
+        <f>IF(internal!E9="", "", internal!E9)</f>
+        <v>30</v>
       </c>
       <c r="F55" s="62">
-        <f>IF(external!F9=0, "", external!F9)</f>
+        <f>IF(internal!F9="", "", internal!F9)</f>
         <v>5</v>
       </c>
       <c r="G55" s="62">
-        <f>IF(external!A9=0, "", external!G9)</f>
+        <f>IF(internal!A9="", "", internal!G9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="str">
-        <f>IF(external!A10=0, "", external!A10)</f>
+        <f>IF(internal!A10="", "", internal!A10)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B56" s="62">
-        <f>IF(external!B10="", "", external!B10)</f>
+        <f>IF(internal!B10="", "", internal!B10)</f>
         <v>23</v>
       </c>
-      <c r="C56" s="72">
-        <f>IF(external!C10="", "", external!C10)</f>
-        <v>-85.840144685477895</v>
-      </c>
-      <c r="D56" s="72">
-        <f>IF(external!D10=0, "", external!D10)</f>
-        <v>135.39745962155621</v>
-      </c>
-      <c r="E56" s="72">
-        <f>IF(external!E10=0, "", external!E10)</f>
-        <v>269.99985969422841</v>
+      <c r="C56" s="69">
+        <f>IF(internal!C10="", "", internal!C10)</f>
+        <v>-154.15985531452205</v>
+      </c>
+      <c r="D56" s="69">
+        <f>IF(internal!D10="", "", internal!D10)</f>
+        <v>166.60254037844379</v>
+      </c>
+      <c r="E56" s="69">
+        <f>IF(internal!E10="", "", internal!E10)</f>
+        <v>89.999859694228434</v>
       </c>
       <c r="F56" s="62">
-        <f>IF(external!F10=0, "", external!F10)</f>
+        <f>IF(internal!F10="", "", internal!F10)</f>
         <v>5</v>
       </c>
       <c r="G56" s="62">
-        <f>IF(external!A10=0, "", external!G10)</f>
+        <f>IF(internal!A10="", "", internal!G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="str">
-        <f>IF(external!A11=0, "", external!A11)</f>
+        <f>IF(internal!A11="", "", internal!A11)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B57" s="62">
-        <f>IF(external!B11="", "", external!B11)</f>
+        <f>IF(internal!B11="", "", internal!B11)</f>
         <v>28</v>
       </c>
-      <c r="C57" s="72">
-        <f>IF(external!C11="", "", external!C11)</f>
-        <v>-76.602540378443862</v>
-      </c>
-      <c r="D57" s="72">
-        <f>IF(external!D11=0, "", external!D11)</f>
-        <v>183.39745962155615</v>
-      </c>
-      <c r="E57" s="72">
-        <f>IF(external!E11=0, "", external!E11)</f>
-        <v>210</v>
+      <c r="C57" s="69">
+        <f>IF(internal!C11="", "", internal!C11)</f>
+        <v>-163.3974596215561</v>
+      </c>
+      <c r="D57" s="69">
+        <f>IF(internal!D11="", "", internal!D11)</f>
+        <v>118.60254037844382</v>
+      </c>
+      <c r="E57" s="69">
+        <f>IF(internal!E11="", "", internal!E11)</f>
+        <v>30</v>
       </c>
       <c r="F57" s="62">
-        <f>IF(external!F11=0, "", external!F11)</f>
+        <f>IF(internal!F11="", "", internal!F11)</f>
         <v>5</v>
       </c>
       <c r="G57" s="62">
-        <f>IF(external!A11=0, "", external!G11)</f>
+        <f>IF(internal!A11="", "", internal!G11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="str">
-        <f>IF(external!A12=0, "", external!A12)</f>
+        <f>IF(internal!A12="", "", internal!A12)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B58" s="62">
-        <f>IF(external!B12="", "", external!B12)</f>
+        <f>IF(internal!B12="", "", internal!B12)</f>
         <v>29</v>
       </c>
-      <c r="C58" s="72">
-        <f>IF(external!C12="", "", external!C12)</f>
-        <v>-85.840144685477881</v>
-      </c>
-      <c r="D58" s="72">
-        <f>IF(external!D12=0, "", external!D12)</f>
-        <v>167.39745962155618</v>
-      </c>
-      <c r="E58" s="72">
-        <f>IF(external!E12=0, "", external!E12)</f>
-        <v>150.00014030577157</v>
+      <c r="C58" s="69">
+        <f>IF(internal!C12="", "", internal!C12)</f>
+        <v>-154.15985531452208</v>
+      </c>
+      <c r="D58" s="69">
+        <f>IF(internal!D12="", "", internal!D12)</f>
+        <v>134.60254037844379</v>
+      </c>
+      <c r="E58" s="69">
+        <f>IF(internal!E12="", "", internal!E12)</f>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F58" s="62">
-        <f>IF(external!F12=0, "", external!F12)</f>
+        <f>IF(internal!F12="", "", internal!F12)</f>
         <v>5</v>
       </c>
       <c r="G58" s="62">
-        <f>IF(external!A12=0, "", external!G12)</f>
+        <f>IF(internal!A12="", "", internal!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="62" t="str">
-        <f>IF(external!A13=0, "", external!A13)</f>
+        <f>IF(internal!A13="", "", internal!A13)</f>
         <v>triangle_10pad</v>
       </c>
       <c r="B59" s="62">
-        <f>IF(external!B13="", "", external!B13)</f>
+        <f>IF(internal!B13="", "", internal!B13)</f>
         <v>24</v>
       </c>
-      <c r="C59" s="72">
-        <f>IF(external!C13="", "", external!C13)</f>
-        <v>-76.602540378443877</v>
-      </c>
-      <c r="D59" s="72">
-        <f>IF(external!D13=0, "", external!D13)</f>
-        <v>151.39745962155621</v>
-      </c>
-      <c r="E59" s="72">
-        <f>IF(external!E13=0, "", external!E13)</f>
-        <v>210</v>
+      <c r="C59" s="69">
+        <f>IF(internal!C13="", "", internal!C13)</f>
+        <v>-163.3974596215561</v>
+      </c>
+      <c r="D59" s="69">
+        <f>IF(internal!D13="", "", internal!D13)</f>
+        <v>150.60254037844379</v>
+      </c>
+      <c r="E59" s="69">
+        <f>IF(internal!E13="", "", internal!E13)</f>
+        <v>30</v>
       </c>
       <c r="F59" s="62">
-        <f>IF(external!F13=0, "", external!F13)</f>
+        <f>IF(internal!F13="", "", internal!F13)</f>
         <v>5</v>
       </c>
       <c r="G59" s="62">
-        <f>IF(external!A13=0, "", external!G13)</f>
+        <f>IF(internal!A13="", "", internal!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="str">
-        <f>IF(external!A14=0, "", external!A14)</f>
+        <f>IF(internal!A14="", "", internal!A14)</f>
         <v/>
       </c>
       <c r="B60" s="62" t="str">
-        <f>IF(external!B14="", "", external!B14)</f>
-        <v/>
-      </c>
-      <c r="C60" s="72" t="str">
-        <f>IF(external!C14="", "", external!C14)</f>
-        <v/>
-      </c>
-      <c r="D60" s="72" t="str">
-        <f>IF(external!D14=0, "", external!D14)</f>
-        <v/>
-      </c>
-      <c r="E60" s="72" t="str">
-        <f>IF(external!E14=0, "", external!E14)</f>
+        <f>IF(internal!B14="", "", internal!B14)</f>
+        <v/>
+      </c>
+      <c r="C60" s="69" t="str">
+        <f>IF(internal!C14="", "", internal!C14)</f>
+        <v/>
+      </c>
+      <c r="D60" s="69" t="str">
+        <f>IF(internal!D14="", "", internal!D14)</f>
+        <v/>
+      </c>
+      <c r="E60" s="69" t="str">
+        <f>IF(internal!E14="", "", internal!E14)</f>
         <v/>
       </c>
       <c r="F60" s="62" t="str">
-        <f>IF(external!F14=0, "", external!F14)</f>
+        <f>IF(internal!F14="", "", internal!F14)</f>
         <v/>
       </c>
       <c r="G60" s="62" t="str">
-        <f>IF(external!A14=0, "", external!G14)</f>
+        <f>IF(internal!A14="", "", internal!G14)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="str">
-        <f>IF(external!A15=0, "", external!A15)</f>
+        <f>IF(internal!A15="", "", internal!A15)</f>
         <v/>
       </c>
       <c r="B61" s="62" t="str">
-        <f>IF(external!B15="", "", external!B15)</f>
-        <v/>
-      </c>
-      <c r="C61" s="72" t="str">
-        <f>IF(external!C15="", "", external!C15)</f>
-        <v/>
-      </c>
-      <c r="D61" s="72" t="str">
-        <f>IF(external!D15=0, "", external!D15)</f>
-        <v/>
-      </c>
-      <c r="E61" s="72" t="str">
-        <f>IF(external!E15=0, "", external!E15)</f>
+        <f>IF(internal!B15="", "", internal!B15)</f>
+        <v/>
+      </c>
+      <c r="C61" s="69" t="str">
+        <f>IF(internal!C15="", "", internal!C15)</f>
+        <v/>
+      </c>
+      <c r="D61" s="69" t="str">
+        <f>IF(internal!D15="", "", internal!D15)</f>
+        <v/>
+      </c>
+      <c r="E61" s="69" t="str">
+        <f>IF(internal!E15="", "", internal!E15)</f>
         <v/>
       </c>
       <c r="F61" s="62" t="str">
-        <f>IF(external!F15=0, "", external!F15)</f>
+        <f>IF(internal!F15="", "", internal!F15)</f>
         <v/>
       </c>
       <c r="G61" s="62" t="str">
-        <f>IF(external!A15=0, "", external!G15)</f>
+        <f>IF(internal!A15="", "", internal!G15)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="str">
-        <f>IF(external!A16=0, "", external!A16)</f>
+        <f>IF(internal!A16="", "", internal!A16)</f>
         <v/>
       </c>
       <c r="B62" s="62" t="str">
-        <f>IF(external!B16="", "", external!B16)</f>
-        <v/>
-      </c>
-      <c r="C62" s="72" t="str">
-        <f>IF(external!C16="", "", external!C16)</f>
-        <v/>
-      </c>
-      <c r="D62" s="72" t="str">
-        <f>IF(external!D16=0, "", external!D16)</f>
-        <v/>
-      </c>
-      <c r="E62" s="72" t="str">
-        <f>IF(external!E16=0, "", external!E16)</f>
+        <f>IF(internal!B16="", "", internal!B16)</f>
+        <v/>
+      </c>
+      <c r="C62" s="69" t="str">
+        <f>IF(internal!C16="", "", internal!C16)</f>
+        <v/>
+      </c>
+      <c r="D62" s="69" t="str">
+        <f>IF(internal!D16="", "", internal!D16)</f>
+        <v/>
+      </c>
+      <c r="E62" s="69" t="str">
+        <f>IF(internal!E16="", "", internal!E16)</f>
         <v/>
       </c>
       <c r="F62" s="62" t="str">
-        <f>IF(external!F16=0, "", external!F16)</f>
+        <f>IF(internal!F16="", "", internal!F16)</f>
         <v/>
       </c>
       <c r="G62" s="62" t="str">
-        <f>IF(external!A16=0, "", external!G16)</f>
+        <f>IF(internal!A16="", "", internal!G16)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="62" t="str">
-        <f>IF(external!A17=0, "", external!A17)</f>
+        <f>IF(internal!A17="", "", internal!A17)</f>
         <v/>
       </c>
       <c r="B63" s="62" t="str">
-        <f>IF(external!B17="", "", external!B17)</f>
-        <v/>
-      </c>
-      <c r="C63" s="72" t="str">
-        <f>IF(external!C17="", "", external!C17)</f>
-        <v/>
-      </c>
-      <c r="D63" s="72" t="str">
-        <f>IF(external!D17=0, "", external!D17)</f>
-        <v/>
-      </c>
-      <c r="E63" s="72" t="str">
-        <f>IF(external!E17=0, "", external!E17)</f>
+        <f>IF(internal!B17="", "", internal!B17)</f>
+        <v/>
+      </c>
+      <c r="C63" s="69" t="str">
+        <f>IF(internal!C17="", "", internal!C17)</f>
+        <v/>
+      </c>
+      <c r="D63" s="69" t="str">
+        <f>IF(internal!D17="", "", internal!D17)</f>
+        <v/>
+      </c>
+      <c r="E63" s="69" t="str">
+        <f>IF(internal!E17="", "", internal!E17)</f>
         <v/>
       </c>
       <c r="F63" s="62" t="str">
-        <f>IF(external!F17=0, "", external!F17)</f>
+        <f>IF(internal!F17="", "", internal!F17)</f>
         <v/>
       </c>
       <c r="G63" s="62" t="str">
-        <f>IF(external!A17=0, "", external!G17)</f>
+        <f>IF(internal!A17="", "", internal!G17)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="str">
-        <f>IF(external!A18=0, "", external!A18)</f>
+        <f>IF(internal!A18="", "", internal!A18)</f>
         <v/>
       </c>
       <c r="B64" s="62" t="str">
-        <f>IF(external!B18="", "", external!B18)</f>
-        <v/>
-      </c>
-      <c r="C64" s="72" t="str">
-        <f>IF(external!C18="", "", external!C18)</f>
-        <v/>
-      </c>
-      <c r="D64" s="72" t="str">
-        <f>IF(external!D18=0, "", external!D18)</f>
-        <v/>
-      </c>
-      <c r="E64" s="72" t="str">
-        <f>IF(external!E18=0, "", external!E18)</f>
+        <f>IF(internal!B18="", "", internal!B18)</f>
+        <v/>
+      </c>
+      <c r="C64" s="69" t="str">
+        <f>IF(internal!C18="", "", internal!C18)</f>
+        <v/>
+      </c>
+      <c r="D64" s="69" t="str">
+        <f>IF(internal!D18="", "", internal!D18)</f>
+        <v/>
+      </c>
+      <c r="E64" s="69" t="str">
+        <f>IF(internal!E18="", "", internal!E18)</f>
         <v/>
       </c>
       <c r="F64" s="62" t="str">
-        <f>IF(external!F18=0, "", external!F18)</f>
+        <f>IF(internal!F18="", "", internal!F18)</f>
         <v/>
       </c>
       <c r="G64" s="62" t="str">
-        <f>IF(external!A18=0, "", external!G18)</f>
+        <f>IF(internal!A18="", "", internal!G18)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="str">
-        <f>IF(external!A19=0, "", external!A19)</f>
+        <f>IF(internal!A19="", "", internal!A19)</f>
         <v/>
       </c>
       <c r="B65" s="62" t="str">
-        <f>IF(external!B19="", "", external!B19)</f>
-        <v/>
-      </c>
-      <c r="C65" s="72" t="str">
-        <f>IF(external!C19="", "", external!C19)</f>
-        <v/>
-      </c>
-      <c r="D65" s="72" t="str">
-        <f>IF(external!D19=0, "", external!D19)</f>
-        <v/>
-      </c>
-      <c r="E65" s="72" t="str">
-        <f>IF(external!E19=0, "", external!E19)</f>
+        <f>IF(internal!B19="", "", internal!B19)</f>
+        <v/>
+      </c>
+      <c r="C65" s="69" t="str">
+        <f>IF(internal!C19="", "", internal!C19)</f>
+        <v/>
+      </c>
+      <c r="D65" s="69" t="str">
+        <f>IF(internal!D19="", "", internal!D19)</f>
+        <v/>
+      </c>
+      <c r="E65" s="69" t="str">
+        <f>IF(internal!E19="", "", internal!E19)</f>
         <v/>
       </c>
       <c r="F65" s="62" t="str">
-        <f>IF(external!F19=0, "", external!F19)</f>
+        <f>IF(internal!F19="", "", internal!F19)</f>
         <v/>
       </c>
       <c r="G65" s="62" t="str">
-        <f>IF(external!A19=0, "", external!G19)</f>
+        <f>IF(internal!A19="", "", internal!G19)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="62" t="str">
-        <f>IF(external!A20=0, "", external!A20)</f>
+        <f>IF(internal!A20="", "", internal!A20)</f>
         <v/>
       </c>
       <c r="B66" s="62" t="str">
-        <f>IF(external!B20="", "", external!B20)</f>
-        <v/>
-      </c>
-      <c r="C66" s="72" t="str">
-        <f>IF(external!C20="", "", external!C20)</f>
-        <v/>
-      </c>
-      <c r="D66" s="72" t="str">
-        <f>IF(external!D20=0, "", external!D20)</f>
-        <v/>
-      </c>
-      <c r="E66" s="72" t="str">
-        <f>IF(external!E20=0, "", external!E20)</f>
+        <f>IF(internal!B20="", "", internal!B20)</f>
+        <v/>
+      </c>
+      <c r="C66" s="69" t="str">
+        <f>IF(internal!C20="", "", internal!C20)</f>
+        <v/>
+      </c>
+      <c r="D66" s="69" t="str">
+        <f>IF(internal!D20="", "", internal!D20)</f>
+        <v/>
+      </c>
+      <c r="E66" s="69" t="str">
+        <f>IF(internal!E20="", "", internal!E20)</f>
         <v/>
       </c>
       <c r="F66" s="62" t="str">
-        <f>IF(external!F20=0, "", external!F20)</f>
+        <f>IF(internal!F20="", "", internal!F20)</f>
         <v/>
       </c>
       <c r="G66" s="62" t="str">
-        <f>IF(external!A20=0, "", external!G20)</f>
+        <f>IF(internal!A20="", "", internal!G20)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="62" t="str">
-        <f>IF(external!A21=0, "", external!A21)</f>
+        <f>IF(internal!A21="", "", internal!A21)</f>
         <v/>
       </c>
       <c r="B67" s="62" t="str">
-        <f>IF(external!B21="", "", external!B21)</f>
-        <v/>
-      </c>
-      <c r="C67" s="72" t="str">
-        <f>IF(external!C21="", "", external!C21)</f>
-        <v/>
-      </c>
-      <c r="D67" s="72" t="str">
-        <f>IF(external!D21=0, "", external!D21)</f>
-        <v/>
-      </c>
-      <c r="E67" s="72" t="str">
-        <f>IF(external!E21=0, "", external!E21)</f>
+        <f>IF(internal!B21="", "", internal!B21)</f>
+        <v/>
+      </c>
+      <c r="C67" s="69" t="str">
+        <f>IF(internal!C21="", "", internal!C21)</f>
+        <v/>
+      </c>
+      <c r="D67" s="69" t="str">
+        <f>IF(internal!D21="", "", internal!D21)</f>
+        <v/>
+      </c>
+      <c r="E67" s="69" t="str">
+        <f>IF(internal!E21="", "", internal!E21)</f>
         <v/>
       </c>
       <c r="F67" s="62" t="str">
-        <f>IF(external!F21=0, "", external!F21)</f>
+        <f>IF(internal!F21="", "", internal!F21)</f>
         <v/>
       </c>
       <c r="G67" s="62" t="str">
-        <f>IF(external!A21=0, "", external!G21)</f>
+        <f>IF(internal!A21="", "", internal!G21)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="62" t="str">
-        <f>IF(external!A22=0, "", external!A22)</f>
+        <f>IF(internal!A22="", "", internal!A22)</f>
         <v/>
       </c>
       <c r="B68" s="62" t="str">
-        <f>IF(external!B22="", "", external!B22)</f>
-        <v/>
-      </c>
-      <c r="C68" s="72" t="str">
-        <f>IF(external!C22="", "", external!C22)</f>
-        <v/>
-      </c>
-      <c r="D68" s="72" t="str">
-        <f>IF(external!D22=0, "", external!D22)</f>
-        <v/>
-      </c>
-      <c r="E68" s="72" t="str">
-        <f>IF(external!E22=0, "", external!E22)</f>
+        <f>IF(internal!B22="", "", internal!B22)</f>
+        <v/>
+      </c>
+      <c r="C68" s="69" t="str">
+        <f>IF(internal!C22="", "", internal!C22)</f>
+        <v/>
+      </c>
+      <c r="D68" s="69" t="str">
+        <f>IF(internal!D22="", "", internal!D22)</f>
+        <v/>
+      </c>
+      <c r="E68" s="69" t="str">
+        <f>IF(internal!E22="", "", internal!E22)</f>
         <v/>
       </c>
       <c r="F68" s="62" t="str">
-        <f>IF(external!F22=0, "", external!F22)</f>
+        <f>IF(internal!F22="", "", internal!F22)</f>
         <v/>
       </c>
       <c r="G68" s="62" t="str">
-        <f>IF(external!A22=0, "", external!G22)</f>
+        <f>IF(internal!A22="", "", internal!G22)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="62" t="str">
-        <f>IF(external!A23=0, "", external!A23)</f>
+        <f>IF(internal!A23="", "", internal!A23)</f>
         <v/>
       </c>
       <c r="B69" s="62" t="str">
-        <f>IF(external!B23="", "", external!B23)</f>
-        <v/>
-      </c>
-      <c r="C69" s="72" t="str">
-        <f>IF(external!C23="", "", external!C23)</f>
-        <v/>
-      </c>
-      <c r="D69" s="72" t="str">
-        <f>IF(external!D23=0, "", external!D23)</f>
-        <v/>
-      </c>
-      <c r="E69" s="72" t="str">
-        <f>IF(external!E23=0, "", external!E23)</f>
+        <f>IF(internal!B23="", "", internal!B23)</f>
+        <v/>
+      </c>
+      <c r="C69" s="69" t="str">
+        <f>IF(internal!C23="", "", internal!C23)</f>
+        <v/>
+      </c>
+      <c r="D69" s="69" t="str">
+        <f>IF(internal!D23="", "", internal!D23)</f>
+        <v/>
+      </c>
+      <c r="E69" s="69" t="str">
+        <f>IF(internal!E23="", "", internal!E23)</f>
         <v/>
       </c>
       <c r="F69" s="62" t="str">
-        <f>IF(external!F23=0, "", external!F23)</f>
+        <f>IF(internal!F23="", "", internal!F23)</f>
         <v/>
       </c>
       <c r="G69" s="62" t="str">
-        <f>IF(external!A23=0, "", external!G23)</f>
+        <f>IF(internal!A23="", "", internal!G23)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="str">
-        <f>IF(external!A24=0, "", external!A24)</f>
+        <f>IF(internal!A24="", "", internal!A24)</f>
         <v/>
       </c>
       <c r="B70" s="62" t="str">
-        <f>IF(external!B24="", "", external!B24)</f>
-        <v/>
-      </c>
-      <c r="C70" s="72" t="str">
-        <f>IF(external!C24="", "", external!C24)</f>
-        <v/>
-      </c>
-      <c r="D70" s="72" t="str">
-        <f>IF(external!D24=0, "", external!D24)</f>
-        <v/>
-      </c>
-      <c r="E70" s="72" t="str">
-        <f>IF(external!E24=0, "", external!E24)</f>
+        <f>IF(internal!B24="", "", internal!B24)</f>
+        <v/>
+      </c>
+      <c r="C70" s="69" t="str">
+        <f>IF(internal!C24="", "", internal!C24)</f>
+        <v/>
+      </c>
+      <c r="D70" s="69" t="str">
+        <f>IF(internal!D24="", "", internal!D24)</f>
+        <v/>
+      </c>
+      <c r="E70" s="69" t="str">
+        <f>IF(internal!E24="", "", internal!E24)</f>
         <v/>
       </c>
       <c r="F70" s="62" t="str">
-        <f>IF(external!F24=0, "", external!F24)</f>
+        <f>IF(internal!F24="", "", internal!F24)</f>
         <v/>
       </c>
       <c r="G70" s="62" t="str">
-        <f>IF(external!A24=0, "", external!G24)</f>
+        <f>IF(internal!A24="", "", internal!G24)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="62" t="str">
-        <f>IF(external!A25=0, "", external!A25)</f>
+        <f>IF(internal!A25="", "", internal!A25)</f>
         <v/>
       </c>
       <c r="B71" s="62" t="str">
-        <f>IF(external!B25="", "", external!B25)</f>
-        <v/>
-      </c>
-      <c r="C71" s="72" t="str">
-        <f>IF(external!C25="", "", external!C25)</f>
-        <v/>
-      </c>
-      <c r="D71" s="72" t="str">
-        <f>IF(external!D25=0, "", external!D25)</f>
-        <v/>
-      </c>
-      <c r="E71" s="72" t="str">
-        <f>IF(external!E25=0, "", external!E25)</f>
+        <f>IF(internal!B25="", "", internal!B25)</f>
+        <v/>
+      </c>
+      <c r="C71" s="69" t="str">
+        <f>IF(internal!C25="", "", internal!C25)</f>
+        <v/>
+      </c>
+      <c r="D71" s="69" t="str">
+        <f>IF(internal!D25="", "", internal!D25)</f>
+        <v/>
+      </c>
+      <c r="E71" s="69" t="str">
+        <f>IF(internal!E25="", "", internal!E25)</f>
         <v/>
       </c>
       <c r="F71" s="62" t="str">
-        <f>IF(external!F25=0, "", external!F25)</f>
+        <f>IF(internal!F25="", "", internal!F25)</f>
         <v/>
       </c>
       <c r="G71" s="62" t="str">
-        <f>IF(external!A25=0, "", external!G25)</f>
+        <f>IF(internal!A25="", "", internal!G25)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="65" t="str">
-        <f>IF(upper!A3=0, "", upper!A3)</f>
+        <f>IF(upper!A3="", "", upper!A3)</f>
         <v/>
       </c>
       <c r="B72" s="65" t="str">
         <f>IF(upper!B3="", "", upper!B3)</f>
         <v/>
       </c>
-      <c r="C72" s="73" t="str">
+      <c r="C72" s="81" t="str">
         <f>IF(upper!C3="", "", upper!C3)</f>
         <v/>
       </c>
-      <c r="D72" s="73" t="str">
-        <f>IF(upper!D3=0, "", upper!D3)</f>
-        <v/>
-      </c>
-      <c r="E72" s="73" t="str">
-        <f>IF(upper!E3=0, "", upper!E3)</f>
+      <c r="D72" s="81" t="str">
+        <f>IF(upper!D3="", "", upper!D3)</f>
+        <v/>
+      </c>
+      <c r="E72" s="81" t="str">
+        <f>IF(upper!E3="", "", upper!E3)</f>
         <v/>
       </c>
       <c r="F72" s="65" t="str">
-        <f>IF(upper!F3=0, "", upper!F3)</f>
+        <f>IF(upper!F3="", "", upper!F3)</f>
         <v/>
       </c>
       <c r="G72" s="65" t="str">
-        <f>IF(upper!A3=0, "", upper!G3)</f>
+        <f>IF(upper!A3="", "", upper!G3)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="str">
-        <f>IF(upper!A4=0, "", upper!A4)</f>
-        <v/>
-      </c>
-      <c r="B73" s="65" t="str">
+      <c r="A73" s="76" t="str">
+        <f>IF(upper!A4="", "", upper!A4)</f>
+        <v/>
+      </c>
+      <c r="B73" s="76" t="str">
         <f>IF(upper!B4="", "", upper!B4)</f>
         <v/>
       </c>
-      <c r="C73" s="73" t="str">
+      <c r="C73" s="81" t="str">
         <f>IF(upper!C4="", "", upper!C4)</f>
         <v/>
       </c>
-      <c r="D73" s="73" t="str">
-        <f>IF(upper!D4=0, "", upper!D4)</f>
-        <v/>
-      </c>
-      <c r="E73" s="73" t="str">
-        <f>IF(upper!E4=0, "", upper!E4)</f>
-        <v/>
-      </c>
-      <c r="F73" s="65" t="str">
-        <f>IF(upper!F4=0, "", upper!F4)</f>
-        <v/>
-      </c>
-      <c r="G73" s="65" t="str">
-        <f>IF(upper!A4=0, "", upper!G4)</f>
+      <c r="D73" s="81" t="str">
+        <f>IF(upper!D4="", "", upper!D4)</f>
+        <v/>
+      </c>
+      <c r="E73" s="81" t="str">
+        <f>IF(upper!E4="", "", upper!E4)</f>
+        <v/>
+      </c>
+      <c r="F73" s="76" t="str">
+        <f>IF(upper!F4="", "", upper!F4)</f>
+        <v/>
+      </c>
+      <c r="G73" s="76" t="str">
+        <f>IF(upper!A4="", "", upper!G4)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="str">
-        <f>IF(upper!A5=0, "", upper!A5)</f>
-        <v/>
-      </c>
-      <c r="B74" s="65" t="str">
+      <c r="A74" s="76" t="str">
+        <f>IF(upper!A5="", "", upper!A5)</f>
+        <v/>
+      </c>
+      <c r="B74" s="76" t="str">
         <f>IF(upper!B5="", "", upper!B5)</f>
         <v/>
       </c>
-      <c r="C74" s="73" t="str">
+      <c r="C74" s="81" t="str">
         <f>IF(upper!C5="", "", upper!C5)</f>
         <v/>
       </c>
-      <c r="D74" s="73" t="str">
-        <f>IF(upper!D5=0, "", upper!D5)</f>
-        <v/>
-      </c>
-      <c r="E74" s="73" t="str">
-        <f>IF(upper!E5=0, "", upper!E5)</f>
-        <v/>
-      </c>
-      <c r="F74" s="65" t="str">
-        <f>IF(upper!F5=0, "", upper!F5)</f>
-        <v/>
-      </c>
-      <c r="G74" s="65" t="str">
-        <f>IF(upper!A5=0, "", upper!G5)</f>
+      <c r="D74" s="81" t="str">
+        <f>IF(upper!D5="", "", upper!D5)</f>
+        <v/>
+      </c>
+      <c r="E74" s="81" t="str">
+        <f>IF(upper!E5="", "", upper!E5)</f>
+        <v/>
+      </c>
+      <c r="F74" s="76" t="str">
+        <f>IF(upper!F5="", "", upper!F5)</f>
+        <v/>
+      </c>
+      <c r="G74" s="76" t="str">
+        <f>IF(upper!A5="", "", upper!G5)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="str">
-        <f>IF(upper!A6=0, "", upper!A6)</f>
-        <v/>
-      </c>
-      <c r="B75" s="65" t="str">
+      <c r="A75" s="76" t="str">
+        <f>IF(upper!A6="", "", upper!A6)</f>
+        <v/>
+      </c>
+      <c r="B75" s="76" t="str">
         <f>IF(upper!B6="", "", upper!B6)</f>
         <v/>
       </c>
-      <c r="C75" s="73" t="str">
+      <c r="C75" s="81" t="str">
         <f>IF(upper!C6="", "", upper!C6)</f>
         <v/>
       </c>
-      <c r="D75" s="73" t="str">
-        <f>IF(upper!D6=0, "", upper!D6)</f>
-        <v/>
-      </c>
-      <c r="E75" s="73" t="str">
-        <f>IF(upper!E6=0, "", upper!E6)</f>
-        <v/>
-      </c>
-      <c r="F75" s="65" t="str">
-        <f>IF(upper!F6=0, "", upper!F6)</f>
-        <v/>
-      </c>
-      <c r="G75" s="65" t="str">
-        <f>IF(upper!A6=0, "", upper!G6)</f>
+      <c r="D75" s="81" t="str">
+        <f>IF(upper!D6="", "", upper!D6)</f>
+        <v/>
+      </c>
+      <c r="E75" s="81" t="str">
+        <f>IF(upper!E6="", "", upper!E6)</f>
+        <v/>
+      </c>
+      <c r="F75" s="76" t="str">
+        <f>IF(upper!F6="", "", upper!F6)</f>
+        <v/>
+      </c>
+      <c r="G75" s="76" t="str">
+        <f>IF(upper!A6="", "", upper!G6)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="65" t="str">
-        <f>IF(upper!A7=0, "", upper!A7)</f>
-        <v/>
-      </c>
-      <c r="B76" s="65" t="str">
+      <c r="A76" s="76" t="str">
+        <f>IF(upper!A7="", "", upper!A7)</f>
+        <v/>
+      </c>
+      <c r="B76" s="76" t="str">
         <f>IF(upper!B7="", "", upper!B7)</f>
         <v/>
       </c>
-      <c r="C76" s="73" t="str">
+      <c r="C76" s="81" t="str">
         <f>IF(upper!C7="", "", upper!C7)</f>
         <v/>
       </c>
-      <c r="D76" s="73" t="str">
-        <f>IF(upper!D7=0, "", upper!D7)</f>
-        <v/>
-      </c>
-      <c r="E76" s="73" t="str">
-        <f>IF(upper!E7=0, "", upper!E7)</f>
-        <v/>
-      </c>
-      <c r="F76" s="65" t="str">
-        <f>IF(upper!F7=0, "", upper!F7)</f>
-        <v/>
-      </c>
-      <c r="G76" s="65" t="str">
-        <f>IF(upper!A7=0, "", upper!G7)</f>
+      <c r="D76" s="81" t="str">
+        <f>IF(upper!D7="", "", upper!D7)</f>
+        <v/>
+      </c>
+      <c r="E76" s="81" t="str">
+        <f>IF(upper!E7="", "", upper!E7)</f>
+        <v/>
+      </c>
+      <c r="F76" s="76" t="str">
+        <f>IF(upper!F7="", "", upper!F7)</f>
+        <v/>
+      </c>
+      <c r="G76" s="76" t="str">
+        <f>IF(upper!A7="", "", upper!G7)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="65" t="str">
-        <f>IF(upper!A8=0, "", upper!A8)</f>
-        <v/>
-      </c>
-      <c r="B77" s="65" t="str">
+      <c r="A77" s="76" t="str">
+        <f>IF(upper!A8="", "", upper!A8)</f>
+        <v/>
+      </c>
+      <c r="B77" s="76" t="str">
         <f>IF(upper!B8="", "", upper!B8)</f>
         <v/>
       </c>
-      <c r="C77" s="73" t="str">
+      <c r="C77" s="81" t="str">
         <f>IF(upper!C8="", "", upper!C8)</f>
         <v/>
       </c>
-      <c r="D77" s="73" t="str">
-        <f>IF(upper!D8=0, "", upper!D8)</f>
-        <v/>
-      </c>
-      <c r="E77" s="73" t="str">
-        <f>IF(upper!E8=0, "", upper!E8)</f>
-        <v/>
-      </c>
-      <c r="F77" s="65" t="str">
-        <f>IF(upper!F8=0, "", upper!F8)</f>
-        <v/>
-      </c>
-      <c r="G77" s="65" t="str">
-        <f>IF(upper!A8=0, "", upper!G8)</f>
+      <c r="D77" s="81" t="str">
+        <f>IF(upper!D8="", "", upper!D8)</f>
+        <v/>
+      </c>
+      <c r="E77" s="81" t="str">
+        <f>IF(upper!E8="", "", upper!E8)</f>
+        <v/>
+      </c>
+      <c r="F77" s="76" t="str">
+        <f>IF(upper!F8="", "", upper!F8)</f>
+        <v/>
+      </c>
+      <c r="G77" s="76" t="str">
+        <f>IF(upper!A8="", "", upper!G8)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="65" t="str">
-        <f>IF(upper!A9=0, "", upper!A9)</f>
-        <v/>
-      </c>
-      <c r="B78" s="65" t="str">
+      <c r="A78" s="76" t="str">
+        <f>IF(upper!A9="", "", upper!A9)</f>
+        <v/>
+      </c>
+      <c r="B78" s="76" t="str">
         <f>IF(upper!B9="", "", upper!B9)</f>
         <v/>
       </c>
-      <c r="C78" s="73" t="str">
+      <c r="C78" s="81" t="str">
         <f>IF(upper!C9="", "", upper!C9)</f>
         <v/>
       </c>
-      <c r="D78" s="73" t="str">
-        <f>IF(upper!D9=0, "", upper!D9)</f>
-        <v/>
-      </c>
-      <c r="E78" s="73" t="str">
-        <f>IF(upper!E9=0, "", upper!E9)</f>
-        <v/>
-      </c>
-      <c r="F78" s="65" t="str">
-        <f>IF(upper!F9=0, "", upper!F9)</f>
-        <v/>
-      </c>
-      <c r="G78" s="65" t="str">
-        <f>IF(upper!A9=0, "", upper!G9)</f>
+      <c r="D78" s="81" t="str">
+        <f>IF(upper!D9="", "", upper!D9)</f>
+        <v/>
+      </c>
+      <c r="E78" s="81" t="str">
+        <f>IF(upper!E9="", "", upper!E9)</f>
+        <v/>
+      </c>
+      <c r="F78" s="76" t="str">
+        <f>IF(upper!F9="", "", upper!F9)</f>
+        <v/>
+      </c>
+      <c r="G78" s="76" t="str">
+        <f>IF(upper!A9="", "", upper!G9)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="65" t="str">
-        <f>IF(upper!A10=0, "", upper!A10)</f>
-        <v/>
-      </c>
-      <c r="B79" s="65" t="str">
+      <c r="A79" s="76" t="str">
+        <f>IF(upper!A10="", "", upper!A10)</f>
+        <v/>
+      </c>
+      <c r="B79" s="76" t="str">
         <f>IF(upper!B10="", "", upper!B10)</f>
         <v/>
       </c>
-      <c r="C79" s="73" t="str">
+      <c r="C79" s="81" t="str">
         <f>IF(upper!C10="", "", upper!C10)</f>
         <v/>
       </c>
-      <c r="D79" s="73" t="str">
-        <f>IF(upper!D10=0, "", upper!D10)</f>
-        <v/>
-      </c>
-      <c r="E79" s="73" t="str">
-        <f>IF(upper!E10=0, "", upper!E10)</f>
-        <v/>
-      </c>
-      <c r="F79" s="65" t="str">
-        <f>IF(upper!F10=0, "", upper!F10)</f>
-        <v/>
-      </c>
-      <c r="G79" s="65" t="str">
-        <f>IF(upper!A10=0, "", upper!G10)</f>
+      <c r="D79" s="81" t="str">
+        <f>IF(upper!D10="", "", upper!D10)</f>
+        <v/>
+      </c>
+      <c r="E79" s="81" t="str">
+        <f>IF(upper!E10="", "", upper!E10)</f>
+        <v/>
+      </c>
+      <c r="F79" s="76" t="str">
+        <f>IF(upper!F10="", "", upper!F10)</f>
+        <v/>
+      </c>
+      <c r="G79" s="76" t="str">
+        <f>IF(upper!A10="", "", upper!G10)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="str">
-        <f>IF(upper!A11=0, "", upper!A11)</f>
-        <v/>
-      </c>
-      <c r="B80" s="65" t="str">
+      <c r="A80" s="76" t="str">
+        <f>IF(upper!A11="", "", upper!A11)</f>
+        <v/>
+      </c>
+      <c r="B80" s="76" t="str">
         <f>IF(upper!B11="", "", upper!B11)</f>
         <v/>
       </c>
-      <c r="C80" s="73" t="str">
+      <c r="C80" s="81" t="str">
         <f>IF(upper!C11="", "", upper!C11)</f>
         <v/>
       </c>
-      <c r="D80" s="73" t="str">
-        <f>IF(upper!D11=0, "", upper!D11)</f>
-        <v/>
-      </c>
-      <c r="E80" s="73" t="str">
-        <f>IF(upper!E11=0, "", upper!E11)</f>
-        <v/>
-      </c>
-      <c r="F80" s="65" t="str">
-        <f>IF(upper!F11=0, "", upper!F11)</f>
-        <v/>
-      </c>
-      <c r="G80" s="65" t="str">
-        <f>IF(upper!A11=0, "", upper!G11)</f>
+      <c r="D80" s="81" t="str">
+        <f>IF(upper!D11="", "", upper!D11)</f>
+        <v/>
+      </c>
+      <c r="E80" s="81" t="str">
+        <f>IF(upper!E11="", "", upper!E11)</f>
+        <v/>
+      </c>
+      <c r="F80" s="76" t="str">
+        <f>IF(upper!F11="", "", upper!F11)</f>
+        <v/>
+      </c>
+      <c r="G80" s="76" t="str">
+        <f>IF(upper!A11="", "", upper!G11)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="65" t="str">
-        <f>IF(upper!A12=0, "", upper!A12)</f>
+      <c r="A81" s="76" t="str">
+        <f>IF(upper!A12="", "", upper!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B81" s="65">
+      <c r="B81" s="76">
         <f>IF(upper!B12="", "", upper!B12)</f>
         <v>61</v>
       </c>
-      <c r="C81" s="73">
+      <c r="C81" s="81">
         <f>IF(upper!C12="", "", upper!C12)</f>
-        <v>-60.000000000000028</v>
-      </c>
-      <c r="D81" s="73">
-        <f>IF(upper!D12=0, "", upper!D12)</f>
-        <v>83.049582771864038</v>
-      </c>
-      <c r="E81" s="73">
-        <f>IF(upper!E12=0, "", upper!E12)</f>
-        <v>120.00014030577157</v>
-      </c>
-      <c r="F81" s="65">
-        <f>IF(upper!F12=0, "", upper!F12)</f>
+        <v>-52</v>
+      </c>
+      <c r="D81" s="81">
+        <f>IF(upper!D12="", "", upper!D12)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E81" s="81">
+        <f>IF(upper!E12="", "", upper!E12)</f>
+        <v>-59.999859694228427</v>
+      </c>
+      <c r="F81" s="76">
+        <f>IF(upper!F12="", "", upper!F12)</f>
         <v>5</v>
       </c>
-      <c r="G81" s="65">
-        <f>IF(upper!A12=0, "", upper!G12)</f>
+      <c r="G81" s="76">
+        <f>IF(upper!A12="", "", upper!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65" t="str">
-        <f>IF(upper!A13=0, "", upper!A13)</f>
+      <c r="A82" s="76" t="str">
+        <f>IF(upper!A13="", "", upper!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B82" s="65">
+      <c r="B82" s="76">
         <f>IF(upper!B13="", "", upper!B13)</f>
         <v>56</v>
       </c>
-      <c r="C82" s="73">
+      <c r="C82" s="81">
         <f>IF(upper!C13="", "", upper!C13)</f>
-        <v>-60.000000000000028</v>
-      </c>
-      <c r="D82" s="73">
-        <f>IF(upper!D13=0, "", upper!D13)</f>
-        <v>64.574374157796029</v>
-      </c>
-      <c r="E82" s="73">
-        <f>IF(upper!E13=0, "", upper!E13)</f>
-        <v>180</v>
-      </c>
-      <c r="F82" s="65">
-        <f>IF(upper!F13=0, "", upper!F13)</f>
+        <v>-52</v>
+      </c>
+      <c r="D82" s="81">
+        <f>IF(upper!D13="", "", upper!D13)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E82" s="81">
+        <f>IF(upper!E13="", "", upper!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="76">
+        <f>IF(upper!F13="", "", upper!F13)</f>
         <v>5</v>
       </c>
-      <c r="G82" s="65">
-        <f>IF(upper!A13=0, "", upper!G13)</f>
+      <c r="G82" s="76">
+        <f>IF(upper!A13="", "", upper!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="65" t="str">
-        <f>IF(upper!A14=0, "", upper!A14)</f>
+      <c r="A83" s="76" t="str">
+        <f>IF(upper!A14="", "", upper!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B83" s="65">
+      <c r="B83" s="76">
         <f>IF(upper!B14="", "", upper!B14)</f>
         <v>57</v>
       </c>
-      <c r="C83" s="73">
+      <c r="C83" s="81">
         <f>IF(upper!C14="", "", upper!C14)</f>
-        <v>-44.000000000000014</v>
-      </c>
-      <c r="D83" s="73">
-        <f>IF(upper!D14=0, "", upper!D14)</f>
-        <v>55.336769850762039</v>
-      </c>
-      <c r="E83" s="73">
-        <f>IF(upper!E14=0, "", upper!E14)</f>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F83" s="65">
-        <f>IF(upper!F14=0, "", upper!F14)</f>
+        <v>-68</v>
+      </c>
+      <c r="D83" s="81">
+        <f>IF(upper!D14="", "", upper!D14)</f>
+        <v>64.66323014923799</v>
+      </c>
+      <c r="E83" s="81">
+        <f>IF(upper!E14="", "", upper!E14)</f>
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F83" s="76">
+        <f>IF(upper!F14="", "", upper!F14)</f>
         <v>5</v>
       </c>
-      <c r="G83" s="65">
-        <f>IF(upper!A14=0, "", upper!G14)</f>
+      <c r="G83" s="76">
+        <f>IF(upper!A14="", "", upper!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="str">
-        <f>IF(upper!A15=0, "", upper!A15)</f>
-        <v/>
-      </c>
-      <c r="B84" s="65" t="str">
+      <c r="A84" s="76" t="str">
+        <f>IF(upper!A15="", "", upper!A15)</f>
+        <v/>
+      </c>
+      <c r="B84" s="76" t="str">
         <f>IF(upper!B15="", "", upper!B15)</f>
         <v/>
       </c>
-      <c r="C84" s="73" t="str">
+      <c r="C84" s="81" t="str">
         <f>IF(upper!C15="", "", upper!C15)</f>
         <v/>
       </c>
-      <c r="D84" s="73" t="str">
-        <f>IF(upper!D15=0, "", upper!D15)</f>
-        <v/>
-      </c>
-      <c r="E84" s="73" t="str">
-        <f>IF(upper!E15=0, "", upper!E15)</f>
-        <v/>
-      </c>
-      <c r="F84" s="65" t="str">
-        <f>IF(upper!F15=0, "", upper!F15)</f>
-        <v/>
-      </c>
-      <c r="G84" s="65" t="str">
-        <f>IF(upper!A15=0, "", upper!G15)</f>
+      <c r="D84" s="81" t="str">
+        <f>IF(upper!D15="", "", upper!D15)</f>
+        <v/>
+      </c>
+      <c r="E84" s="81" t="str">
+        <f>IF(upper!E15="", "", upper!E15)</f>
+        <v/>
+      </c>
+      <c r="F84" s="76" t="str">
+        <f>IF(upper!F15="", "", upper!F15)</f>
+        <v/>
+      </c>
+      <c r="G84" s="76" t="str">
+        <f>IF(upper!A15="", "", upper!G15)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="65" t="str">
-        <f>IF(upper!A16=0, "", upper!A16)</f>
-        <v/>
-      </c>
-      <c r="B85" s="65" t="str">
+      <c r="A85" s="76" t="str">
+        <f>IF(upper!A16="", "", upper!A16)</f>
+        <v/>
+      </c>
+      <c r="B85" s="76" t="str">
         <f>IF(upper!B16="", "", upper!B16)</f>
         <v/>
       </c>
-      <c r="C85" s="73" t="str">
+      <c r="C85" s="81" t="str">
         <f>IF(upper!C16="", "", upper!C16)</f>
         <v/>
       </c>
-      <c r="D85" s="73" t="str">
-        <f>IF(upper!D16=0, "", upper!D16)</f>
-        <v/>
-      </c>
-      <c r="E85" s="73" t="str">
-        <f>IF(upper!E16=0, "", upper!E16)</f>
-        <v/>
-      </c>
-      <c r="F85" s="65" t="str">
-        <f>IF(upper!F16=0, "", upper!F16)</f>
-        <v/>
-      </c>
-      <c r="G85" s="65" t="str">
-        <f>IF(upper!A16=0, "", upper!G16)</f>
+      <c r="D85" s="81" t="str">
+        <f>IF(upper!D16="", "", upper!D16)</f>
+        <v/>
+      </c>
+      <c r="E85" s="81" t="str">
+        <f>IF(upper!E16="", "", upper!E16)</f>
+        <v/>
+      </c>
+      <c r="F85" s="76" t="str">
+        <f>IF(upper!F16="", "", upper!F16)</f>
+        <v/>
+      </c>
+      <c r="G85" s="76" t="str">
+        <f>IF(upper!A16="", "", upper!G16)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="65" t="str">
-        <f>IF(upper!A17=0, "", upper!A17)</f>
-        <v/>
-      </c>
-      <c r="B86" s="65" t="str">
+      <c r="A86" s="76" t="str">
+        <f>IF(upper!A17="", "", upper!A17)</f>
+        <v/>
+      </c>
+      <c r="B86" s="76" t="str">
         <f>IF(upper!B17="", "", upper!B17)</f>
         <v/>
       </c>
-      <c r="C86" s="73" t="str">
+      <c r="C86" s="81" t="str">
         <f>IF(upper!C17="", "", upper!C17)</f>
         <v/>
       </c>
-      <c r="D86" s="73" t="str">
-        <f>IF(upper!D17=0, "", upper!D17)</f>
-        <v/>
-      </c>
-      <c r="E86" s="73" t="str">
-        <f>IF(upper!E17=0, "", upper!E17)</f>
-        <v/>
-      </c>
-      <c r="F86" s="65" t="str">
-        <f>IF(upper!F17=0, "", upper!F17)</f>
-        <v/>
-      </c>
-      <c r="G86" s="65" t="str">
-        <f>IF(upper!A17=0, "", upper!G17)</f>
+      <c r="D86" s="81" t="str">
+        <f>IF(upper!D17="", "", upper!D17)</f>
+        <v/>
+      </c>
+      <c r="E86" s="81" t="str">
+        <f>IF(upper!E17="", "", upper!E17)</f>
+        <v/>
+      </c>
+      <c r="F86" s="76" t="str">
+        <f>IF(upper!F17="", "", upper!F17)</f>
+        <v/>
+      </c>
+      <c r="G86" s="76" t="str">
+        <f>IF(upper!A17="", "", upper!G17)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="str">
-        <f>IF(upper!A18=0, "", upper!A18)</f>
-        <v/>
-      </c>
-      <c r="B87" s="65" t="str">
+      <c r="A87" s="76" t="str">
+        <f>IF(upper!A18="", "", upper!A18)</f>
+        <v/>
+      </c>
+      <c r="B87" s="76" t="str">
         <f>IF(upper!B18="", "", upper!B18)</f>
         <v/>
       </c>
-      <c r="C87" s="73" t="str">
+      <c r="C87" s="81" t="str">
         <f>IF(upper!C18="", "", upper!C18)</f>
         <v/>
       </c>
-      <c r="D87" s="73" t="str">
-        <f>IF(upper!D18=0, "", upper!D18)</f>
-        <v/>
-      </c>
-      <c r="E87" s="73" t="str">
-        <f>IF(upper!E18=0, "", upper!E18)</f>
-        <v/>
-      </c>
-      <c r="F87" s="65" t="str">
-        <f>IF(upper!F18=0, "", upper!F18)</f>
-        <v/>
-      </c>
-      <c r="G87" s="65" t="str">
-        <f>IF(upper!A18=0, "", upper!G18)</f>
+      <c r="D87" s="81" t="str">
+        <f>IF(upper!D18="", "", upper!D18)</f>
+        <v/>
+      </c>
+      <c r="E87" s="81" t="str">
+        <f>IF(upper!E18="", "", upper!E18)</f>
+        <v/>
+      </c>
+      <c r="F87" s="76" t="str">
+        <f>IF(upper!F18="", "", upper!F18)</f>
+        <v/>
+      </c>
+      <c r="G87" s="76" t="str">
+        <f>IF(upper!A18="", "", upper!G18)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="65" t="str">
-        <f>IF(upper!A19=0, "", upper!A19)</f>
+      <c r="A88" s="76" t="str">
+        <f>IF(upper!A19="", "", upper!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B88" s="65">
+      <c r="B88" s="76">
         <f>IF(upper!B19="", "", upper!B19)</f>
         <v>58</v>
       </c>
-      <c r="C88" s="73">
+      <c r="C88" s="81">
         <f>IF(upper!C19="", "", upper!C19)</f>
-        <v>-28.000000000000014</v>
-      </c>
-      <c r="D88" s="73">
-        <f>IF(upper!D19=0, "", upper!D19)</f>
-        <v>64.574374157796001</v>
-      </c>
-      <c r="E88" s="73">
-        <f>IF(upper!E19=0, "", upper!E19)</f>
-        <v>299.99971938845687</v>
-      </c>
-      <c r="F88" s="65">
-        <f>IF(upper!F19=0, "", upper!F19)</f>
+        <v>-84</v>
+      </c>
+      <c r="D88" s="81">
+        <f>IF(upper!D19="", "", upper!D19)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E88" s="81">
+        <f>IF(upper!E19="", "", upper!E19)</f>
+        <v>119.99971938845685</v>
+      </c>
+      <c r="F88" s="76">
+        <f>IF(upper!F19="", "", upper!F19)</f>
         <v>5</v>
       </c>
-      <c r="G88" s="65">
-        <f>IF(upper!A19=0, "", upper!G19)</f>
+      <c r="G88" s="76">
+        <f>IF(upper!A19="", "", upper!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="65" t="str">
-        <f>IF(upper!A20=0, "", upper!A20)</f>
+      <c r="A89" s="76" t="str">
+        <f>IF(upper!A20="", "", upper!A20)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B89" s="65">
+      <c r="B89" s="76">
         <f>IF(upper!B20="", "", upper!B20)</f>
         <v>53</v>
       </c>
-      <c r="C89" s="73">
+      <c r="C89" s="81">
         <f>IF(upper!C20="", "", upper!C20)</f>
-        <v>-12.000000000000014</v>
-      </c>
-      <c r="D89" s="73">
-        <f>IF(upper!D20=0, "", upper!D20)</f>
-        <v>55.33676985076201</v>
-      </c>
-      <c r="E89" s="73">
-        <f>IF(upper!E20=0, "", upper!E20)</f>
-        <v>239.99985969422843</v>
-      </c>
-      <c r="F89" s="65">
-        <f>IF(upper!F20=0, "", upper!F20)</f>
+        <v>-100</v>
+      </c>
+      <c r="D89" s="81">
+        <f>IF(upper!D20="", "", upper!D20)</f>
+        <v>64.66323014923799</v>
+      </c>
+      <c r="E89" s="81">
+        <f>IF(upper!E20="", "", upper!E20)</f>
+        <v>59.999859694228427</v>
+      </c>
+      <c r="F89" s="76">
+        <f>IF(upper!F20="", "", upper!F20)</f>
         <v>5</v>
       </c>
-      <c r="G89" s="65">
-        <f>IF(upper!A20=0, "", upper!G20)</f>
+      <c r="G89" s="76">
+        <f>IF(upper!A20="", "", upper!G20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="65" t="str">
-        <f>IF(upper!A21=0, "", upper!A21)</f>
+      <c r="A90" s="76" t="str">
+        <f>IF(upper!A21="", "", upper!A21)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B90" s="65">
+      <c r="B90" s="76">
         <f>IF(upper!B21="", "", upper!B21)</f>
         <v>63</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="81">
         <f>IF(upper!C21="", "", upper!C21)</f>
-        <v>3.9999999999999858</v>
-      </c>
-      <c r="D90" s="73">
-        <f>IF(upper!D21=0, "", upper!D21)</f>
-        <v>64.574374157796001</v>
-      </c>
-      <c r="E90" s="73">
-        <f>IF(upper!E21=0, "", upper!E21)</f>
-        <v>299.99971938845687</v>
-      </c>
-      <c r="F90" s="65">
-        <f>IF(upper!F21=0, "", upper!F21)</f>
+        <v>-116</v>
+      </c>
+      <c r="D90" s="81">
+        <f>IF(upper!D21="", "", upper!D21)</f>
+        <v>55.425625842203999</v>
+      </c>
+      <c r="E90" s="81">
+        <f>IF(upper!E21="", "", upper!E21)</f>
+        <v>119.99971938845685</v>
+      </c>
+      <c r="F90" s="76">
+        <f>IF(upper!F21="", "", upper!F21)</f>
         <v>5</v>
       </c>
-      <c r="G90" s="65">
-        <f>IF(upper!A21=0, "", upper!G21)</f>
+      <c r="G90" s="76">
+        <f>IF(upper!A21="", "", upper!G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="65" t="str">
-        <f>IF(upper!A22=0, "", upper!A22)</f>
+      <c r="A91" s="76" t="str">
+        <f>IF(upper!A22="", "", upper!A22)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B91" s="65">
+      <c r="B91" s="76">
         <f>IF(upper!B22="", "", upper!B22)</f>
         <v>48</v>
       </c>
-      <c r="C91" s="73">
+      <c r="C91" s="81">
         <f>IF(upper!C22="", "", upper!C22)</f>
-        <v>3.9999999999999858</v>
-      </c>
-      <c r="D91" s="73">
-        <f>IF(upper!D22=0, "", upper!D22)</f>
-        <v>83.04958277186401</v>
-      </c>
-      <c r="E91" s="73">
-        <f>IF(upper!E22=0, "", upper!E22)</f>
-        <v>359.9995790826847</v>
-      </c>
-      <c r="F91" s="65">
-        <f>IF(upper!F22=0, "", upper!F22)</f>
+        <v>-116</v>
+      </c>
+      <c r="D91" s="81">
+        <f>IF(upper!D22="", "", upper!D22)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E91" s="81">
+        <f>IF(upper!E22="", "", upper!E22)</f>
+        <v>179.99957908268468</v>
+      </c>
+      <c r="F91" s="76">
+        <f>IF(upper!F22="", "", upper!F22)</f>
         <v>5</v>
       </c>
-      <c r="G91" s="65">
-        <f>IF(upper!A22=0, "", upper!G22)</f>
+      <c r="G91" s="76">
+        <f>IF(upper!A22="", "", upper!G22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="65" t="str">
-        <f>IF(upper!A23=0, "", upper!A23)</f>
+      <c r="A92" s="76" t="str">
+        <f>IF(upper!A23="", "", upper!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B92" s="65">
+      <c r="B92" s="76">
         <f>IF(upper!B23="", "", upper!B23)</f>
         <v>59</v>
       </c>
-      <c r="C92" s="73">
+      <c r="C92" s="81">
         <f>IF(upper!C23="", "", upper!C23)</f>
-        <v>-28.000000000000014</v>
-      </c>
-      <c r="D92" s="73">
-        <f>IF(upper!D23=0, "", upper!D23)</f>
-        <v>83.04958277186401</v>
-      </c>
-      <c r="E92" s="73">
-        <f>IF(upper!E23=0, "", upper!E23)</f>
-        <v>359.9995790826847</v>
-      </c>
-      <c r="F92" s="65">
-        <f>IF(upper!F23=0, "", upper!F23)</f>
+        <v>-84</v>
+      </c>
+      <c r="D92" s="81">
+        <f>IF(upper!D23="", "", upper!D23)</f>
+        <v>36.95041722813599</v>
+      </c>
+      <c r="E92" s="81">
+        <f>IF(upper!E23="", "", upper!E23)</f>
+        <v>179.99957908268468</v>
+      </c>
+      <c r="F92" s="76">
+        <f>IF(upper!F23="", "", upper!F23)</f>
         <v>5</v>
       </c>
-      <c r="G92" s="65">
-        <f>IF(upper!A23=0, "", upper!G23)</f>
+      <c r="G92" s="76">
+        <f>IF(upper!A23="", "", upper!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="65" t="str">
-        <f>IF(upper!A24=0, "", upper!A24)</f>
-        <v/>
-      </c>
-      <c r="B93" s="65" t="str">
+      <c r="A93" s="76" t="str">
+        <f>IF(upper!A24="", "", upper!A24)</f>
+        <v/>
+      </c>
+      <c r="B93" s="76" t="str">
         <f>IF(upper!B24="", "", upper!B24)</f>
         <v/>
       </c>
-      <c r="C93" s="73" t="str">
+      <c r="C93" s="81" t="str">
         <f>IF(upper!C24="", "", upper!C24)</f>
         <v/>
       </c>
-      <c r="D93" s="73" t="str">
-        <f>IF(upper!D24=0, "", upper!D24)</f>
-        <v/>
-      </c>
-      <c r="E93" s="73" t="str">
-        <f>IF(upper!E24=0, "", upper!E24)</f>
-        <v/>
-      </c>
-      <c r="F93" s="65" t="str">
-        <f>IF(upper!F24=0, "", upper!F24)</f>
-        <v/>
-      </c>
-      <c r="G93" s="65" t="str">
-        <f>IF(upper!A24=0, "", upper!G24)</f>
+      <c r="D93" s="81" t="str">
+        <f>IF(upper!D24="", "", upper!D24)</f>
+        <v/>
+      </c>
+      <c r="E93" s="81" t="str">
+        <f>IF(upper!E24="", "", upper!E24)</f>
+        <v/>
+      </c>
+      <c r="F93" s="76" t="str">
+        <f>IF(upper!F24="", "", upper!F24)</f>
+        <v/>
+      </c>
+      <c r="G93" s="76" t="str">
+        <f>IF(upper!A24="", "", upper!G24)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="65" t="str">
-        <f>IF(upper!A25=0, "", upper!A25)</f>
-        <v/>
-      </c>
-      <c r="B94" s="65" t="str">
-        <f>IF(upper!B25=0, "", upper!B25)</f>
-        <v/>
-      </c>
-      <c r="C94" s="73" t="str">
+      <c r="A94" s="76" t="str">
+        <f>IF(upper!A25="", "", upper!A25)</f>
+        <v/>
+      </c>
+      <c r="B94" s="76" t="str">
+        <f>IF(upper!B25="", "", upper!B25)</f>
+        <v/>
+      </c>
+      <c r="C94" s="81" t="str">
         <f>IF(upper!C25="", "", upper!C25)</f>
         <v/>
       </c>
-      <c r="D94" s="73" t="str">
-        <f>IF(upper!D25=0, "", upper!D25)</f>
-        <v/>
-      </c>
-      <c r="E94" s="73" t="str">
-        <f>IF(upper!E25=0, "", upper!E25)</f>
-        <v/>
-      </c>
-      <c r="F94" s="65" t="str">
-        <f>IF(upper!F25=0, "", upper!F25)</f>
-        <v/>
-      </c>
-      <c r="G94" s="65" t="str">
-        <f>IF(upper!A25=0, "", upper!G25)</f>
+      <c r="D94" s="81" t="str">
+        <f>IF(upper!D25="", "", upper!D25)</f>
+        <v/>
+      </c>
+      <c r="E94" s="81" t="str">
+        <f>IF(upper!E25="", "", upper!E25)</f>
+        <v/>
+      </c>
+      <c r="F94" s="76" t="str">
+        <f>IF(upper!F25="", "", upper!F25)</f>
+        <v/>
+      </c>
+      <c r="G94" s="76" t="str">
+        <f>IF(upper!A25="", "", upper!G25)</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="82"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
     </row>

--- a/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,7 +804,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -865,7 +864,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10508823" y="2423105"/>
+          <a:off x="10985073" y="2423105"/>
           <a:ext cx="4349779" cy="4100085"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -11352,7 +11351,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11366,9 +11365,9 @@
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
@@ -11432,32 +11431,13 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="24">
-        <f t="shared" ref="B3" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="24">
-        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-76.397459621556123</v>
-      </c>
-      <c r="D3" s="24">
-        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>101.60254037844388</v>
-      </c>
-      <c r="E3" s="24">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="11">
-        <v>5</v>
-      </c>
-      <c r="G3" s="26">
-        <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="43">
@@ -11474,7 +11454,7 @@
       </c>
       <c r="N3" s="15">
         <f>+RADIANS(N5)</f>
-        <v>0.52359877559829882</v>
+        <v>-0.52359877559829882</v>
       </c>
       <c r="O3" s="16">
         <v>100</v>
@@ -11497,26 +11477,26 @@
         <v>26</v>
       </c>
       <c r="B4" s="71">
-        <f t="shared" ref="B4" si="2">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
+        <f t="shared" ref="B4" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>1</v>
       </c>
       <c r="C4" s="71">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-67.159855314522105</v>
+        <v>-103.92225100748811</v>
       </c>
       <c r="D4" s="71">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>117.60254037844385</v>
+        <v>115.60254037844388</v>
       </c>
       <c r="E4" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-29.999859694228427</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F4" s="70">
         <v>5</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G3:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -11551,13 +11531,32 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="A5" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="71">
+        <f t="shared" ref="B5:B7" si="2">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="71">
+        <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-94.684646700454095</v>
+      </c>
+      <c r="D5" s="71">
+        <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
+        <v>99.602540378443891</v>
+      </c>
+      <c r="E5" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
+        <v>-149.99971938845687</v>
+      </c>
+      <c r="F5" s="70">
+        <v>5</v>
+      </c>
+      <c r="G5" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="45">
@@ -11573,7 +11572,7 @@
         <v>-2.0943951023932001</v>
       </c>
       <c r="N5" s="3">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="O5" s="46">
         <v>132</v>
@@ -11589,13 +11588,32 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="71">
+        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-76.209438086386058</v>
+      </c>
+      <c r="D6" s="71">
+        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <v>99.602540378443877</v>
+      </c>
+      <c r="E6" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F6" s="70">
+        <v>5</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="45">
@@ -11625,13 +11643,32 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="71">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="71">
+        <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-66.971833779352067</v>
+      </c>
+      <c r="D7" s="71">
+        <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <v>115.60254037844385</v>
+      </c>
+      <c r="E7" s="71">
+        <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <v>-30</v>
+      </c>
+      <c r="F7" s="70">
+        <v>5</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="45">
@@ -11647,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-113</v>
+        <v>-259</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -11716,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-35</v>
+        <v>79</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -11767,15 +11804,15 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" ref="C11:C14" si="4">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-76.397459621556095</v>
+        <v>-94.684646700454124</v>
       </c>
       <c r="D11" s="71">
         <f t="shared" ref="D11:D14" si="5">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>133.60254037844382</v>
+        <v>131.60254037844385</v>
       </c>
       <c r="E11" s="71">
         <f t="shared" ref="E11:E14" si="6">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F11" s="70">
         <v>5</v>
@@ -11817,15 +11854,15 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="4"/>
-        <v>-67.159855314522076</v>
+        <v>-76.209438086386115</v>
       </c>
       <c r="D12" s="71">
         <f t="shared" si="5"/>
-        <v>149.60254037844379</v>
+        <v>131.60254037844385</v>
       </c>
       <c r="E12" s="71">
         <f t="shared" si="6"/>
-        <v>-29.999859694228427</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F12" s="70">
         <v>5</v>
@@ -11865,15 +11902,15 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="4"/>
-        <v>-76.397459621556081</v>
+        <v>-66.971833779352096</v>
       </c>
       <c r="D13" s="71">
         <f t="shared" si="5"/>
-        <v>165.60254037844379</v>
+        <v>147.60254037844385</v>
       </c>
       <c r="E13" s="71">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F13" s="70">
         <v>5</v>
@@ -11913,15 +11950,15 @@
       </c>
       <c r="C14" s="71">
         <f t="shared" si="4"/>
-        <v>-94.87266823562409</v>
+        <v>-76.209438086386115</v>
       </c>
       <c r="D14" s="71">
         <f t="shared" si="5"/>
-        <v>165.60254037844379</v>
+        <v>163.60254037844379</v>
       </c>
       <c r="E14" s="71">
         <f t="shared" si="6"/>
-        <v>89.999859694228434</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F14" s="70">
         <v>5</v>
@@ -12077,15 +12114,15 @@
       </c>
       <c r="C19" s="71">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-104.11027254265811</v>
+        <v>-94.684646700454152</v>
       </c>
       <c r="D19" s="71">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>149.60254037844382</v>
+        <v>163.60254037844382</v>
       </c>
       <c r="E19" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
-        <v>149.99971938845687</v>
+        <v>89.999719388456853</v>
       </c>
       <c r="F19" s="70">
         <v>5</v>
@@ -12212,15 +12249,15 @@
       </c>
       <c r="C23" s="71">
         <f t="shared" ref="C23:C25" si="11">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-94.872668235624104</v>
+        <v>-103.92225100748814</v>
       </c>
       <c r="D23" s="71">
         <f t="shared" ref="D23:D25" si="12">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>133.60254037844382</v>
+        <v>147.60254037844382</v>
       </c>
       <c r="E23" s="71">
         <f t="shared" ref="E23:E25" si="13">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>209.99957908268468</v>
+        <v>149.99957908268468</v>
       </c>
       <c r="F23" s="70">
         <v>5</v>
@@ -12251,32 +12288,13 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="71">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="C24" s="71">
-        <f t="shared" si="11"/>
-        <v>-104.11027254265815</v>
-      </c>
-      <c r="D24" s="71">
-        <f t="shared" si="12"/>
-        <v>117.60254037844382</v>
-      </c>
-      <c r="E24" s="71">
-        <f t="shared" si="13"/>
-        <v>149.99971938845687</v>
-      </c>
-      <c r="F24" s="70">
-        <v>5</v>
-      </c>
-      <c r="G24" s="73">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="A24" s="72"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="73"/>
       <c r="I24" s="2"/>
       <c r="J24" s="45">
         <v>1</v>
@@ -12299,32 +12317,13 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="71">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="C25" s="71">
-        <f t="shared" si="11"/>
-        <v>-94.872668235624147</v>
-      </c>
-      <c r="D25" s="71">
-        <f t="shared" si="12"/>
-        <v>101.60254037844385</v>
-      </c>
-      <c r="E25" s="71">
-        <f t="shared" si="13"/>
-        <v>209.99957908268468</v>
-      </c>
-      <c r="F25" s="70">
-        <v>5</v>
-      </c>
-      <c r="G25" s="73">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="A25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="73"/>
       <c r="I25" s="2"/>
       <c r="J25" s="45">
         <v>1</v>
@@ -12698,7 +12697,7 @@
       </c>
       <c r="D3" s="71">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>163.39745962155612</v>
+        <v>161.39745962155612</v>
       </c>
       <c r="E3" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
@@ -12759,7 +12758,7 @@
       </c>
       <c r="D4" s="71">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>147.39745962155615</v>
+        <v>145.39745962155615</v>
       </c>
       <c r="E4" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
@@ -12774,7 +12773,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="74">
+      <c r="J4" s="43">
         <v>3</v>
       </c>
       <c r="K4" s="10">
@@ -12813,7 +12812,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="74">
+      <c r="J5" s="43">
         <v>3</v>
       </c>
       <c r="K5" s="10">
@@ -12851,7 +12850,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="74">
+      <c r="J6" s="43">
         <v>3</v>
       </c>
       <c r="K6" s="10">
@@ -12887,7 +12886,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="74">
+      <c r="J7" s="43">
         <v>3</v>
       </c>
       <c r="K7" s="10">
@@ -12922,7 +12921,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="74">
+      <c r="J8" s="43">
         <v>3</v>
       </c>
       <c r="K8" s="10">
@@ -12956,7 +12955,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="26"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="74">
+      <c r="J9" s="43">
         <v>3</v>
       </c>
       <c r="K9" s="10">
@@ -12969,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -12988,7 +12987,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="26"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="74">
+      <c r="J10" s="43">
         <v>3</v>
       </c>
       <c r="K10" s="10">
@@ -13024,7 +13023,7 @@
       </c>
       <c r="D11" s="71">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>131.39745962155615</v>
+        <v>129.39745962155615</v>
       </c>
       <c r="E11" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
@@ -13038,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="74">
+      <c r="J11" s="43">
         <v>3</v>
       </c>
       <c r="K11" s="10">
@@ -13074,7 +13073,7 @@
       </c>
       <c r="D12" s="71">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>115.39745962155618</v>
+        <v>113.39745962155618</v>
       </c>
       <c r="E12" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
@@ -13088,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="74">
+      <c r="J12" s="43">
         <v>3</v>
       </c>
       <c r="K12" s="10">
@@ -13122,7 +13121,7 @@
       </c>
       <c r="D13" s="71">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
-        <v>99.397459621556209</v>
+        <v>97.397459621556209</v>
       </c>
       <c r="E13" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
@@ -13136,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="74">
+      <c r="J13" s="43">
         <v>3</v>
       </c>
       <c r="K13" s="10">
@@ -13170,7 +13169,7 @@
       </c>
       <c r="D14" s="71">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>99.397459621556209</v>
+        <v>97.397459621556209</v>
       </c>
       <c r="E14" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -13184,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="74">
+      <c r="J14" s="43">
         <v>3</v>
       </c>
       <c r="K14" s="10">
@@ -13218,7 +13217,7 @@
       </c>
       <c r="D15" s="71">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>83.397459621556209</v>
+        <v>81.397459621556209</v>
       </c>
       <c r="E15" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
@@ -13232,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="74">
+      <c r="J15" s="43">
         <v>3</v>
       </c>
       <c r="K15" s="10">
@@ -13261,7 +13260,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="74">
+      <c r="J16" s="43">
         <v>3</v>
       </c>
       <c r="K16" s="10">
@@ -13290,7 +13289,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="74">
+      <c r="J17" s="43">
         <v>3</v>
       </c>
       <c r="K17" s="10">
@@ -13319,7 +13318,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="74">
+      <c r="J18" s="43">
         <v>3</v>
       </c>
       <c r="K18" s="10">
@@ -13353,7 +13352,7 @@
       </c>
       <c r="D19" s="71">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>115.39745962155621</v>
+        <v>113.39745962155621</v>
       </c>
       <c r="E19" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
@@ -13367,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="74">
+      <c r="J19" s="43">
         <v>3</v>
       </c>
       <c r="K19" s="10">
@@ -13396,7 +13395,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="26"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="74">
+      <c r="J20" s="43">
         <v>3</v>
       </c>
       <c r="K20" s="10">
@@ -13425,7 +13424,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="26"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="74">
+      <c r="J21" s="43">
         <v>3</v>
       </c>
       <c r="K21" s="10">
@@ -13454,7 +13453,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="74">
+      <c r="J22" s="43">
         <v>3</v>
       </c>
       <c r="K22" s="10">
@@ -13488,7 +13487,7 @@
       </c>
       <c r="D23" s="71">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>131.39745962155618</v>
+        <v>129.39745962155618</v>
       </c>
       <c r="E23" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
@@ -13502,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="74">
+      <c r="J23" s="43">
         <v>3</v>
       </c>
       <c r="K23" s="10">
@@ -13536,7 +13535,7 @@
       </c>
       <c r="D24" s="71">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>147.39745962155618</v>
+        <v>145.39745962155618</v>
       </c>
       <c r="E24" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
@@ -13550,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="74">
+      <c r="J24" s="43">
         <v>3</v>
       </c>
       <c r="K24" s="10">
@@ -13584,7 +13583,7 @@
       </c>
       <c r="D25" s="71">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>163.39745962155615</v>
+        <v>161.39745962155615</v>
       </c>
       <c r="E25" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
@@ -13598,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="74">
+      <c r="J25" s="43">
         <v>3</v>
       </c>
       <c r="K25" s="49">
@@ -13638,7 +13637,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13720,22 +13719,22 @@
         <v>16</v>
       </c>
       <c r="C3" s="71">
-        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C3:C13" si="1">((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-163.39745962155612</v>
       </c>
       <c r="D3" s="71">
-        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D3:D13" si="2">((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
         <v>86.602540378443877</v>
       </c>
       <c r="E3" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E3:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
       <c r="F3" s="70">
         <v>5</v>
       </c>
       <c r="G3" s="73">
-        <f t="shared" ref="G3:G13" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -13781,27 +13780,27 @@
         <v>17</v>
       </c>
       <c r="C4" s="71">
-        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-154.1598553145221</v>
       </c>
       <c r="D4" s="71">
-        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>102.60254037844385</v>
       </c>
       <c r="E4" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F4" s="70">
         <v>5</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="74">
+      <c r="J4" s="43">
         <v>2</v>
       </c>
       <c r="K4" s="10">
@@ -13839,27 +13838,27 @@
         <v>18</v>
       </c>
       <c r="C5" s="71">
-        <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-135.6846467004541</v>
       </c>
       <c r="D5" s="71">
-        <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>102.60254037844385</v>
       </c>
       <c r="E5" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>-89.999719388456853</v>
       </c>
       <c r="F5" s="70">
         <v>5</v>
       </c>
       <c r="G5" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="74">
+      <c r="J5" s="43">
         <v>2</v>
       </c>
       <c r="K5" s="10">
@@ -13896,27 +13895,27 @@
         <v>19</v>
       </c>
       <c r="C6" s="71">
-        <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-126.44704239342006</v>
       </c>
       <c r="D6" s="71">
-        <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>118.60254037844385</v>
       </c>
       <c r="E6" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F6" s="70">
         <v>5</v>
       </c>
       <c r="G6" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="74">
+      <c r="J6" s="43">
         <v>2</v>
       </c>
       <c r="K6" s="10">
@@ -13951,27 +13950,27 @@
         <v>20</v>
       </c>
       <c r="C7" s="71">
-        <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-135.68464670045407</v>
       </c>
       <c r="D7" s="71">
-        <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>134.60254037844382</v>
       </c>
       <c r="E7" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F7" s="70">
         <v>5</v>
       </c>
       <c r="G7" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="74">
+      <c r="J7" s="43">
         <v>2</v>
       </c>
       <c r="K7" s="10">
@@ -14005,27 +14004,27 @@
         <v>21</v>
       </c>
       <c r="C8" s="71">
-        <f>((+O8*COS($N$3)-P8*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-126.44704239342002</v>
       </c>
       <c r="D8" s="71">
-        <f>((O8*SIN($N$3)+P8*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>150.60254037844379</v>
       </c>
       <c r="E8" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M8/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F8" s="70">
         <v>5</v>
       </c>
       <c r="G8" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="74">
+      <c r="J8" s="43">
         <v>2</v>
       </c>
       <c r="K8" s="10">
@@ -14059,26 +14058,26 @@
         <v>22</v>
       </c>
       <c r="C9" s="71">
-        <f>((+O9*COS($N$3)-P9*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-135.68464670045404</v>
       </c>
       <c r="D9" s="71">
-        <f>((O9*SIN($N$3)+P9*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>166.60254037844379</v>
       </c>
       <c r="E9" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M9/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F9" s="70">
         <v>5</v>
       </c>
       <c r="G9" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="74">
+      <c r="J9" s="43">
         <v>2</v>
       </c>
       <c r="K9" s="10">
@@ -14110,26 +14109,26 @@
         <v>23</v>
       </c>
       <c r="C10" s="71">
-        <f>((+O10*COS($N$3)-P10*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-154.15985531452205</v>
       </c>
       <c r="D10" s="71">
-        <f>((O10*SIN($N$3)+P10*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>166.60254037844379</v>
       </c>
       <c r="E10" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M10/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>89.999859694228434</v>
       </c>
       <c r="F10" s="70">
         <v>5</v>
       </c>
       <c r="G10" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="74">
+      <c r="J10" s="43">
         <v>2</v>
       </c>
       <c r="K10" s="10">
@@ -14160,26 +14159,26 @@
         <v>28</v>
       </c>
       <c r="C11" s="71">
-        <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-163.3974596215561</v>
       </c>
       <c r="D11" s="71">
-        <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>118.60254037844382</v>
       </c>
       <c r="E11" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F11" s="70">
         <v>5</v>
       </c>
       <c r="G11" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="74">
+      <c r="J11" s="43">
         <v>2</v>
       </c>
       <c r="K11" s="10">
@@ -14211,26 +14210,26 @@
         <v>29</v>
       </c>
       <c r="C12" s="71">
-        <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-154.15985531452208</v>
       </c>
       <c r="D12" s="71">
-        <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>134.60254037844379</v>
       </c>
       <c r="E12" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F12" s="70">
         <v>5</v>
       </c>
       <c r="G12" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="74">
+      <c r="J12" s="43">
         <v>2</v>
       </c>
       <c r="K12" s="10">
@@ -14259,26 +14258,26 @@
         <v>24</v>
       </c>
       <c r="C13" s="71">
-        <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" si="1"/>
         <v>-163.3974596215561</v>
       </c>
       <c r="D13" s="71">
-        <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" si="2"/>
         <v>150.60254037844379</v>
       </c>
       <c r="E13" s="71">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F13" s="70">
         <v>5</v>
       </c>
       <c r="G13" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="74">
+      <c r="J13" s="43">
         <v>2</v>
       </c>
       <c r="K13" s="10">
@@ -14307,7 +14306,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="26"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="74">
+      <c r="J14" s="43">
         <v>2</v>
       </c>
       <c r="K14" s="10">
@@ -14336,7 +14335,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="26"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="74">
+      <c r="J15" s="43">
         <v>2</v>
       </c>
       <c r="K15" s="10">
@@ -14365,7 +14364,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="74">
+      <c r="J16" s="43">
         <v>2</v>
       </c>
       <c r="K16" s="10">
@@ -14394,7 +14393,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="74">
+      <c r="J17" s="43">
         <v>2</v>
       </c>
       <c r="K17" s="10">
@@ -14423,7 +14422,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="74">
+      <c r="J18" s="43">
         <v>2</v>
       </c>
       <c r="K18" s="10">
@@ -14452,7 +14451,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="26"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="74">
+      <c r="J19" s="43">
         <v>2</v>
       </c>
       <c r="K19" s="10">
@@ -14481,7 +14480,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="26"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="74">
+      <c r="J20" s="43">
         <v>2</v>
       </c>
       <c r="K20" s="10">
@@ -14510,7 +14509,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="26"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="74">
+      <c r="J21" s="43">
         <v>2</v>
       </c>
       <c r="K21" s="10">
@@ -14539,7 +14538,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="74">
+      <c r="J22" s="43">
         <v>2</v>
       </c>
       <c r="K22" s="10">
@@ -14568,7 +14567,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="26"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="74">
+      <c r="J23" s="43">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -14597,7 +14596,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="26"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="74">
+      <c r="J24" s="43">
         <v>2</v>
       </c>
       <c r="K24" s="10">
@@ -14626,7 +14625,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="74">
+      <c r="J25" s="43">
         <v>2</v>
       </c>
       <c r="K25" s="49">
@@ -14662,7 +14661,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15634,8 +15633,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="78"/>
-    <col min="5" max="5" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="77"/>
+    <col min="5" max="5" width="11.28515625" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15646,13 +15645,13 @@
       <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="40" t="s">
@@ -15665,691 +15664,691 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>IF(lower!A3=0, "", lower!A3)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B3" s="67">
+        <v/>
+      </c>
+      <c r="B3" s="67" t="str">
         <f>IF(lower!B3="", "", lower!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="80">
+        <v/>
+      </c>
+      <c r="C3" s="79" t="str">
         <f>IF(lower!C3="", "", lower!C3)</f>
-        <v>-76.397459621556123</v>
-      </c>
-      <c r="D3" s="80">
+        <v/>
+      </c>
+      <c r="D3" s="79" t="str">
         <f>IF(lower!D3="", "", lower!D3)</f>
-        <v>101.60254037844388</v>
-      </c>
-      <c r="E3" s="80">
+        <v/>
+      </c>
+      <c r="E3" s="79" t="str">
         <f>IF(lower!E3="", "", lower!E3)</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="64">
+        <v/>
+      </c>
+      <c r="F3" s="64" t="str">
         <f>IF(lower!F3=0, "", lower!F3)</f>
-        <v>5</v>
-      </c>
-      <c r="G3" s="64">
+        <v/>
+      </c>
+      <c r="G3" s="64" t="str">
         <f>IF(lower!$A3="", "", lower!G3)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="str">
+      <c r="A4" s="74" t="str">
         <f>IF(lower!A4=0, "", lower!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="76">
         <f>IF(lower!B4="", "", lower!B4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="79">
         <f>IF(lower!C4="", "", lower!C4)</f>
-        <v>-67.159855314522105</v>
-      </c>
-      <c r="D4" s="80">
+        <v>-103.92225100748811</v>
+      </c>
+      <c r="D4" s="79">
         <f>IF(lower!D4="", "", lower!D4)</f>
-        <v>117.60254037844385</v>
-      </c>
-      <c r="E4" s="80">
+        <v>115.60254037844388</v>
+      </c>
+      <c r="E4" s="79">
         <f>IF(lower!E4="", "", lower!E4)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F4" s="75">
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F4" s="74">
         <f>IF(lower!F4=0, "", lower!F4)</f>
         <v>5</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="74">
         <f>IF(lower!$A4="", "", lower!G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="str">
+      <c r="A5" s="74" t="str">
         <f>IF(lower!A5=0, "", lower!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="77" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B5" s="76">
         <f>IF(lower!B5="", "", lower!B5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="80" t="str">
+        <v>2</v>
+      </c>
+      <c r="C5" s="79">
         <f>IF(lower!C5="", "", lower!C5)</f>
-        <v/>
-      </c>
-      <c r="D5" s="80" t="str">
+        <v>-94.684646700454095</v>
+      </c>
+      <c r="D5" s="79">
         <f>IF(lower!D5="", "", lower!D5)</f>
-        <v/>
-      </c>
-      <c r="E5" s="80" t="str">
+        <v>99.602540378443891</v>
+      </c>
+      <c r="E5" s="79">
         <f>IF(lower!E5="", "", lower!E5)</f>
-        <v/>
-      </c>
-      <c r="F5" s="75" t="str">
+        <v>-149.99971938845687</v>
+      </c>
+      <c r="F5" s="74">
         <f>IF(lower!F5=0, "", lower!F5)</f>
-        <v/>
-      </c>
-      <c r="G5" s="75" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" s="74">
         <f>IF(lower!$A5="", "", lower!G5)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="str">
+      <c r="A6" s="74" t="str">
         <f>IF(lower!A6=0, "", lower!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="77" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B6" s="76">
         <f>IF(lower!B6="", "", lower!B6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="80" t="str">
+        <v>3</v>
+      </c>
+      <c r="C6" s="79">
         <f>IF(lower!C6="", "", lower!C6)</f>
-        <v/>
-      </c>
-      <c r="D6" s="80" t="str">
+        <v>-76.209438086386058</v>
+      </c>
+      <c r="D6" s="79">
         <f>IF(lower!D6="", "", lower!D6)</f>
-        <v/>
-      </c>
-      <c r="E6" s="80" t="str">
+        <v>99.602540378443877</v>
+      </c>
+      <c r="E6" s="79">
         <f>IF(lower!E6="", "", lower!E6)</f>
-        <v/>
-      </c>
-      <c r="F6" s="75" t="str">
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F6" s="74">
         <f>IF(lower!F6=0, "", lower!F6)</f>
-        <v/>
-      </c>
-      <c r="G6" s="75" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="74">
         <f>IF(lower!$A6="", "", lower!G6)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="str">
+      <c r="A7" s="74" t="str">
         <f>IF(lower!A7=0, "", lower!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="77" t="str">
+        <v>triangle_10pad</v>
+      </c>
+      <c r="B7" s="76">
         <f>IF(lower!B7="", "", lower!B7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="80" t="str">
+        <v>4</v>
+      </c>
+      <c r="C7" s="79">
         <f>IF(lower!C7="", "", lower!C7)</f>
-        <v/>
-      </c>
-      <c r="D7" s="80" t="str">
+        <v>-66.971833779352067</v>
+      </c>
+      <c r="D7" s="79">
         <f>IF(lower!D7="", "", lower!D7)</f>
-        <v/>
-      </c>
-      <c r="E7" s="80" t="str">
+        <v>115.60254037844385</v>
+      </c>
+      <c r="E7" s="79">
         <f>IF(lower!E7="", "", lower!E7)</f>
-        <v/>
-      </c>
-      <c r="F7" s="75" t="str">
+        <v>-30</v>
+      </c>
+      <c r="F7" s="74">
         <f>IF(lower!F7=0, "", lower!F7)</f>
-        <v/>
-      </c>
-      <c r="G7" s="75" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" s="74">
         <f>IF(lower!$A7="", "", lower!G7)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="str">
+      <c r="A8" s="74" t="str">
         <f>IF(lower!A8=0, "", lower!A8)</f>
         <v/>
       </c>
-      <c r="B8" s="77" t="str">
+      <c r="B8" s="76" t="str">
         <f>IF(lower!B8="", "", lower!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="80" t="str">
+      <c r="C8" s="79" t="str">
         <f>IF(lower!C8="", "", lower!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="80" t="str">
+      <c r="D8" s="79" t="str">
         <f>IF(lower!D8="", "", lower!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="80" t="str">
+      <c r="E8" s="79" t="str">
         <f>IF(lower!E8="", "", lower!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="75" t="str">
+      <c r="F8" s="74" t="str">
         <f>IF(lower!F8=0, "", lower!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="75" t="str">
+      <c r="G8" s="74" t="str">
         <f>IF(lower!$A8="", "", lower!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="str">
+      <c r="A9" s="74" t="str">
         <f>IF(lower!A9=0, "", lower!A9)</f>
         <v/>
       </c>
-      <c r="B9" s="77" t="str">
+      <c r="B9" s="76" t="str">
         <f>IF(lower!B9="", "", lower!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="80" t="str">
+      <c r="C9" s="79" t="str">
         <f>IF(lower!C9="", "", lower!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="80" t="str">
+      <c r="D9" s="79" t="str">
         <f>IF(lower!D9="", "", lower!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="80" t="str">
+      <c r="E9" s="79" t="str">
         <f>IF(lower!E9="", "", lower!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="75" t="str">
+      <c r="F9" s="74" t="str">
         <f>IF(lower!F9=0, "", lower!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="75" t="str">
+      <c r="G9" s="74" t="str">
         <f>IF(lower!$A9="", "", lower!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="str">
+      <c r="A10" s="74" t="str">
         <f>IF(lower!A10=0, "", lower!A10)</f>
         <v/>
       </c>
-      <c r="B10" s="77" t="str">
+      <c r="B10" s="76" t="str">
         <f>IF(lower!B10="", "", lower!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="80" t="str">
+      <c r="C10" s="79" t="str">
         <f>IF(lower!C10="", "", lower!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="80" t="str">
+      <c r="D10" s="79" t="str">
         <f>IF(lower!D10="", "", lower!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="80" t="str">
+      <c r="E10" s="79" t="str">
         <f>IF(lower!E10="", "", lower!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="F10" s="74" t="str">
         <f>IF(lower!F10=0, "", lower!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="75" t="str">
+      <c r="G10" s="74" t="str">
         <f>IF(lower!$A10="", "", lower!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="str">
+      <c r="A11" s="74" t="str">
         <f>IF(lower!A11=0, "", lower!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="76">
         <f>IF(lower!B11="", "", lower!B11)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <f>IF(lower!C11="", "", lower!C11)</f>
-        <v>-76.397459621556095</v>
-      </c>
-      <c r="D11" s="80">
+        <v>-94.684646700454124</v>
+      </c>
+      <c r="D11" s="79">
         <f>IF(lower!D11="", "", lower!D11)</f>
-        <v>133.60254037844382</v>
-      </c>
-      <c r="E11" s="80">
+        <v>131.60254037844385</v>
+      </c>
+      <c r="E11" s="79">
         <f>IF(lower!E11="", "", lower!E11)</f>
-        <v>30</v>
-      </c>
-      <c r="F11" s="75">
+        <v>-30</v>
+      </c>
+      <c r="F11" s="74">
         <f>IF(lower!F11=0, "", lower!F11)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="74">
         <f>IF(lower!$A11="", "", lower!G11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="str">
+      <c r="A12" s="74" t="str">
         <f>IF(lower!A12=0, "", lower!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="76">
         <f>IF(lower!B12="", "", lower!B12)</f>
         <v>13</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <f>IF(lower!C12="", "", lower!C12)</f>
-        <v>-67.159855314522076</v>
-      </c>
-      <c r="D12" s="80">
+        <v>-76.209438086386115</v>
+      </c>
+      <c r="D12" s="79">
         <f>IF(lower!D12="", "", lower!D12)</f>
-        <v>149.60254037844379</v>
-      </c>
-      <c r="E12" s="80">
+        <v>131.60254037844385</v>
+      </c>
+      <c r="E12" s="79">
         <f>IF(lower!E12="", "", lower!E12)</f>
-        <v>-29.999859694228427</v>
-      </c>
-      <c r="F12" s="75">
+        <v>-89.999859694228434</v>
+      </c>
+      <c r="F12" s="74">
         <f>IF(lower!F12=0, "", lower!F12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="74">
         <f>IF(lower!$A12="", "", lower!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="str">
+      <c r="A13" s="74" t="str">
         <f>IF(lower!A13=0, "", lower!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="76">
         <f>IF(lower!B13="", "", lower!B13)</f>
         <v>8</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="79">
         <f>IF(lower!C13="", "", lower!C13)</f>
-        <v>-76.397459621556081</v>
-      </c>
-      <c r="D13" s="80">
+        <v>-66.971833779352096</v>
+      </c>
+      <c r="D13" s="79">
         <f>IF(lower!D13="", "", lower!D13)</f>
-        <v>165.60254037844379</v>
-      </c>
-      <c r="E13" s="80">
+        <v>147.60254037844385</v>
+      </c>
+      <c r="E13" s="79">
         <f>IF(lower!E13="", "", lower!E13)</f>
-        <v>30</v>
-      </c>
-      <c r="F13" s="75">
+        <v>-30</v>
+      </c>
+      <c r="F13" s="74">
         <f>IF(lower!F13=0, "", lower!F13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="74">
         <f>IF(lower!$A13="", "", lower!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="str">
+      <c r="A14" s="74" t="str">
         <f>IF(lower!A14=0, "", lower!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="76">
         <f>IF(lower!B14="", "", lower!B14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="79">
         <f>IF(lower!C14="", "", lower!C14)</f>
-        <v>-94.87266823562409</v>
-      </c>
-      <c r="D14" s="80">
+        <v>-76.209438086386115</v>
+      </c>
+      <c r="D14" s="79">
         <f>IF(lower!D14="", "", lower!D14)</f>
-        <v>165.60254037844379</v>
-      </c>
-      <c r="E14" s="80">
+        <v>163.60254037844379</v>
+      </c>
+      <c r="E14" s="79">
         <f>IF(lower!E14="", "", lower!E14)</f>
-        <v>89.999859694228434</v>
-      </c>
-      <c r="F14" s="75">
+        <v>29.999859694228427</v>
+      </c>
+      <c r="F14" s="74">
         <f>IF(lower!F14=0, "", lower!F14)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="74">
         <f>IF(lower!$A14="", "", lower!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="str">
+      <c r="A15" s="74" t="str">
         <f>IF(lower!A15=0, "", lower!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="77" t="str">
+      <c r="B15" s="76" t="str">
         <f>IF(lower!B15="", "", lower!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="80" t="str">
+      <c r="C15" s="79" t="str">
         <f>IF(lower!C15="", "", lower!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="79" t="str">
         <f>IF(lower!D15="", "", lower!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="80" t="str">
+      <c r="E15" s="79" t="str">
         <f>IF(lower!E15="", "", lower!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="75" t="str">
+      <c r="F15" s="74" t="str">
         <f>IF(lower!F15=0, "", lower!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="75" t="str">
+      <c r="G15" s="74" t="str">
         <f>IF(lower!$A15="", "", lower!G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="str">
+      <c r="A16" s="74" t="str">
         <f>IF(lower!A16=0, "", lower!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="77" t="str">
+      <c r="B16" s="76" t="str">
         <f>IF(lower!B16="", "", lower!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="80" t="str">
+      <c r="C16" s="79" t="str">
         <f>IF(lower!C16="", "", lower!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="79" t="str">
         <f>IF(lower!D16="", "", lower!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="80" t="str">
+      <c r="E16" s="79" t="str">
         <f>IF(lower!E16="", "", lower!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="75" t="str">
+      <c r="F16" s="74" t="str">
         <f>IF(lower!F16=0, "", lower!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="75" t="str">
+      <c r="G16" s="74" t="str">
         <f>IF(lower!$A16="", "", lower!G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="str">
+      <c r="A17" s="74" t="str">
         <f>IF(lower!A17=0, "", lower!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="77" t="str">
+      <c r="B17" s="76" t="str">
         <f>IF(lower!B17="", "", lower!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="80" t="str">
+      <c r="C17" s="79" t="str">
         <f>IF(lower!C17="", "", lower!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="80" t="str">
+      <c r="D17" s="79" t="str">
         <f>IF(lower!D17="", "", lower!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="80" t="str">
+      <c r="E17" s="79" t="str">
         <f>IF(lower!E17="", "", lower!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="75" t="str">
+      <c r="F17" s="74" t="str">
         <f>IF(lower!F17=0, "", lower!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="75" t="str">
+      <c r="G17" s="74" t="str">
         <f>IF(lower!$A17="", "", lower!G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="str">
+      <c r="A18" s="74" t="str">
         <f>IF(lower!A18=0, "", lower!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="77" t="str">
+      <c r="B18" s="76" t="str">
         <f>IF(lower!B18="", "", lower!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="80" t="str">
+      <c r="C18" s="79" t="str">
         <f>IF(lower!C18="", "", lower!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="80" t="str">
+      <c r="D18" s="79" t="str">
         <f>IF(lower!D18="", "", lower!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="80" t="str">
+      <c r="E18" s="79" t="str">
         <f>IF(lower!E18="", "", lower!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="75" t="str">
+      <c r="F18" s="74" t="str">
         <f>IF(lower!F18=0, "", lower!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="75" t="str">
+      <c r="G18" s="74" t="str">
         <f>IF(lower!$A18="", "", lower!G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="str">
+      <c r="A19" s="74" t="str">
         <f>IF(lower!A19=0, "", lower!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="76">
         <f>IF(lower!B19="", "", lower!B19)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="79">
         <f>IF(lower!C19="", "", lower!C19)</f>
-        <v>-104.11027254265811</v>
-      </c>
-      <c r="D19" s="80">
+        <v>-94.684646700454152</v>
+      </c>
+      <c r="D19" s="79">
         <f>IF(lower!D19="", "", lower!D19)</f>
-        <v>149.60254037844382</v>
-      </c>
-      <c r="E19" s="80">
+        <v>163.60254037844382</v>
+      </c>
+      <c r="E19" s="79">
         <f>IF(lower!E19="", "", lower!E19)</f>
-        <v>149.99971938845687</v>
-      </c>
-      <c r="F19" s="75">
+        <v>89.999719388456853</v>
+      </c>
+      <c r="F19" s="74">
         <f>IF(lower!F19=0, "", lower!F19)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="74">
         <f>IF(lower!$A19="", "", lower!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="str">
+      <c r="A20" s="74" t="str">
         <f>IF(lower!A20=0, "", lower!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="77" t="str">
+      <c r="B20" s="76" t="str">
         <f>IF(lower!B20="", "", lower!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="80" t="str">
+      <c r="C20" s="79" t="str">
         <f>IF(lower!C20="", "", lower!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="80" t="str">
+      <c r="D20" s="79" t="str">
         <f>IF(lower!D20="", "", lower!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="80" t="str">
+      <c r="E20" s="79" t="str">
         <f>IF(lower!E20="", "", lower!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="75" t="str">
+      <c r="F20" s="74" t="str">
         <f>IF(lower!F20=0, "", lower!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="75" t="str">
+      <c r="G20" s="74" t="str">
         <f>IF(lower!$A20="", "", lower!G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="str">
+      <c r="A21" s="74" t="str">
         <f>IF(lower!A21=0, "", lower!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="77" t="str">
+      <c r="B21" s="76" t="str">
         <f>IF(lower!B21="", "", lower!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="80" t="str">
+      <c r="C21" s="79" t="str">
         <f>IF(lower!C21="", "", lower!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="80" t="str">
+      <c r="D21" s="79" t="str">
         <f>IF(lower!D21="", "", lower!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="80" t="str">
+      <c r="E21" s="79" t="str">
         <f>IF(lower!E21="", "", lower!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="75" t="str">
+      <c r="F21" s="74" t="str">
         <f>IF(lower!F21=0, "", lower!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="75" t="str">
+      <c r="G21" s="74" t="str">
         <f>IF(lower!$A21="", "", lower!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="str">
+      <c r="A22" s="74" t="str">
         <f>IF(lower!A22=0, "", lower!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="77" t="str">
+      <c r="B22" s="76" t="str">
         <f>IF(lower!B22="", "", lower!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="80" t="str">
+      <c r="C22" s="79" t="str">
         <f>IF(lower!C22="", "", lower!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="80" t="str">
+      <c r="D22" s="79" t="str">
         <f>IF(lower!D22="", "", lower!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="80" t="str">
+      <c r="E22" s="79" t="str">
         <f>IF(lower!E22="", "", lower!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="75" t="str">
+      <c r="F22" s="74" t="str">
         <f>IF(lower!F22=0, "", lower!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="75" t="str">
+      <c r="G22" s="74" t="str">
         <f>IF(lower!$A22="", "", lower!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="str">
+      <c r="A23" s="74" t="str">
         <f>IF(lower!A23=0, "", lower!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <f>IF(lower!B23="", "", lower!B23)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="79">
         <f>IF(lower!C23="", "", lower!C23)</f>
-        <v>-94.872668235624104</v>
-      </c>
-      <c r="D23" s="80">
+        <v>-103.92225100748814</v>
+      </c>
+      <c r="D23" s="79">
         <f>IF(lower!D23="", "", lower!D23)</f>
-        <v>133.60254037844382</v>
-      </c>
-      <c r="E23" s="80">
+        <v>147.60254037844382</v>
+      </c>
+      <c r="E23" s="79">
         <f>IF(lower!E23="", "", lower!E23)</f>
-        <v>209.99957908268468</v>
-      </c>
-      <c r="F23" s="75">
+        <v>149.99957908268468</v>
+      </c>
+      <c r="F23" s="74">
         <f>IF(lower!F23=0, "", lower!F23)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="74">
         <f>IF(lower!$A23="", "", lower!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="str">
+      <c r="A24" s="74" t="str">
         <f>IF(lower!A24=0, "", lower!A24)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B24" s="77">
+        <v/>
+      </c>
+      <c r="B24" s="76" t="str">
         <f>IF(lower!B24="", "", lower!B24)</f>
-        <v>14</v>
-      </c>
-      <c r="C24" s="80">
+        <v/>
+      </c>
+      <c r="C24" s="79" t="str">
         <f>IF(lower!C24="", "", lower!C24)</f>
-        <v>-104.11027254265815</v>
-      </c>
-      <c r="D24" s="80">
+        <v/>
+      </c>
+      <c r="D24" s="79" t="str">
         <f>IF(lower!D24="", "", lower!D24)</f>
-        <v>117.60254037844382</v>
-      </c>
-      <c r="E24" s="80">
+        <v/>
+      </c>
+      <c r="E24" s="79" t="str">
         <f>IF(lower!E24="", "", lower!E24)</f>
-        <v>149.99971938845687</v>
-      </c>
-      <c r="F24" s="75">
+        <v/>
+      </c>
+      <c r="F24" s="74" t="str">
         <f>IF(lower!F24=0, "", lower!F24)</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="75">
+        <v/>
+      </c>
+      <c r="G24" s="74" t="str">
         <f>IF(lower!$A24="", "", lower!G24)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="str">
+      <c r="A25" s="74" t="str">
         <f>IF(lower!A25=0, "", lower!A25)</f>
-        <v>triangle_10pad</v>
-      </c>
-      <c r="B25" s="77">
+        <v/>
+      </c>
+      <c r="B25" s="76" t="str">
         <f>IF(lower!B25="", "", lower!B25)</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="80">
+        <v/>
+      </c>
+      <c r="C25" s="79" t="str">
         <f>IF(lower!C25="", "", lower!C25)</f>
-        <v>-94.872668235624147</v>
-      </c>
-      <c r="D25" s="80">
+        <v/>
+      </c>
+      <c r="D25" s="79" t="str">
         <f>IF(lower!D25="", "", lower!D25)</f>
-        <v>101.60254037844385</v>
-      </c>
-      <c r="E25" s="80">
+        <v/>
+      </c>
+      <c r="E25" s="79" t="str">
         <f>IF(lower!E25="", "", lower!E25)</f>
-        <v>209.99957908268468</v>
-      </c>
-      <c r="F25" s="75">
+        <v/>
+      </c>
+      <c r="F25" s="74" t="str">
         <f>IF(lower!F25=0, "", lower!F25)</f>
-        <v>5</v>
-      </c>
-      <c r="G25" s="75">
+        <v/>
+      </c>
+      <c r="G25" s="74" t="str">
         <f>IF(lower!$A25="", "", lower!G25)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -16367,7 +16366,7 @@
       </c>
       <c r="D26" s="68">
         <f>IF(external!D3="", "", external!D3)</f>
-        <v>163.39745962155612</v>
+        <v>161.39745962155612</v>
       </c>
       <c r="E26" s="68">
         <f>IF(external!E3="", "", external!E3)</f>
@@ -16397,7 +16396,7 @@
       </c>
       <c r="D27" s="68">
         <f>IF(external!D4="", "", external!D4)</f>
-        <v>147.39745962155615</v>
+        <v>145.39745962155615</v>
       </c>
       <c r="E27" s="68">
         <f>IF(external!E4="", "", external!E4)</f>
@@ -16607,7 +16606,7 @@
       </c>
       <c r="D34" s="68">
         <f>IF(external!D11="", "", external!D11)</f>
-        <v>131.39745962155615</v>
+        <v>129.39745962155615</v>
       </c>
       <c r="E34" s="68">
         <f>IF(external!E11="", "", external!E11)</f>
@@ -16637,7 +16636,7 @@
       </c>
       <c r="D35" s="68">
         <f>IF(external!D12="", "", external!D12)</f>
-        <v>115.39745962155618</v>
+        <v>113.39745962155618</v>
       </c>
       <c r="E35" s="68">
         <f>IF(external!E12="", "", external!E12)</f>
@@ -16667,7 +16666,7 @@
       </c>
       <c r="D36" s="68">
         <f>IF(external!D13="", "", external!D13)</f>
-        <v>99.397459621556209</v>
+        <v>97.397459621556209</v>
       </c>
       <c r="E36" s="68">
         <f>IF(external!E13="", "", external!E13)</f>
@@ -16697,7 +16696,7 @@
       </c>
       <c r="D37" s="68">
         <f>IF(external!D14="", "", external!D14)</f>
-        <v>99.397459621556209</v>
+        <v>97.397459621556209</v>
       </c>
       <c r="E37" s="68">
         <f>IF(external!E14="", "", external!E14)</f>
@@ -16727,7 +16726,7 @@
       </c>
       <c r="D38" s="68">
         <f>IF(external!D15="", "", external!D15)</f>
-        <v>83.397459621556209</v>
+        <v>81.397459621556209</v>
       </c>
       <c r="E38" s="68">
         <f>IF(external!E15="", "", external!E15)</f>
@@ -16847,7 +16846,7 @@
       </c>
       <c r="D42" s="68">
         <f>IF(external!D19="", "", external!D19)</f>
-        <v>115.39745962155621</v>
+        <v>113.39745962155621</v>
       </c>
       <c r="E42" s="68">
         <f>IF(external!E19="", "", external!E19)</f>
@@ -16967,7 +16966,7 @@
       </c>
       <c r="D46" s="68">
         <f>IF(external!D23="", "", external!D23)</f>
-        <v>131.39745962155618</v>
+        <v>129.39745962155618</v>
       </c>
       <c r="E46" s="68">
         <f>IF(external!E23="", "", external!E23)</f>
@@ -16997,7 +16996,7 @@
       </c>
       <c r="D47" s="68">
         <f>IF(external!D24="", "", external!D24)</f>
-        <v>147.39745962155618</v>
+        <v>145.39745962155618</v>
       </c>
       <c r="E47" s="68">
         <f>IF(external!E24="", "", external!E24)</f>
@@ -17027,7 +17026,7 @@
       </c>
       <c r="D48" s="68">
         <f>IF(external!D25="", "", external!D25)</f>
-        <v>163.39745962155615</v>
+        <v>161.39745962155615</v>
       </c>
       <c r="E48" s="68">
         <f>IF(external!E25="", "", external!E25)</f>
@@ -17741,15 +17740,15 @@
         <f>IF(upper!B3="", "", upper!B3)</f>
         <v/>
       </c>
-      <c r="C72" s="81" t="str">
+      <c r="C72" s="80" t="str">
         <f>IF(upper!C3="", "", upper!C3)</f>
         <v/>
       </c>
-      <c r="D72" s="81" t="str">
+      <c r="D72" s="80" t="str">
         <f>IF(upper!D3="", "", upper!D3)</f>
         <v/>
       </c>
-      <c r="E72" s="81" t="str">
+      <c r="E72" s="80" t="str">
         <f>IF(upper!E3="", "", upper!E3)</f>
         <v/>
       </c>
@@ -17763,661 +17762,661 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="76" t="str">
+      <c r="A73" s="75" t="str">
         <f>IF(upper!A4="", "", upper!A4)</f>
         <v/>
       </c>
-      <c r="B73" s="76" t="str">
+      <c r="B73" s="75" t="str">
         <f>IF(upper!B4="", "", upper!B4)</f>
         <v/>
       </c>
-      <c r="C73" s="81" t="str">
+      <c r="C73" s="80" t="str">
         <f>IF(upper!C4="", "", upper!C4)</f>
         <v/>
       </c>
-      <c r="D73" s="81" t="str">
+      <c r="D73" s="80" t="str">
         <f>IF(upper!D4="", "", upper!D4)</f>
         <v/>
       </c>
-      <c r="E73" s="81" t="str">
+      <c r="E73" s="80" t="str">
         <f>IF(upper!E4="", "", upper!E4)</f>
         <v/>
       </c>
-      <c r="F73" s="76" t="str">
+      <c r="F73" s="75" t="str">
         <f>IF(upper!F4="", "", upper!F4)</f>
         <v/>
       </c>
-      <c r="G73" s="76" t="str">
+      <c r="G73" s="75" t="str">
         <f>IF(upper!A4="", "", upper!G4)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="str">
+      <c r="A74" s="75" t="str">
         <f>IF(upper!A5="", "", upper!A5)</f>
         <v/>
       </c>
-      <c r="B74" s="76" t="str">
+      <c r="B74" s="75" t="str">
         <f>IF(upper!B5="", "", upper!B5)</f>
         <v/>
       </c>
-      <c r="C74" s="81" t="str">
+      <c r="C74" s="80" t="str">
         <f>IF(upper!C5="", "", upper!C5)</f>
         <v/>
       </c>
-      <c r="D74" s="81" t="str">
+      <c r="D74" s="80" t="str">
         <f>IF(upper!D5="", "", upper!D5)</f>
         <v/>
       </c>
-      <c r="E74" s="81" t="str">
+      <c r="E74" s="80" t="str">
         <f>IF(upper!E5="", "", upper!E5)</f>
         <v/>
       </c>
-      <c r="F74" s="76" t="str">
+      <c r="F74" s="75" t="str">
         <f>IF(upper!F5="", "", upper!F5)</f>
         <v/>
       </c>
-      <c r="G74" s="76" t="str">
+      <c r="G74" s="75" t="str">
         <f>IF(upper!A5="", "", upper!G5)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="76" t="str">
+      <c r="A75" s="75" t="str">
         <f>IF(upper!A6="", "", upper!A6)</f>
         <v/>
       </c>
-      <c r="B75" s="76" t="str">
+      <c r="B75" s="75" t="str">
         <f>IF(upper!B6="", "", upper!B6)</f>
         <v/>
       </c>
-      <c r="C75" s="81" t="str">
+      <c r="C75" s="80" t="str">
         <f>IF(upper!C6="", "", upper!C6)</f>
         <v/>
       </c>
-      <c r="D75" s="81" t="str">
+      <c r="D75" s="80" t="str">
         <f>IF(upper!D6="", "", upper!D6)</f>
         <v/>
       </c>
-      <c r="E75" s="81" t="str">
+      <c r="E75" s="80" t="str">
         <f>IF(upper!E6="", "", upper!E6)</f>
         <v/>
       </c>
-      <c r="F75" s="76" t="str">
+      <c r="F75" s="75" t="str">
         <f>IF(upper!F6="", "", upper!F6)</f>
         <v/>
       </c>
-      <c r="G75" s="76" t="str">
+      <c r="G75" s="75" t="str">
         <f>IF(upper!A6="", "", upper!G6)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="str">
+      <c r="A76" s="75" t="str">
         <f>IF(upper!A7="", "", upper!A7)</f>
         <v/>
       </c>
-      <c r="B76" s="76" t="str">
+      <c r="B76" s="75" t="str">
         <f>IF(upper!B7="", "", upper!B7)</f>
         <v/>
       </c>
-      <c r="C76" s="81" t="str">
+      <c r="C76" s="80" t="str">
         <f>IF(upper!C7="", "", upper!C7)</f>
         <v/>
       </c>
-      <c r="D76" s="81" t="str">
+      <c r="D76" s="80" t="str">
         <f>IF(upper!D7="", "", upper!D7)</f>
         <v/>
       </c>
-      <c r="E76" s="81" t="str">
+      <c r="E76" s="80" t="str">
         <f>IF(upper!E7="", "", upper!E7)</f>
         <v/>
       </c>
-      <c r="F76" s="76" t="str">
+      <c r="F76" s="75" t="str">
         <f>IF(upper!F7="", "", upper!F7)</f>
         <v/>
       </c>
-      <c r="G76" s="76" t="str">
+      <c r="G76" s="75" t="str">
         <f>IF(upper!A7="", "", upper!G7)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="76" t="str">
+      <c r="A77" s="75" t="str">
         <f>IF(upper!A8="", "", upper!A8)</f>
         <v/>
       </c>
-      <c r="B77" s="76" t="str">
+      <c r="B77" s="75" t="str">
         <f>IF(upper!B8="", "", upper!B8)</f>
         <v/>
       </c>
-      <c r="C77" s="81" t="str">
+      <c r="C77" s="80" t="str">
         <f>IF(upper!C8="", "", upper!C8)</f>
         <v/>
       </c>
-      <c r="D77" s="81" t="str">
+      <c r="D77" s="80" t="str">
         <f>IF(upper!D8="", "", upper!D8)</f>
         <v/>
       </c>
-      <c r="E77" s="81" t="str">
+      <c r="E77" s="80" t="str">
         <f>IF(upper!E8="", "", upper!E8)</f>
         <v/>
       </c>
-      <c r="F77" s="76" t="str">
+      <c r="F77" s="75" t="str">
         <f>IF(upper!F8="", "", upper!F8)</f>
         <v/>
       </c>
-      <c r="G77" s="76" t="str">
+      <c r="G77" s="75" t="str">
         <f>IF(upper!A8="", "", upper!G8)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="76" t="str">
+      <c r="A78" s="75" t="str">
         <f>IF(upper!A9="", "", upper!A9)</f>
         <v/>
       </c>
-      <c r="B78" s="76" t="str">
+      <c r="B78" s="75" t="str">
         <f>IF(upper!B9="", "", upper!B9)</f>
         <v/>
       </c>
-      <c r="C78" s="81" t="str">
+      <c r="C78" s="80" t="str">
         <f>IF(upper!C9="", "", upper!C9)</f>
         <v/>
       </c>
-      <c r="D78" s="81" t="str">
+      <c r="D78" s="80" t="str">
         <f>IF(upper!D9="", "", upper!D9)</f>
         <v/>
       </c>
-      <c r="E78" s="81" t="str">
+      <c r="E78" s="80" t="str">
         <f>IF(upper!E9="", "", upper!E9)</f>
         <v/>
       </c>
-      <c r="F78" s="76" t="str">
+      <c r="F78" s="75" t="str">
         <f>IF(upper!F9="", "", upper!F9)</f>
         <v/>
       </c>
-      <c r="G78" s="76" t="str">
+      <c r="G78" s="75" t="str">
         <f>IF(upper!A9="", "", upper!G9)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="76" t="str">
+      <c r="A79" s="75" t="str">
         <f>IF(upper!A10="", "", upper!A10)</f>
         <v/>
       </c>
-      <c r="B79" s="76" t="str">
+      <c r="B79" s="75" t="str">
         <f>IF(upper!B10="", "", upper!B10)</f>
         <v/>
       </c>
-      <c r="C79" s="81" t="str">
+      <c r="C79" s="80" t="str">
         <f>IF(upper!C10="", "", upper!C10)</f>
         <v/>
       </c>
-      <c r="D79" s="81" t="str">
+      <c r="D79" s="80" t="str">
         <f>IF(upper!D10="", "", upper!D10)</f>
         <v/>
       </c>
-      <c r="E79" s="81" t="str">
+      <c r="E79" s="80" t="str">
         <f>IF(upper!E10="", "", upper!E10)</f>
         <v/>
       </c>
-      <c r="F79" s="76" t="str">
+      <c r="F79" s="75" t="str">
         <f>IF(upper!F10="", "", upper!F10)</f>
         <v/>
       </c>
-      <c r="G79" s="76" t="str">
+      <c r="G79" s="75" t="str">
         <f>IF(upper!A10="", "", upper!G10)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="str">
+      <c r="A80" s="75" t="str">
         <f>IF(upper!A11="", "", upper!A11)</f>
         <v/>
       </c>
-      <c r="B80" s="76" t="str">
+      <c r="B80" s="75" t="str">
         <f>IF(upper!B11="", "", upper!B11)</f>
         <v/>
       </c>
-      <c r="C80" s="81" t="str">
+      <c r="C80" s="80" t="str">
         <f>IF(upper!C11="", "", upper!C11)</f>
         <v/>
       </c>
-      <c r="D80" s="81" t="str">
+      <c r="D80" s="80" t="str">
         <f>IF(upper!D11="", "", upper!D11)</f>
         <v/>
       </c>
-      <c r="E80" s="81" t="str">
+      <c r="E80" s="80" t="str">
         <f>IF(upper!E11="", "", upper!E11)</f>
         <v/>
       </c>
-      <c r="F80" s="76" t="str">
+      <c r="F80" s="75" t="str">
         <f>IF(upper!F11="", "", upper!F11)</f>
         <v/>
       </c>
-      <c r="G80" s="76" t="str">
+      <c r="G80" s="75" t="str">
         <f>IF(upper!A11="", "", upper!G11)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="76" t="str">
+      <c r="A81" s="75" t="str">
         <f>IF(upper!A12="", "", upper!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B81" s="76">
+      <c r="B81" s="75">
         <f>IF(upper!B12="", "", upper!B12)</f>
         <v>61</v>
       </c>
-      <c r="C81" s="81">
+      <c r="C81" s="80">
         <f>IF(upper!C12="", "", upper!C12)</f>
         <v>-52</v>
       </c>
-      <c r="D81" s="81">
+      <c r="D81" s="80">
         <f>IF(upper!D12="", "", upper!D12)</f>
         <v>36.95041722813599</v>
       </c>
-      <c r="E81" s="81">
+      <c r="E81" s="80">
         <f>IF(upper!E12="", "", upper!E12)</f>
         <v>-59.999859694228427</v>
       </c>
-      <c r="F81" s="76">
+      <c r="F81" s="75">
         <f>IF(upper!F12="", "", upper!F12)</f>
         <v>5</v>
       </c>
-      <c r="G81" s="76">
+      <c r="G81" s="75">
         <f>IF(upper!A12="", "", upper!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="str">
+      <c r="A82" s="75" t="str">
         <f>IF(upper!A13="", "", upper!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B82" s="76">
+      <c r="B82" s="75">
         <f>IF(upper!B13="", "", upper!B13)</f>
         <v>56</v>
       </c>
-      <c r="C82" s="81">
+      <c r="C82" s="80">
         <f>IF(upper!C13="", "", upper!C13)</f>
         <v>-52</v>
       </c>
-      <c r="D82" s="81">
+      <c r="D82" s="80">
         <f>IF(upper!D13="", "", upper!D13)</f>
         <v>55.425625842203999</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="80">
         <f>IF(upper!E13="", "", upper!E13)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="75">
         <f>IF(upper!F13="", "", upper!F13)</f>
         <v>5</v>
       </c>
-      <c r="G82" s="76">
+      <c r="G82" s="75">
         <f>IF(upper!A13="", "", upper!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="76" t="str">
+      <c r="A83" s="75" t="str">
         <f>IF(upper!A14="", "", upper!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B83" s="76">
+      <c r="B83" s="75">
         <f>IF(upper!B14="", "", upper!B14)</f>
         <v>57</v>
       </c>
-      <c r="C83" s="81">
+      <c r="C83" s="80">
         <f>IF(upper!C14="", "", upper!C14)</f>
         <v>-68</v>
       </c>
-      <c r="D83" s="81">
+      <c r="D83" s="80">
         <f>IF(upper!D14="", "", upper!D14)</f>
         <v>64.66323014923799</v>
       </c>
-      <c r="E83" s="81">
+      <c r="E83" s="80">
         <f>IF(upper!E14="", "", upper!E14)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F83" s="76">
+      <c r="F83" s="75">
         <f>IF(upper!F14="", "", upper!F14)</f>
         <v>5</v>
       </c>
-      <c r="G83" s="76">
+      <c r="G83" s="75">
         <f>IF(upper!A14="", "", upper!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="76" t="str">
+      <c r="A84" s="75" t="str">
         <f>IF(upper!A15="", "", upper!A15)</f>
         <v/>
       </c>
-      <c r="B84" s="76" t="str">
+      <c r="B84" s="75" t="str">
         <f>IF(upper!B15="", "", upper!B15)</f>
         <v/>
       </c>
-      <c r="C84" s="81" t="str">
+      <c r="C84" s="80" t="str">
         <f>IF(upper!C15="", "", upper!C15)</f>
         <v/>
       </c>
-      <c r="D84" s="81" t="str">
+      <c r="D84" s="80" t="str">
         <f>IF(upper!D15="", "", upper!D15)</f>
         <v/>
       </c>
-      <c r="E84" s="81" t="str">
+      <c r="E84" s="80" t="str">
         <f>IF(upper!E15="", "", upper!E15)</f>
         <v/>
       </c>
-      <c r="F84" s="76" t="str">
+      <c r="F84" s="75" t="str">
         <f>IF(upper!F15="", "", upper!F15)</f>
         <v/>
       </c>
-      <c r="G84" s="76" t="str">
+      <c r="G84" s="75" t="str">
         <f>IF(upper!A15="", "", upper!G15)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="76" t="str">
+      <c r="A85" s="75" t="str">
         <f>IF(upper!A16="", "", upper!A16)</f>
         <v/>
       </c>
-      <c r="B85" s="76" t="str">
+      <c r="B85" s="75" t="str">
         <f>IF(upper!B16="", "", upper!B16)</f>
         <v/>
       </c>
-      <c r="C85" s="81" t="str">
+      <c r="C85" s="80" t="str">
         <f>IF(upper!C16="", "", upper!C16)</f>
         <v/>
       </c>
-      <c r="D85" s="81" t="str">
+      <c r="D85" s="80" t="str">
         <f>IF(upper!D16="", "", upper!D16)</f>
         <v/>
       </c>
-      <c r="E85" s="81" t="str">
+      <c r="E85" s="80" t="str">
         <f>IF(upper!E16="", "", upper!E16)</f>
         <v/>
       </c>
-      <c r="F85" s="76" t="str">
+      <c r="F85" s="75" t="str">
         <f>IF(upper!F16="", "", upper!F16)</f>
         <v/>
       </c>
-      <c r="G85" s="76" t="str">
+      <c r="G85" s="75" t="str">
         <f>IF(upper!A16="", "", upper!G16)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="76" t="str">
+      <c r="A86" s="75" t="str">
         <f>IF(upper!A17="", "", upper!A17)</f>
         <v/>
       </c>
-      <c r="B86" s="76" t="str">
+      <c r="B86" s="75" t="str">
         <f>IF(upper!B17="", "", upper!B17)</f>
         <v/>
       </c>
-      <c r="C86" s="81" t="str">
+      <c r="C86" s="80" t="str">
         <f>IF(upper!C17="", "", upper!C17)</f>
         <v/>
       </c>
-      <c r="D86" s="81" t="str">
+      <c r="D86" s="80" t="str">
         <f>IF(upper!D17="", "", upper!D17)</f>
         <v/>
       </c>
-      <c r="E86" s="81" t="str">
+      <c r="E86" s="80" t="str">
         <f>IF(upper!E17="", "", upper!E17)</f>
         <v/>
       </c>
-      <c r="F86" s="76" t="str">
+      <c r="F86" s="75" t="str">
         <f>IF(upper!F17="", "", upper!F17)</f>
         <v/>
       </c>
-      <c r="G86" s="76" t="str">
+      <c r="G86" s="75" t="str">
         <f>IF(upper!A17="", "", upper!G17)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="76" t="str">
+      <c r="A87" s="75" t="str">
         <f>IF(upper!A18="", "", upper!A18)</f>
         <v/>
       </c>
-      <c r="B87" s="76" t="str">
+      <c r="B87" s="75" t="str">
         <f>IF(upper!B18="", "", upper!B18)</f>
         <v/>
       </c>
-      <c r="C87" s="81" t="str">
+      <c r="C87" s="80" t="str">
         <f>IF(upper!C18="", "", upper!C18)</f>
         <v/>
       </c>
-      <c r="D87" s="81" t="str">
+      <c r="D87" s="80" t="str">
         <f>IF(upper!D18="", "", upper!D18)</f>
         <v/>
       </c>
-      <c r="E87" s="81" t="str">
+      <c r="E87" s="80" t="str">
         <f>IF(upper!E18="", "", upper!E18)</f>
         <v/>
       </c>
-      <c r="F87" s="76" t="str">
+      <c r="F87" s="75" t="str">
         <f>IF(upper!F18="", "", upper!F18)</f>
         <v/>
       </c>
-      <c r="G87" s="76" t="str">
+      <c r="G87" s="75" t="str">
         <f>IF(upper!A18="", "", upper!G18)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="str">
+      <c r="A88" s="75" t="str">
         <f>IF(upper!A19="", "", upper!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B88" s="76">
+      <c r="B88" s="75">
         <f>IF(upper!B19="", "", upper!B19)</f>
         <v>58</v>
       </c>
-      <c r="C88" s="81">
+      <c r="C88" s="80">
         <f>IF(upper!C19="", "", upper!C19)</f>
         <v>-84</v>
       </c>
-      <c r="D88" s="81">
+      <c r="D88" s="80">
         <f>IF(upper!D19="", "", upper!D19)</f>
         <v>55.425625842203999</v>
       </c>
-      <c r="E88" s="81">
+      <c r="E88" s="80">
         <f>IF(upper!E19="", "", upper!E19)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="75">
         <f>IF(upper!F19="", "", upper!F19)</f>
         <v>5</v>
       </c>
-      <c r="G88" s="76">
+      <c r="G88" s="75">
         <f>IF(upper!A19="", "", upper!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="str">
+      <c r="A89" s="75" t="str">
         <f>IF(upper!A20="", "", upper!A20)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B89" s="76">
+      <c r="B89" s="75">
         <f>IF(upper!B20="", "", upper!B20)</f>
         <v>53</v>
       </c>
-      <c r="C89" s="81">
+      <c r="C89" s="80">
         <f>IF(upper!C20="", "", upper!C20)</f>
         <v>-100</v>
       </c>
-      <c r="D89" s="81">
+      <c r="D89" s="80">
         <f>IF(upper!D20="", "", upper!D20)</f>
         <v>64.66323014923799</v>
       </c>
-      <c r="E89" s="81">
+      <c r="E89" s="80">
         <f>IF(upper!E20="", "", upper!E20)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F89" s="76">
+      <c r="F89" s="75">
         <f>IF(upper!F20="", "", upper!F20)</f>
         <v>5</v>
       </c>
-      <c r="G89" s="76">
+      <c r="G89" s="75">
         <f>IF(upper!A20="", "", upper!G20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="76" t="str">
+      <c r="A90" s="75" t="str">
         <f>IF(upper!A21="", "", upper!A21)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B90" s="76">
+      <c r="B90" s="75">
         <f>IF(upper!B21="", "", upper!B21)</f>
         <v>63</v>
       </c>
-      <c r="C90" s="81">
+      <c r="C90" s="80">
         <f>IF(upper!C21="", "", upper!C21)</f>
         <v>-116</v>
       </c>
-      <c r="D90" s="81">
+      <c r="D90" s="80">
         <f>IF(upper!D21="", "", upper!D21)</f>
         <v>55.425625842203999</v>
       </c>
-      <c r="E90" s="81">
+      <c r="E90" s="80">
         <f>IF(upper!E21="", "", upper!E21)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F90" s="76">
+      <c r="F90" s="75">
         <f>IF(upper!F21="", "", upper!F21)</f>
         <v>5</v>
       </c>
-      <c r="G90" s="76">
+      <c r="G90" s="75">
         <f>IF(upper!A21="", "", upper!G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="76" t="str">
+      <c r="A91" s="75" t="str">
         <f>IF(upper!A22="", "", upper!A22)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B91" s="76">
+      <c r="B91" s="75">
         <f>IF(upper!B22="", "", upper!B22)</f>
         <v>48</v>
       </c>
-      <c r="C91" s="81">
+      <c r="C91" s="80">
         <f>IF(upper!C22="", "", upper!C22)</f>
         <v>-116</v>
       </c>
-      <c r="D91" s="81">
+      <c r="D91" s="80">
         <f>IF(upper!D22="", "", upper!D22)</f>
         <v>36.95041722813599</v>
       </c>
-      <c r="E91" s="81">
+      <c r="E91" s="80">
         <f>IF(upper!E22="", "", upper!E22)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F91" s="76">
+      <c r="F91" s="75">
         <f>IF(upper!F22="", "", upper!F22)</f>
         <v>5</v>
       </c>
-      <c r="G91" s="76">
+      <c r="G91" s="75">
         <f>IF(upper!A22="", "", upper!G22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="76" t="str">
+      <c r="A92" s="75" t="str">
         <f>IF(upper!A23="", "", upper!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B92" s="76">
+      <c r="B92" s="75">
         <f>IF(upper!B23="", "", upper!B23)</f>
         <v>59</v>
       </c>
-      <c r="C92" s="81">
+      <c r="C92" s="80">
         <f>IF(upper!C23="", "", upper!C23)</f>
         <v>-84</v>
       </c>
-      <c r="D92" s="81">
+      <c r="D92" s="80">
         <f>IF(upper!D23="", "", upper!D23)</f>
         <v>36.95041722813599</v>
       </c>
-      <c r="E92" s="81">
+      <c r="E92" s="80">
         <f>IF(upper!E23="", "", upper!E23)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F92" s="76">
+      <c r="F92" s="75">
         <f>IF(upper!F23="", "", upper!F23)</f>
         <v>5</v>
       </c>
-      <c r="G92" s="76">
+      <c r="G92" s="75">
         <f>IF(upper!A23="", "", upper!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="76" t="str">
+      <c r="A93" s="75" t="str">
         <f>IF(upper!A24="", "", upper!A24)</f>
         <v/>
       </c>
-      <c r="B93" s="76" t="str">
+      <c r="B93" s="75" t="str">
         <f>IF(upper!B24="", "", upper!B24)</f>
         <v/>
       </c>
-      <c r="C93" s="81" t="str">
+      <c r="C93" s="80" t="str">
         <f>IF(upper!C24="", "", upper!C24)</f>
         <v/>
       </c>
-      <c r="D93" s="81" t="str">
+      <c r="D93" s="80" t="str">
         <f>IF(upper!D24="", "", upper!D24)</f>
         <v/>
       </c>
-      <c r="E93" s="81" t="str">
+      <c r="E93" s="80" t="str">
         <f>IF(upper!E24="", "", upper!E24)</f>
         <v/>
       </c>
-      <c r="F93" s="76" t="str">
+      <c r="F93" s="75" t="str">
         <f>IF(upper!F24="", "", upper!F24)</f>
         <v/>
       </c>
-      <c r="G93" s="76" t="str">
+      <c r="G93" s="75" t="str">
         <f>IF(upper!A24="", "", upper!G24)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="76" t="str">
+      <c r="A94" s="75" t="str">
         <f>IF(upper!A25="", "", upper!A25)</f>
         <v/>
       </c>
-      <c r="B94" s="76" t="str">
+      <c r="B94" s="75" t="str">
         <f>IF(upper!B25="", "", upper!B25)</f>
         <v/>
       </c>
-      <c r="C94" s="81" t="str">
+      <c r="C94" s="80" t="str">
         <f>IF(upper!C25="", "", upper!C25)</f>
         <v/>
       </c>
-      <c r="D94" s="81" t="str">
+      <c r="D94" s="80" t="str">
         <f>IF(upper!D25="", "", upper!D25)</f>
         <v/>
       </c>
-      <c r="E94" s="81" t="str">
+      <c r="E94" s="80" t="str">
         <f>IF(upper!E25="", "", upper!E25)</f>
         <v/>
       </c>
-      <c r="F94" s="76" t="str">
+      <c r="F94" s="75" t="str">
         <f>IF(upper!F25="", "", upper!F25)</f>
         <v/>
       </c>
-      <c r="G94" s="76" t="str">
+      <c r="G94" s="75" t="str">
         <f>IF(upper!A25="", "", upper!G25)</f>
         <v/>
       </c>
@@ -18425,9 +18424,9 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
     </row>

--- a/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="4"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10985073" y="2423105"/>
-          <a:ext cx="4349779" cy="4100085"/>
+          <a:off x="10947962" y="2454030"/>
+          <a:ext cx="4353490" cy="4103796"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -2016,8 +2016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10250287" y="0"/>
-          <a:ext cx="4028311" cy="0"/>
+          <a:off x="10223347" y="0"/>
+          <a:ext cx="4013879" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -3040,8 +3040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10239703" y="2320295"/>
-          <a:ext cx="4365297" cy="3716062"/>
+          <a:off x="10215650" y="2350121"/>
+          <a:ext cx="4347978" cy="3722796"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -5097,8 +5097,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10768870" y="0"/>
-          <a:ext cx="4038894" cy="0"/>
+          <a:off x="10708256" y="0"/>
+          <a:ext cx="4031198" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -6121,8 +6121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10726537" y="2320295"/>
-          <a:ext cx="4397046" cy="3716062"/>
+          <a:off x="10665923" y="2350121"/>
+          <a:ext cx="4389350" cy="3722796"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -8214,8 +8214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10705370" y="0"/>
-          <a:ext cx="4038894" cy="0"/>
+          <a:off x="10684826" y="0"/>
+          <a:ext cx="4030179" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
         </a:xfrm>
@@ -9238,8 +9238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10663037" y="2320295"/>
-          <a:ext cx="4524046" cy="3716062"/>
+          <a:off x="10642493" y="2324653"/>
+          <a:ext cx="4515331" cy="3716684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -11350,8 +11350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11466,7 +11466,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="21" t="s">
         <v>18</v>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="C4" s="71">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-103.92225100748811</v>
+        <v>-67.077748992511886</v>
       </c>
       <c r="D4" s="71">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
@@ -11490,14 +11490,14 @@
       </c>
       <c r="E4" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F4" s="70">
         <v>5</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" ref="G3:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="C5" s="71">
         <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-94.684646700454095</v>
+        <v>-76.315353299545905</v>
       </c>
       <c r="D5" s="71">
         <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
@@ -11548,14 +11548,14 @@
       </c>
       <c r="E5" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
-        <v>-149.99971938845687</v>
+        <v>149.99971938845687</v>
       </c>
       <c r="F5" s="70">
         <v>5</v>
       </c>
       <c r="G5" s="73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="C6" s="71">
         <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-76.209438086386058</v>
+        <v>-94.790561913613942</v>
       </c>
       <c r="D6" s="71">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
@@ -11605,14 +11605,14 @@
       </c>
       <c r="E6" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F6" s="70">
         <v>5</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="C7" s="71">
         <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-66.971833779352067</v>
+        <v>-104.02816622064793</v>
       </c>
       <c r="D7" s="71">
         <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
@@ -11660,14 +11660,14 @@
       </c>
       <c r="E7" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F7" s="70">
         <v>5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-259</v>
+        <v>-88</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" ref="C11:C14" si="4">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-94.684646700454124</v>
+        <v>-76.315353299545876</v>
       </c>
       <c r="D11" s="71">
         <f t="shared" ref="D11:D14" si="5">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
@@ -11812,14 +11812,14 @@
       </c>
       <c r="E11" s="71">
         <f t="shared" ref="E11:E14" si="6">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F11" s="70">
         <v>5</v>
       </c>
       <c r="G11" s="73">
         <f t="shared" ref="G11:G14" si="7">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="45">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="4"/>
-        <v>-76.209438086386115</v>
+        <v>-94.790561913613885</v>
       </c>
       <c r="D12" s="71">
         <f t="shared" si="5"/>
@@ -11862,14 +11862,14 @@
       </c>
       <c r="E12" s="71">
         <f t="shared" si="6"/>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F12" s="70">
         <v>5</v>
       </c>
       <c r="G12" s="73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="45">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="4"/>
-        <v>-66.971833779352096</v>
+        <v>-104.0281662206479</v>
       </c>
       <c r="D13" s="71">
         <f t="shared" si="5"/>
@@ -11910,14 +11910,14 @@
       </c>
       <c r="E13" s="71">
         <f t="shared" si="6"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F13" s="70">
         <v>5</v>
       </c>
       <c r="G13" s="73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="45">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="C14" s="71">
         <f t="shared" si="4"/>
-        <v>-76.209438086386115</v>
+        <v>-94.790561913613885</v>
       </c>
       <c r="D14" s="71">
         <f t="shared" si="5"/>
@@ -11958,14 +11958,14 @@
       </c>
       <c r="E14" s="71">
         <f t="shared" si="6"/>
-        <v>29.999859694228427</v>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F14" s="70">
         <v>5</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="45">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="C19" s="71">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-94.684646700454152</v>
+        <v>-76.315353299545848</v>
       </c>
       <c r="D19" s="71">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
@@ -12122,14 +12122,14 @@
       </c>
       <c r="E19" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
-        <v>89.999719388456853</v>
+        <v>-89.999719388456853</v>
       </c>
       <c r="F19" s="70">
         <v>5</v>
       </c>
       <c r="G19" s="73">
         <f t="shared" ref="G19" si="9">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="45">
@@ -12244,27 +12244,27 @@
         <v>26</v>
       </c>
       <c r="B23" s="71">
-        <f t="shared" ref="B23:B25" si="10">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <f t="shared" ref="B23" si="10">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
       <c r="C23" s="71">
-        <f t="shared" ref="C23:C25" si="11">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-103.92225100748814</v>
+        <f t="shared" ref="C23" si="11">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <v>-67.077748992511857</v>
       </c>
       <c r="D23" s="71">
-        <f t="shared" ref="D23:D25" si="12">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D23" si="12">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.60254037844382</v>
       </c>
       <c r="E23" s="71">
-        <f t="shared" ref="E23:E25" si="13">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>149.99957908268468</v>
+        <f t="shared" ref="E23" si="13">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
+        <v>-149.99957908268468</v>
       </c>
       <c r="F23" s="70">
         <v>5</v>
       </c>
       <c r="G23" s="73">
-        <f t="shared" ref="G23:G25" si="14">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="G23" si="14">IF($R$3*$R$4=-1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="45">
@@ -12608,8 +12608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J25"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12693,22 +12693,22 @@
       </c>
       <c r="C3" s="71">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-36.602540378443848</v>
+        <v>-16.397459621556152</v>
       </c>
       <c r="D3" s="71">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>161.39745962155612</v>
+        <v>163.39745962155612</v>
       </c>
       <c r="E3" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F3" s="70">
         <v>5</v>
       </c>
       <c r="G3" s="73">
         <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -12738,7 +12738,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="21" t="s">
         <v>18</v>
@@ -12754,22 +12754,22 @@
       </c>
       <c r="C4" s="71">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-45.84014468547786</v>
+        <v>-7.1598553145221402</v>
       </c>
       <c r="D4" s="71">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
-        <v>145.39745962155615</v>
+        <v>147.39745962155615</v>
       </c>
       <c r="E4" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
-        <v>150.00014030577157</v>
+        <v>-150.00014030577157</v>
       </c>
       <c r="F4" s="70">
         <v>5</v>
       </c>
       <c r="G4" s="73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -13019,22 +13019,22 @@
       </c>
       <c r="C11" s="71">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-36.602540378443862</v>
+        <v>-16.397459621556138</v>
       </c>
       <c r="D11" s="71">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
-        <v>129.39745962155615</v>
+        <v>131.39745962155615</v>
       </c>
       <c r="E11" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F11" s="70">
         <v>5</v>
       </c>
       <c r="G11" s="73">
         <f t="shared" ref="G11:G15" si="3">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="43">
@@ -13069,22 +13069,22 @@
       </c>
       <c r="C12" s="71">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-45.840144685477881</v>
+        <v>-7.1598553145221189</v>
       </c>
       <c r="D12" s="71">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>113.39745962155618</v>
+        <v>115.39745962155618</v>
       </c>
       <c r="E12" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
-        <v>150.00014030577157</v>
+        <v>-150.00014030577157</v>
       </c>
       <c r="F12" s="70">
         <v>5</v>
       </c>
       <c r="G12" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="43">
@@ -13117,22 +13117,22 @@
       </c>
       <c r="C13" s="71">
         <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-36.602540378443877</v>
+        <v>-16.397459621556123</v>
       </c>
       <c r="D13" s="71">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
-        <v>97.397459621556209</v>
+        <v>99.397459621556209</v>
       </c>
       <c r="E13" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F13" s="70">
         <v>5</v>
       </c>
       <c r="G13" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="43">
@@ -13165,22 +13165,22 @@
       </c>
       <c r="C14" s="71">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-18.127331764375867</v>
+        <v>-34.872668235624133</v>
       </c>
       <c r="D14" s="71">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>97.397459621556209</v>
+        <v>99.397459621556209</v>
       </c>
       <c r="E14" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
-        <v>269.99985969422841</v>
+        <v>-269.99985969422841</v>
       </c>
       <c r="F14" s="70">
         <v>5</v>
       </c>
       <c r="G14" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="43">
@@ -13213,22 +13213,22 @@
       </c>
       <c r="C15" s="71">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-8.8897274573418628</v>
+        <v>-44.110272542658137</v>
       </c>
       <c r="D15" s="71">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
-        <v>81.397459621556209</v>
+        <v>83.397459621556209</v>
       </c>
       <c r="E15" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F15" s="70">
         <v>5</v>
       </c>
       <c r="G15" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="43">
@@ -13348,22 +13348,22 @@
       </c>
       <c r="C19" s="71">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-8.8897274573418485</v>
+        <v>-44.110272542658151</v>
       </c>
       <c r="D19" s="71">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>113.39745962155621</v>
+        <v>115.39745962155621</v>
       </c>
       <c r="E19" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
-        <v>329.99971938845687</v>
+        <v>-329.99971938845687</v>
       </c>
       <c r="F19" s="70">
         <v>5</v>
       </c>
       <c r="G19" s="73">
         <f t="shared" ref="G19" si="5">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="43">
@@ -13483,22 +13483,22 @@
       </c>
       <c r="C23" s="71">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-18.127331764375853</v>
+        <v>-34.872668235624147</v>
       </c>
       <c r="D23" s="71">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>129.39745962155618</v>
+        <v>131.39745962155618</v>
       </c>
       <c r="E23" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
-        <v>389.9995790826847</v>
+        <v>-389.9995790826847</v>
       </c>
       <c r="F23" s="70">
         <v>5</v>
       </c>
       <c r="G23" s="73">
         <f t="shared" ref="G23:G25" si="7">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="43">
@@ -13531,22 +13531,22 @@
       </c>
       <c r="C24" s="71">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-8.8897274573418343</v>
+        <v>-44.110272542658166</v>
       </c>
       <c r="D24" s="71">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
-        <v>145.39745962155618</v>
+        <v>147.39745962155618</v>
       </c>
       <c r="E24" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
-        <v>329.99971938845687</v>
+        <v>-329.99971938845687</v>
       </c>
       <c r="F24" s="70">
         <v>5</v>
       </c>
       <c r="G24" s="73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="43">
@@ -13579,22 +13579,22 @@
       </c>
       <c r="C25" s="71">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-18.127331764375832</v>
+        <v>-34.872668235624168</v>
       </c>
       <c r="D25" s="71">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
-        <v>161.39745962155615</v>
+        <v>163.39745962155615</v>
       </c>
       <c r="E25" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
-        <v>389.9995790826847</v>
+        <v>-389.9995790826847</v>
       </c>
       <c r="F25" s="70">
         <v>5</v>
       </c>
       <c r="G25" s="73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="43">
@@ -13636,8 +13636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13720,22 +13720,22 @@
       </c>
       <c r="C3" s="71">
         <f t="shared" ref="C3:C13" si="1">((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-163.39745962155612</v>
+        <v>-126.60254037844388</v>
       </c>
       <c r="D3" s="71">
         <f t="shared" ref="D3:D13" si="2">((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
-        <v>86.602540378443877</v>
+        <v>84.602540378443877</v>
       </c>
       <c r="E3" s="71">
         <f t="shared" ref="E3:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F3" s="70">
         <v>5</v>
       </c>
       <c r="G3" s="73">
         <f t="shared" ref="G3:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -13765,7 +13765,7 @@
         <v>16</v>
       </c>
       <c r="R3" s="56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="21" t="s">
         <v>18</v>
@@ -13781,22 +13781,22 @@
       </c>
       <c r="C4" s="71">
         <f t="shared" si="1"/>
-        <v>-154.1598553145221</v>
+        <v>-135.8401446854779</v>
       </c>
       <c r="D4" s="71">
         <f t="shared" si="2"/>
-        <v>102.60254037844385</v>
+        <v>100.60254037844385</v>
       </c>
       <c r="E4" s="71">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F4" s="70">
         <v>5</v>
       </c>
       <c r="G4" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -13839,22 +13839,22 @@
       </c>
       <c r="C5" s="71">
         <f t="shared" si="1"/>
-        <v>-135.6846467004541</v>
+        <v>-154.3153532995459</v>
       </c>
       <c r="D5" s="71">
         <f t="shared" si="2"/>
-        <v>102.60254037844385</v>
+        <v>100.60254037844385</v>
       </c>
       <c r="E5" s="71">
         <f t="shared" si="3"/>
-        <v>-89.999719388456853</v>
+        <v>89.999719388456853</v>
       </c>
       <c r="F5" s="70">
         <v>5</v>
       </c>
       <c r="G5" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -13896,22 +13896,22 @@
       </c>
       <c r="C6" s="71">
         <f t="shared" si="1"/>
-        <v>-126.44704239342006</v>
+        <v>-163.55295760657992</v>
       </c>
       <c r="D6" s="71">
         <f t="shared" si="2"/>
-        <v>118.60254037844385</v>
+        <v>116.60254037844385</v>
       </c>
       <c r="E6" s="71">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F6" s="70">
         <v>5</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -13951,22 +13951,22 @@
       </c>
       <c r="C7" s="71">
         <f t="shared" si="1"/>
-        <v>-135.68464670045407</v>
+        <v>-154.31535329954593</v>
       </c>
       <c r="D7" s="71">
         <f t="shared" si="2"/>
-        <v>134.60254037844382</v>
+        <v>132.60254037844382</v>
       </c>
       <c r="E7" s="71">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F7" s="70">
         <v>5</v>
       </c>
       <c r="G7" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-200</v>
+        <v>90</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="C8" s="71">
         <f t="shared" si="1"/>
-        <v>-126.44704239342002</v>
+        <v>-163.55295760657998</v>
       </c>
       <c r="D8" s="71">
         <f t="shared" si="2"/>
-        <v>150.60254037844379</v>
+        <v>148.60254037844379</v>
       </c>
       <c r="E8" s="71">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F8" s="70">
         <v>5</v>
       </c>
       <c r="G8" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -14059,22 +14059,22 @@
       </c>
       <c r="C9" s="71">
         <f t="shared" si="1"/>
-        <v>-135.68464670045404</v>
+        <v>-154.31535329954596</v>
       </c>
       <c r="D9" s="71">
         <f t="shared" si="2"/>
-        <v>166.60254037844379</v>
+        <v>164.60254037844379</v>
       </c>
       <c r="E9" s="71">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F9" s="70">
         <v>5</v>
       </c>
       <c r="G9" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="43">
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -14110,22 +14110,22 @@
       </c>
       <c r="C10" s="71">
         <f t="shared" si="1"/>
-        <v>-154.15985531452205</v>
+        <v>-135.84014468547795</v>
       </c>
       <c r="D10" s="71">
         <f t="shared" si="2"/>
-        <v>166.60254037844379</v>
+        <v>164.60254037844379</v>
       </c>
       <c r="E10" s="71">
         <f t="shared" si="3"/>
-        <v>89.999859694228434</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F10" s="70">
         <v>5</v>
       </c>
       <c r="G10" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="43">
@@ -14160,22 +14160,22 @@
       </c>
       <c r="C11" s="71">
         <f t="shared" si="1"/>
-        <v>-163.3974596215561</v>
+        <v>-126.6025403784439</v>
       </c>
       <c r="D11" s="71">
         <f t="shared" si="2"/>
-        <v>118.60254037844382</v>
+        <v>116.60254037844382</v>
       </c>
       <c r="E11" s="71">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F11" s="70">
         <v>5</v>
       </c>
       <c r="G11" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="43">
@@ -14211,22 +14211,22 @@
       </c>
       <c r="C12" s="71">
         <f t="shared" si="1"/>
-        <v>-154.15985531452208</v>
+        <v>-135.84014468547792</v>
       </c>
       <c r="D12" s="71">
         <f t="shared" si="2"/>
-        <v>134.60254037844379</v>
+        <v>132.60254037844379</v>
       </c>
       <c r="E12" s="71">
         <f t="shared" si="3"/>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F12" s="70">
         <v>5</v>
       </c>
       <c r="G12" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="43">
@@ -14259,22 +14259,22 @@
       </c>
       <c r="C13" s="71">
         <f t="shared" si="1"/>
-        <v>-163.3974596215561</v>
+        <v>-126.60254037844392</v>
       </c>
       <c r="D13" s="71">
         <f t="shared" si="2"/>
-        <v>150.60254037844379</v>
+        <v>148.60254037844379</v>
       </c>
       <c r="E13" s="71">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F13" s="70">
         <v>5</v>
       </c>
       <c r="G13" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="43">
@@ -14660,8 +14660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-184</v>
+        <v>-186</v>
       </c>
       <c r="O7" s="46">
         <v>148</v>
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="O9" s="46">
         <v>164</v>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="C12" s="71">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="D12" s="71">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E12" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
@@ -15111,11 +15111,11 @@
       </c>
       <c r="C13" s="71">
         <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="D13" s="71">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E13" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
@@ -15159,11 +15159,11 @@
       </c>
       <c r="C14" s="71">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-68</v>
+        <v>-70</v>
       </c>
       <c r="D14" s="71">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
-        <v>64.66323014923799</v>
+        <v>54.66323014923799</v>
       </c>
       <c r="E14" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
@@ -15323,11 +15323,11 @@
       </c>
       <c r="C19" s="71">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="D19" s="71">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E19" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
@@ -15371,11 +15371,11 @@
       </c>
       <c r="C20" s="71">
         <f>((+O20*COS($N$3)-P20*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="D20" s="71">
         <f>((O20*SIN($N$3)+P20*COS($N$3)+$N$9)*$R$4)</f>
-        <v>64.66323014923799</v>
+        <v>54.66323014923799</v>
       </c>
       <c r="E20" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M20/3.1416*180)+$N$5)</f>
@@ -15419,11 +15419,11 @@
       </c>
       <c r="C21" s="71">
         <f>((+O21*COS($N$3)-P21*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-116</v>
+        <v>-118</v>
       </c>
       <c r="D21" s="71">
         <f>((O21*SIN($N$3)+P21*COS($N$3)+$N$9)*$R$4)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E21" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M21/3.1416*180)+$N$5)</f>
@@ -15467,11 +15467,11 @@
       </c>
       <c r="C22" s="71">
         <f>((+O22*COS($N$3)-P22*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-116</v>
+        <v>-118</v>
       </c>
       <c r="D22" s="71">
         <f>((O22*SIN($N$3)+P22*COS($N$3)+$N$9)*$R$4)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E22" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M22/3.1416*180)+$N$5)</f>
@@ -15515,11 +15515,11 @@
       </c>
       <c r="C23" s="71">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="D23" s="71">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E23" s="71">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
@@ -15626,8 +15626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G94" sqref="A3:G94"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C4" s="79">
         <f>IF(lower!C4="", "", lower!C4)</f>
-        <v>-103.92225100748811</v>
+        <v>-67.077748992511886</v>
       </c>
       <c r="D4" s="79">
         <f>IF(lower!D4="", "", lower!D4)</f>
@@ -15710,7 +15710,7 @@
       </c>
       <c r="E4" s="79">
         <f>IF(lower!E4="", "", lower!E4)</f>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F4" s="74">
         <f>IF(lower!F4=0, "", lower!F4)</f>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="G4" s="74">
         <f>IF(lower!$A4="", "", lower!G4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="C5" s="79">
         <f>IF(lower!C5="", "", lower!C5)</f>
-        <v>-94.684646700454095</v>
+        <v>-76.315353299545905</v>
       </c>
       <c r="D5" s="79">
         <f>IF(lower!D5="", "", lower!D5)</f>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="E5" s="79">
         <f>IF(lower!E5="", "", lower!E5)</f>
-        <v>-149.99971938845687</v>
+        <v>149.99971938845687</v>
       </c>
       <c r="F5" s="74">
         <f>IF(lower!F5=0, "", lower!F5)</f>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="G5" s="74">
         <f>IF(lower!$A5="", "", lower!G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="C6" s="79">
         <f>IF(lower!C6="", "", lower!C6)</f>
-        <v>-76.209438086386058</v>
+        <v>-94.790561913613942</v>
       </c>
       <c r="D6" s="79">
         <f>IF(lower!D6="", "", lower!D6)</f>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="E6" s="79">
         <f>IF(lower!E6="", "", lower!E6)</f>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F6" s="74">
         <f>IF(lower!F6=0, "", lower!F6)</f>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="G6" s="74">
         <f>IF(lower!$A6="", "", lower!G6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="C7" s="79">
         <f>IF(lower!C7="", "", lower!C7)</f>
-        <v>-66.971833779352067</v>
+        <v>-104.02816622064793</v>
       </c>
       <c r="D7" s="79">
         <f>IF(lower!D7="", "", lower!D7)</f>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="E7" s="79">
         <f>IF(lower!E7="", "", lower!E7)</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F7" s="74">
         <f>IF(lower!F7=0, "", lower!F7)</f>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="G7" s="74">
         <f>IF(lower!$A7="", "", lower!G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="C11" s="79">
         <f>IF(lower!C11="", "", lower!C11)</f>
-        <v>-94.684646700454124</v>
+        <v>-76.315353299545876</v>
       </c>
       <c r="D11" s="79">
         <f>IF(lower!D11="", "", lower!D11)</f>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="E11" s="79">
         <f>IF(lower!E11="", "", lower!E11)</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F11" s="74">
         <f>IF(lower!F11=0, "", lower!F11)</f>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="G11" s="74">
         <f>IF(lower!$A11="", "", lower!G11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="C12" s="79">
         <f>IF(lower!C12="", "", lower!C12)</f>
-        <v>-76.209438086386115</v>
+        <v>-94.790561913613885</v>
       </c>
       <c r="D12" s="79">
         <f>IF(lower!D12="", "", lower!D12)</f>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="E12" s="79">
         <f>IF(lower!E12="", "", lower!E12)</f>
-        <v>-89.999859694228434</v>
+        <v>89.999859694228434</v>
       </c>
       <c r="F12" s="74">
         <f>IF(lower!F12=0, "", lower!F12)</f>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="G12" s="74">
         <f>IF(lower!$A12="", "", lower!G12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="C13" s="79">
         <f>IF(lower!C13="", "", lower!C13)</f>
-        <v>-66.971833779352096</v>
+        <v>-104.0281662206479</v>
       </c>
       <c r="D13" s="79">
         <f>IF(lower!D13="", "", lower!D13)</f>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="E13" s="79">
         <f>IF(lower!E13="", "", lower!E13)</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F13" s="74">
         <f>IF(lower!F13=0, "", lower!F13)</f>
@@ -15988,7 +15988,7 @@
       </c>
       <c r="G13" s="74">
         <f>IF(lower!$A13="", "", lower!G13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="C14" s="79">
         <f>IF(lower!C14="", "", lower!C14)</f>
-        <v>-76.209438086386115</v>
+        <v>-94.790561913613885</v>
       </c>
       <c r="D14" s="79">
         <f>IF(lower!D14="", "", lower!D14)</f>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="E14" s="79">
         <f>IF(lower!E14="", "", lower!E14)</f>
-        <v>29.999859694228427</v>
+        <v>-29.999859694228427</v>
       </c>
       <c r="F14" s="74">
         <f>IF(lower!F14=0, "", lower!F14)</f>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="G14" s="74">
         <f>IF(lower!$A14="", "", lower!G14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="C19" s="79">
         <f>IF(lower!C19="", "", lower!C19)</f>
-        <v>-94.684646700454152</v>
+        <v>-76.315353299545848</v>
       </c>
       <c r="D19" s="79">
         <f>IF(lower!D19="", "", lower!D19)</f>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="E19" s="79">
         <f>IF(lower!E19="", "", lower!E19)</f>
-        <v>89.999719388456853</v>
+        <v>-89.999719388456853</v>
       </c>
       <c r="F19" s="74">
         <f>IF(lower!F19=0, "", lower!F19)</f>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="G19" s="74">
         <f>IF(lower!$A19="", "", lower!G19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="C23" s="79">
         <f>IF(lower!C23="", "", lower!C23)</f>
-        <v>-103.92225100748814</v>
+        <v>-67.077748992511857</v>
       </c>
       <c r="D23" s="79">
         <f>IF(lower!D23="", "", lower!D23)</f>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="E23" s="79">
         <f>IF(lower!E23="", "", lower!E23)</f>
-        <v>149.99957908268468</v>
+        <v>-149.99957908268468</v>
       </c>
       <c r="F23" s="74">
         <f>IF(lower!F23=0, "", lower!F23)</f>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="G23" s="74">
         <f>IF(lower!$A23="", "", lower!G23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -16362,15 +16362,15 @@
       </c>
       <c r="C26" s="68">
         <f>IF(external!C3="", "", external!C3)</f>
-        <v>-36.602540378443848</v>
+        <v>-16.397459621556152</v>
       </c>
       <c r="D26" s="68">
         <f>IF(external!D3="", "", external!D3)</f>
-        <v>161.39745962155612</v>
+        <v>163.39745962155612</v>
       </c>
       <c r="E26" s="68">
         <f>IF(external!E3="", "", external!E3)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F26" s="63">
         <f>IF(external!F3="", "", external!F3)</f>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="G26" s="63">
         <f>IF(external!A3="", "", external!G3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -16392,15 +16392,15 @@
       </c>
       <c r="C27" s="68">
         <f>IF(external!C4="", "", external!C4)</f>
-        <v>-45.84014468547786</v>
+        <v>-7.1598553145221402</v>
       </c>
       <c r="D27" s="68">
         <f>IF(external!D4="", "", external!D4)</f>
-        <v>145.39745962155615</v>
+        <v>147.39745962155615</v>
       </c>
       <c r="E27" s="68">
         <f>IF(external!E4="", "", external!E4)</f>
-        <v>150.00014030577157</v>
+        <v>-150.00014030577157</v>
       </c>
       <c r="F27" s="63">
         <f>IF(external!F4="", "", external!F4)</f>
@@ -16408,7 +16408,7 @@
       </c>
       <c r="G27" s="63">
         <f>IF(external!A4="", "", external!G4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -16602,15 +16602,15 @@
       </c>
       <c r="C34" s="68">
         <f>IF(external!C11="", "", external!C11)</f>
-        <v>-36.602540378443862</v>
+        <v>-16.397459621556138</v>
       </c>
       <c r="D34" s="68">
         <f>IF(external!D11="", "", external!D11)</f>
-        <v>129.39745962155615</v>
+        <v>131.39745962155615</v>
       </c>
       <c r="E34" s="68">
         <f>IF(external!E11="", "", external!E11)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F34" s="63">
         <f>IF(external!F11="", "", external!F11)</f>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="G34" s="63">
         <f>IF(external!A11="", "", external!G11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -16632,15 +16632,15 @@
       </c>
       <c r="C35" s="68">
         <f>IF(external!C12="", "", external!C12)</f>
-        <v>-45.840144685477881</v>
+        <v>-7.1598553145221189</v>
       </c>
       <c r="D35" s="68">
         <f>IF(external!D12="", "", external!D12)</f>
-        <v>113.39745962155618</v>
+        <v>115.39745962155618</v>
       </c>
       <c r="E35" s="68">
         <f>IF(external!E12="", "", external!E12)</f>
-        <v>150.00014030577157</v>
+        <v>-150.00014030577157</v>
       </c>
       <c r="F35" s="63">
         <f>IF(external!F12="", "", external!F12)</f>
@@ -16648,7 +16648,7 @@
       </c>
       <c r="G35" s="63">
         <f>IF(external!A12="", "", external!G12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -16662,15 +16662,15 @@
       </c>
       <c r="C36" s="68">
         <f>IF(external!C13="", "", external!C13)</f>
-        <v>-36.602540378443877</v>
+        <v>-16.397459621556123</v>
       </c>
       <c r="D36" s="68">
         <f>IF(external!D13="", "", external!D13)</f>
-        <v>97.397459621556209</v>
+        <v>99.397459621556209</v>
       </c>
       <c r="E36" s="68">
         <f>IF(external!E13="", "", external!E13)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F36" s="63">
         <f>IF(external!F13="", "", external!F13)</f>
@@ -16678,7 +16678,7 @@
       </c>
       <c r="G36" s="63">
         <f>IF(external!A13="", "", external!G13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16692,15 +16692,15 @@
       </c>
       <c r="C37" s="68">
         <f>IF(external!C14="", "", external!C14)</f>
-        <v>-18.127331764375867</v>
+        <v>-34.872668235624133</v>
       </c>
       <c r="D37" s="68">
         <f>IF(external!D14="", "", external!D14)</f>
-        <v>97.397459621556209</v>
+        <v>99.397459621556209</v>
       </c>
       <c r="E37" s="68">
         <f>IF(external!E14="", "", external!E14)</f>
-        <v>269.99985969422841</v>
+        <v>-269.99985969422841</v>
       </c>
       <c r="F37" s="63">
         <f>IF(external!F14="", "", external!F14)</f>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="G37" s="63">
         <f>IF(external!A14="", "", external!G14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -16722,15 +16722,15 @@
       </c>
       <c r="C38" s="68">
         <f>IF(external!C15="", "", external!C15)</f>
-        <v>-8.8897274573418628</v>
+        <v>-44.110272542658137</v>
       </c>
       <c r="D38" s="68">
         <f>IF(external!D15="", "", external!D15)</f>
-        <v>81.397459621556209</v>
+        <v>83.397459621556209</v>
       </c>
       <c r="E38" s="68">
         <f>IF(external!E15="", "", external!E15)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F38" s="63">
         <f>IF(external!F15="", "", external!F15)</f>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="G38" s="63">
         <f>IF(external!A15="", "", external!G15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -16842,15 +16842,15 @@
       </c>
       <c r="C42" s="68">
         <f>IF(external!C19="", "", external!C19)</f>
-        <v>-8.8897274573418485</v>
+        <v>-44.110272542658151</v>
       </c>
       <c r="D42" s="68">
         <f>IF(external!D19="", "", external!D19)</f>
-        <v>113.39745962155621</v>
+        <v>115.39745962155621</v>
       </c>
       <c r="E42" s="68">
         <f>IF(external!E19="", "", external!E19)</f>
-        <v>329.99971938845687</v>
+        <v>-329.99971938845687</v>
       </c>
       <c r="F42" s="63">
         <f>IF(external!F19="", "", external!F19)</f>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="G42" s="63">
         <f>IF(external!A19="", "", external!G19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -16962,15 +16962,15 @@
       </c>
       <c r="C46" s="68">
         <f>IF(external!C23="", "", external!C23)</f>
-        <v>-18.127331764375853</v>
+        <v>-34.872668235624147</v>
       </c>
       <c r="D46" s="68">
         <f>IF(external!D23="", "", external!D23)</f>
-        <v>129.39745962155618</v>
+        <v>131.39745962155618</v>
       </c>
       <c r="E46" s="68">
         <f>IF(external!E23="", "", external!E23)</f>
-        <v>389.9995790826847</v>
+        <v>-389.9995790826847</v>
       </c>
       <c r="F46" s="63">
         <f>IF(external!F23="", "", external!F23)</f>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="G46" s="63">
         <f>IF(external!A23="", "", external!G23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -16992,15 +16992,15 @@
       </c>
       <c r="C47" s="68">
         <f>IF(external!C24="", "", external!C24)</f>
-        <v>-8.8897274573418343</v>
+        <v>-44.110272542658166</v>
       </c>
       <c r="D47" s="68">
         <f>IF(external!D24="", "", external!D24)</f>
-        <v>145.39745962155618</v>
+        <v>147.39745962155618</v>
       </c>
       <c r="E47" s="68">
         <f>IF(external!E24="", "", external!E24)</f>
-        <v>329.99971938845687</v>
+        <v>-329.99971938845687</v>
       </c>
       <c r="F47" s="63">
         <f>IF(external!F24="", "", external!F24)</f>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="G47" s="63">
         <f>IF(external!A24="", "", external!G24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -17022,15 +17022,15 @@
       </c>
       <c r="C48" s="68">
         <f>IF(external!C25="", "", external!C25)</f>
-        <v>-18.127331764375832</v>
+        <v>-34.872668235624168</v>
       </c>
       <c r="D48" s="68">
         <f>IF(external!D25="", "", external!D25)</f>
-        <v>161.39745962155615</v>
+        <v>163.39745962155615</v>
       </c>
       <c r="E48" s="68">
         <f>IF(external!E25="", "", external!E25)</f>
-        <v>389.9995790826847</v>
+        <v>-389.9995790826847</v>
       </c>
       <c r="F48" s="63">
         <f>IF(external!F25="", "", external!F25)</f>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="G48" s="63">
         <f>IF(external!A25="", "", external!G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -17052,15 +17052,15 @@
       </c>
       <c r="C49" s="69">
         <f>IF(internal!C3="", "", internal!C3)</f>
-        <v>-163.39745962155612</v>
+        <v>-126.60254037844388</v>
       </c>
       <c r="D49" s="69">
         <f>IF(internal!D3="", "", internal!D3)</f>
-        <v>86.602540378443877</v>
+        <v>84.602540378443877</v>
       </c>
       <c r="E49" s="69">
         <f>IF(internal!E3="", "", internal!E3)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F49" s="62">
         <f>IF(internal!F3="", "", internal!F3)</f>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="G49" s="62">
         <f>IF(internal!A3="", "", internal!G3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -17082,15 +17082,15 @@
       </c>
       <c r="C50" s="69">
         <f>IF(internal!C4="", "", internal!C4)</f>
-        <v>-154.1598553145221</v>
+        <v>-135.8401446854779</v>
       </c>
       <c r="D50" s="69">
         <f>IF(internal!D4="", "", internal!D4)</f>
-        <v>102.60254037844385</v>
+        <v>100.60254037844385</v>
       </c>
       <c r="E50" s="69">
         <f>IF(internal!E4="", "", internal!E4)</f>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F50" s="62">
         <f>IF(internal!F4="", "", internal!F4)</f>
@@ -17098,7 +17098,7 @@
       </c>
       <c r="G50" s="62">
         <f>IF(internal!A4="", "", internal!G4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -17112,15 +17112,15 @@
       </c>
       <c r="C51" s="69">
         <f>IF(internal!C5="", "", internal!C5)</f>
-        <v>-135.6846467004541</v>
+        <v>-154.3153532995459</v>
       </c>
       <c r="D51" s="69">
         <f>IF(internal!D5="", "", internal!D5)</f>
-        <v>102.60254037844385</v>
+        <v>100.60254037844385</v>
       </c>
       <c r="E51" s="69">
         <f>IF(internal!E5="", "", internal!E5)</f>
-        <v>-89.999719388456853</v>
+        <v>89.999719388456853</v>
       </c>
       <c r="F51" s="62">
         <f>IF(internal!F5="", "", internal!F5)</f>
@@ -17128,7 +17128,7 @@
       </c>
       <c r="G51" s="62">
         <f>IF(internal!A5="", "", internal!G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -17142,15 +17142,15 @@
       </c>
       <c r="C52" s="69">
         <f>IF(internal!C6="", "", internal!C6)</f>
-        <v>-126.44704239342006</v>
+        <v>-163.55295760657992</v>
       </c>
       <c r="D52" s="69">
         <f>IF(internal!D6="", "", internal!D6)</f>
-        <v>118.60254037844385</v>
+        <v>116.60254037844385</v>
       </c>
       <c r="E52" s="69">
         <f>IF(internal!E6="", "", internal!E6)</f>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F52" s="62">
         <f>IF(internal!F6="", "", internal!F6)</f>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="G52" s="62">
         <f>IF(internal!A6="", "", internal!G6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -17172,15 +17172,15 @@
       </c>
       <c r="C53" s="69">
         <f>IF(internal!C7="", "", internal!C7)</f>
-        <v>-135.68464670045407</v>
+        <v>-154.31535329954593</v>
       </c>
       <c r="D53" s="69">
         <f>IF(internal!D7="", "", internal!D7)</f>
-        <v>134.60254037844382</v>
+        <v>132.60254037844382</v>
       </c>
       <c r="E53" s="69">
         <f>IF(internal!E7="", "", internal!E7)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F53" s="62">
         <f>IF(internal!F7="", "", internal!F7)</f>
@@ -17188,7 +17188,7 @@
       </c>
       <c r="G53" s="62">
         <f>IF(internal!A7="", "", internal!G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -17202,15 +17202,15 @@
       </c>
       <c r="C54" s="69">
         <f>IF(internal!C8="", "", internal!C8)</f>
-        <v>-126.44704239342002</v>
+        <v>-163.55295760657998</v>
       </c>
       <c r="D54" s="69">
         <f>IF(internal!D8="", "", internal!D8)</f>
-        <v>150.60254037844379</v>
+        <v>148.60254037844379</v>
       </c>
       <c r="E54" s="69">
         <f>IF(internal!E8="", "", internal!E8)</f>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F54" s="62">
         <f>IF(internal!F8="", "", internal!F8)</f>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="G54" s="62">
         <f>IF(internal!A8="", "", internal!G8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -17232,15 +17232,15 @@
       </c>
       <c r="C55" s="69">
         <f>IF(internal!C9="", "", internal!C9)</f>
-        <v>-135.68464670045404</v>
+        <v>-154.31535329954596</v>
       </c>
       <c r="D55" s="69">
         <f>IF(internal!D9="", "", internal!D9)</f>
-        <v>166.60254037844379</v>
+        <v>164.60254037844379</v>
       </c>
       <c r="E55" s="69">
         <f>IF(internal!E9="", "", internal!E9)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F55" s="62">
         <f>IF(internal!F9="", "", internal!F9)</f>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="G55" s="62">
         <f>IF(internal!A9="", "", internal!G9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -17262,15 +17262,15 @@
       </c>
       <c r="C56" s="69">
         <f>IF(internal!C10="", "", internal!C10)</f>
-        <v>-154.15985531452205</v>
+        <v>-135.84014468547795</v>
       </c>
       <c r="D56" s="69">
         <f>IF(internal!D10="", "", internal!D10)</f>
-        <v>166.60254037844379</v>
+        <v>164.60254037844379</v>
       </c>
       <c r="E56" s="69">
         <f>IF(internal!E10="", "", internal!E10)</f>
-        <v>89.999859694228434</v>
+        <v>-89.999859694228434</v>
       </c>
       <c r="F56" s="62">
         <f>IF(internal!F10="", "", internal!F10)</f>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="G56" s="62">
         <f>IF(internal!A10="", "", internal!G10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -17292,15 +17292,15 @@
       </c>
       <c r="C57" s="69">
         <f>IF(internal!C11="", "", internal!C11)</f>
-        <v>-163.3974596215561</v>
+        <v>-126.6025403784439</v>
       </c>
       <c r="D57" s="69">
         <f>IF(internal!D11="", "", internal!D11)</f>
-        <v>118.60254037844382</v>
+        <v>116.60254037844382</v>
       </c>
       <c r="E57" s="69">
         <f>IF(internal!E11="", "", internal!E11)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F57" s="62">
         <f>IF(internal!F11="", "", internal!F11)</f>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="G57" s="62">
         <f>IF(internal!A11="", "", internal!G11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -17322,15 +17322,15 @@
       </c>
       <c r="C58" s="69">
         <f>IF(internal!C12="", "", internal!C12)</f>
-        <v>-154.15985531452208</v>
+        <v>-135.84014468547792</v>
       </c>
       <c r="D58" s="69">
         <f>IF(internal!D12="", "", internal!D12)</f>
-        <v>134.60254037844379</v>
+        <v>132.60254037844379</v>
       </c>
       <c r="E58" s="69">
         <f>IF(internal!E12="", "", internal!E12)</f>
-        <v>-29.999859694228427</v>
+        <v>29.999859694228427</v>
       </c>
       <c r="F58" s="62">
         <f>IF(internal!F12="", "", internal!F12)</f>
@@ -17338,7 +17338,7 @@
       </c>
       <c r="G58" s="62">
         <f>IF(internal!A12="", "", internal!G12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -17352,15 +17352,15 @@
       </c>
       <c r="C59" s="69">
         <f>IF(internal!C13="", "", internal!C13)</f>
-        <v>-163.3974596215561</v>
+        <v>-126.60254037844392</v>
       </c>
       <c r="D59" s="69">
         <f>IF(internal!D13="", "", internal!D13)</f>
-        <v>150.60254037844379</v>
+        <v>148.60254037844379</v>
       </c>
       <c r="E59" s="69">
         <f>IF(internal!E13="", "", internal!E13)</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F59" s="62">
         <f>IF(internal!F13="", "", internal!F13)</f>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="G59" s="62">
         <f>IF(internal!A13="", "", internal!G13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -18012,11 +18012,11 @@
       </c>
       <c r="C81" s="80">
         <f>IF(upper!C12="", "", upper!C12)</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="D81" s="80">
         <f>IF(upper!D12="", "", upper!D12)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E81" s="80">
         <f>IF(upper!E12="", "", upper!E12)</f>
@@ -18042,11 +18042,11 @@
       </c>
       <c r="C82" s="80">
         <f>IF(upper!C13="", "", upper!C13)</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="D82" s="80">
         <f>IF(upper!D13="", "", upper!D13)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E82" s="80">
         <f>IF(upper!E13="", "", upper!E13)</f>
@@ -18072,11 +18072,11 @@
       </c>
       <c r="C83" s="80">
         <f>IF(upper!C14="", "", upper!C14)</f>
-        <v>-68</v>
+        <v>-70</v>
       </c>
       <c r="D83" s="80">
         <f>IF(upper!D14="", "", upper!D14)</f>
-        <v>64.66323014923799</v>
+        <v>54.66323014923799</v>
       </c>
       <c r="E83" s="80">
         <f>IF(upper!E14="", "", upper!E14)</f>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="C88" s="80">
         <f>IF(upper!C19="", "", upper!C19)</f>
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="D88" s="80">
         <f>IF(upper!D19="", "", upper!D19)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E88" s="80">
         <f>IF(upper!E19="", "", upper!E19)</f>
@@ -18252,11 +18252,11 @@
       </c>
       <c r="C89" s="80">
         <f>IF(upper!C20="", "", upper!C20)</f>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="D89" s="80">
         <f>IF(upper!D20="", "", upper!D20)</f>
-        <v>64.66323014923799</v>
+        <v>54.66323014923799</v>
       </c>
       <c r="E89" s="80">
         <f>IF(upper!E20="", "", upper!E20)</f>
@@ -18282,11 +18282,11 @@
       </c>
       <c r="C90" s="80">
         <f>IF(upper!C21="", "", upper!C21)</f>
-        <v>-116</v>
+        <v>-118</v>
       </c>
       <c r="D90" s="80">
         <f>IF(upper!D21="", "", upper!D21)</f>
-        <v>55.425625842203999</v>
+        <v>45.425625842203999</v>
       </c>
       <c r="E90" s="80">
         <f>IF(upper!E21="", "", upper!E21)</f>
@@ -18312,11 +18312,11 @@
       </c>
       <c r="C91" s="80">
         <f>IF(upper!C22="", "", upper!C22)</f>
-        <v>-116</v>
+        <v>-118</v>
       </c>
       <c r="D91" s="80">
         <f>IF(upper!D22="", "", upper!D22)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E91" s="80">
         <f>IF(upper!E22="", "", upper!E22)</f>
@@ -18342,11 +18342,11 @@
       </c>
       <c r="C92" s="80">
         <f>IF(upper!C23="", "", upper!C23)</f>
-        <v>-84</v>
+        <v>-86</v>
       </c>
       <c r="D92" s="80">
         <f>IF(upper!D23="", "", upper!D23)</f>
-        <v>36.95041722813599</v>
+        <v>26.95041722813599</v>
       </c>
       <c r="E92" s="80">
         <f>IF(upper!E23="", "", upper!E23)</f>

--- a/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
+++ b/app/skinGui/iniGenerators/rightArm_ini_generator iCubV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,7 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,8 +863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10947962" y="2454030"/>
-          <a:ext cx="4353490" cy="4103796"/>
+          <a:off x="10985073" y="2423105"/>
+          <a:ext cx="4349779" cy="4100085"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -11350,8 +11349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11385,62 +11384,62 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -11449,59 +11448,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="55">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="70">
         <f t="shared" ref="B4" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="70">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-67.077748992511886</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.60254037844388</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>5</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="72">
         <f t="shared" ref="G4:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -11516,50 +11515,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <f t="shared" ref="B5:B7" si="2">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="70">
         <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-76.315353299545905</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="70">
         <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
         <v>99.602540378443891</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="69">
         <v>5</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -11574,49 +11573,49 @@
       <c r="N5" s="3">
         <v>-30</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="70">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-94.790561913613942</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="70">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
         <v>99.602540378443877</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="69">
         <v>5</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -11628,50 +11627,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="70">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="70">
         <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-104.02816622064793</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="70">
         <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.60254037844385</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>5</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -11686,27 +11685,27 @@
       <c r="N7" s="3">
         <v>-88</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -11718,29 +11717,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="45">
+      <c r="J9" s="44">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -11755,24 +11754,24 @@
       <c r="N9" s="3">
         <v>79</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -11787,42 +11786,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="70">
         <f t="shared" ref="B11:B14" si="3">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <f t="shared" ref="C11:C14" si="4">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-76.315353299545876</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="70">
         <f t="shared" ref="D11:D14" si="5">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.60254037844385</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="70">
         <f t="shared" ref="E11:E14" si="6">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>5</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" ref="G11:G14" si="7">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -11834,45 +11833,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <v>0</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="70">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <f t="shared" si="4"/>
         <v>-94.790561913613885</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <f t="shared" si="5"/>
         <v>131.60254037844385</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <f t="shared" si="6"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>5</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -11885,42 +11884,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <f t="shared" si="4"/>
         <v>-104.0281662206479</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <f t="shared" si="5"/>
         <v>147.60254037844385</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>5</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -11933,42 +11932,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="70">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <f t="shared" si="4"/>
         <v>-94.790561913613885</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <f t="shared" si="5"/>
         <v>163.60254037844379</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <f t="shared" si="6"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>5</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -11981,23 +11980,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="45">
+      <c r="J15" s="44">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -12010,23 +12009,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -12039,23 +12038,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -12068,23 +12067,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -12094,45 +12093,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="70">
         <f t="shared" ref="B19" si="8">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="70">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-76.315353299545848</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.60254037844382</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <v>5</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" ref="G19" si="9">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -12145,23 +12144,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -12174,23 +12173,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -12203,23 +12202,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -12232,42 +12231,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <f t="shared" ref="B23" si="10">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="70">
         <f t="shared" ref="C23" si="11">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-67.077748992511857</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <f t="shared" ref="D23" si="12">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.60254037844382</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <f t="shared" ref="E23" si="13">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <v>5</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="72">
         <f t="shared" ref="G23" si="14">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -12280,23 +12279,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="73"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="72"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -12309,39 +12308,39 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="73"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="72"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>1</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -12609,7 +12608,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M3" sqref="M3:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12638,81 +12637,81 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="70">
         <f t="shared" ref="B3:B4" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>32</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-16.397459621556152</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="70">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.39745962155612</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>-210</v>
-      </c>
-      <c r="F3" s="70">
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F3" s="69">
         <v>5</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="72">
         <f t="shared" ref="G3:G4" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>3</v>
       </c>
       <c r="K3" s="12">
@@ -12721,59 +12720,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>3.6651914291880923</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="55">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="70">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="70">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-7.1598553145221402</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.39745962155615</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>-150.00014030577157</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>5</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <v>3</v>
       </c>
       <c r="K4" s="10">
@@ -12788,31 +12787,31 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <v>3</v>
       </c>
       <c r="K5" s="10">
@@ -12827,30 +12826,30 @@
       <c r="N5" s="3">
         <v>210</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <v>3</v>
       </c>
       <c r="K6" s="10">
@@ -12862,31 +12861,31 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <v>3</v>
       </c>
       <c r="K7" s="10">
@@ -12901,27 +12900,27 @@
       <c r="N7" s="3">
         <v>53</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>3</v>
       </c>
       <c r="K8" s="10">
@@ -12933,29 +12932,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <v>3</v>
       </c>
       <c r="K9" s="10">
@@ -12970,24 +12969,24 @@
       <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>3</v>
       </c>
       <c r="K10" s="10">
@@ -13002,42 +13001,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="70">
         <f t="shared" ref="B11:B15" si="2">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>44</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-16.397459621556138</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="70">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.39745962155615</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>-210</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>5</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" ref="G11:G15" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <v>3</v>
       </c>
       <c r="K11" s="10">
@@ -13049,45 +13048,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <v>16</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="70">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-7.1598553145221189</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.39745962155618</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
         <v>-150.00014030577157</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>5</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>3</v>
       </c>
       <c r="K12" s="10">
@@ -13100,42 +13099,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-16.397459621556123</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
         <v>99.397459621556209</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
         <v>-210</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>5</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>3</v>
       </c>
       <c r="K13" s="10">
@@ -13148,42 +13147,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="70">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-34.872668235624133</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
         <v>99.397459621556209</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
         <v>-269.99985969422841</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>5</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <v>3</v>
       </c>
       <c r="K14" s="10">
@@ -13196,42 +13195,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="70">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="70">
         <f>((+O15*COS($N$3)-P15*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-44.110272542658137</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="70">
         <f>((O15*SIN($N$3)+P15*COS($N$3)+$N$9)*$R$4)</f>
         <v>83.397459621556209</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M15/3.1416*180)+$N$5)</f>
         <v>-210</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <v>5</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>3</v>
       </c>
       <c r="K15" s="10">
@@ -13244,23 +13243,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <v>3</v>
       </c>
       <c r="K16" s="10">
@@ -13273,23 +13272,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>3</v>
       </c>
       <c r="K17" s="10">
@@ -13302,23 +13301,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>3</v>
       </c>
       <c r="K18" s="10">
@@ -13328,45 +13327,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="70">
         <f t="shared" ref="B19" si="4">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>42</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="70">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-44.110272542658151</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.39745962155621</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-329.99971938845687</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <v>5</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" ref="G19" si="5">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <v>3</v>
       </c>
       <c r="K19" s="10">
@@ -13379,23 +13378,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>3</v>
       </c>
       <c r="K20" s="10">
@@ -13408,23 +13407,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <v>3</v>
       </c>
       <c r="K21" s="10">
@@ -13437,23 +13436,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>3</v>
       </c>
       <c r="K22" s="10">
@@ -13466,42 +13465,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <f t="shared" ref="B23:B25" si="6">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>43</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="70">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-34.872668235624147</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.39745962155618</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-389.9995790826847</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <v>5</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="72">
         <f t="shared" ref="G23:G25" si="7">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <v>3</v>
       </c>
       <c r="K23" s="10">
@@ -13514,42 +13513,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="71">
+      <c r="B24" s="70">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="70">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-44.110272542658166</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="70">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.39745962155618</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
         <v>-329.99971938845687</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <v>5</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="72">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="43">
+      <c r="J24" s="42">
         <v>3</v>
       </c>
       <c r="K24" s="10">
@@ -13562,58 +13561,58 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="70">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="70">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-34.872668235624168</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="70">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.39745962155615</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
         <v>-389.9995790826847</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="69">
         <v>5</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="72">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="43">
+      <c r="J25" s="42">
         <v>3</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -13623,7 +13622,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="61"/>
+      <c r="N30" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13637,7 +13636,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M3" sqref="M3:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13665,81 +13664,81 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="70">
         <f t="shared" ref="B3:B13" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>16</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <f t="shared" ref="C3:C13" si="1">((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-126.60254037844388</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="70">
         <f t="shared" ref="D3:D13" si="2">((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
         <v>84.602540378443877</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <f t="shared" ref="E3:E13" si="3">IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>-30</v>
-      </c>
-      <c r="F3" s="70">
+        <v>89.999719388456853</v>
+      </c>
+      <c r="F3" s="69">
         <v>5</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="72">
         <f t="shared" ref="G3:G13" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>2</v>
       </c>
       <c r="K3" s="12">
@@ -13748,59 +13747,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="55">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="70">
         <f t="shared" si="1"/>
         <v>-135.8401446854779</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <f t="shared" si="2"/>
         <v>100.60254037844385</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <f t="shared" si="3"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <v>5</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <v>2</v>
       </c>
       <c r="K4" s="10">
@@ -13815,50 +13814,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="70">
         <f t="shared" si="1"/>
         <v>-154.3153532995459</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="70">
         <f t="shared" si="2"/>
         <v>100.60254037844385</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <f t="shared" si="3"/>
         <v>89.999719388456853</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="69">
         <v>5</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <v>2</v>
       </c>
       <c r="K5" s="10">
@@ -13873,49 +13872,49 @@
       <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="70">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <f t="shared" si="1"/>
         <v>-163.55295760657992</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="70">
         <f t="shared" si="2"/>
         <v>116.60254037844385</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="70">
         <f t="shared" si="3"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="69">
         <v>5</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <v>2</v>
       </c>
       <c r="K6" s="10">
@@ -13927,50 +13926,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="70">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="70">
         <f t="shared" si="1"/>
         <v>-154.31535329954593</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="70">
         <f t="shared" si="2"/>
         <v>132.60254037844382</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="70">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>5</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <v>2</v>
       </c>
       <c r="K7" s="10">
@@ -13985,46 +13984,46 @@
       <c r="N7" s="3">
         <v>90</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="70">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="70">
         <f t="shared" si="1"/>
         <v>-163.55295760657998</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="70">
         <f t="shared" si="2"/>
         <v>148.60254037844379</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <f t="shared" si="3"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="69">
         <v>5</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>2</v>
       </c>
       <c r="K8" s="10">
@@ -14036,48 +14035,48 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="70">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="70">
         <f t="shared" si="1"/>
         <v>-154.31535329954596</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="70">
         <f t="shared" si="2"/>
         <v>164.60254037844379</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <v>5</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <v>2</v>
       </c>
       <c r="K9" s="10">
@@ -14092,43 +14091,43 @@
       <c r="N9" s="3">
         <v>-52</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="70">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="70">
         <f t="shared" si="1"/>
         <v>-135.84014468547795</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="70">
         <f t="shared" si="2"/>
         <v>164.60254037844379</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <f t="shared" si="3"/>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <v>5</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>2</v>
       </c>
       <c r="K10" s="10">
@@ -14143,42 +14142,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="70">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <f t="shared" si="1"/>
         <v>-126.6025403784439</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="70">
         <f t="shared" si="2"/>
         <v>116.60254037844382</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="70">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>5</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <v>2</v>
       </c>
       <c r="K11" s="10">
@@ -14190,46 +14189,46 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="70">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <f t="shared" si="1"/>
         <v>-135.84014468547792</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <f t="shared" si="2"/>
         <v>132.60254037844379</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <f t="shared" si="3"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>5</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>2</v>
       </c>
       <c r="K12" s="10">
@@ -14242,42 +14241,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <f t="shared" si="1"/>
         <v>-126.60254037844392</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <f t="shared" si="2"/>
         <v>148.60254037844379</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>5</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>2</v>
       </c>
       <c r="K13" s="10">
@@ -14290,23 +14289,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="25"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="10">
@@ -14319,23 +14318,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>2</v>
       </c>
       <c r="K15" s="10">
@@ -14348,23 +14347,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <v>2</v>
       </c>
       <c r="K16" s="10">
@@ -14377,23 +14376,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>2</v>
       </c>
       <c r="K17" s="10">
@@ -14406,23 +14405,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>2</v>
       </c>
       <c r="K18" s="10">
@@ -14432,26 +14431,26 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <v>2</v>
       </c>
       <c r="K19" s="10">
@@ -14464,23 +14463,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>2</v>
       </c>
       <c r="K20" s="10">
@@ -14493,23 +14492,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <v>2</v>
       </c>
       <c r="K21" s="10">
@@ -14522,23 +14521,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>2</v>
       </c>
       <c r="K22" s="10">
@@ -14551,23 +14550,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="25"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -14580,23 +14579,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="43">
+      <c r="J24" s="42">
         <v>2</v>
       </c>
       <c r="K24" s="10">
@@ -14609,39 +14608,39 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="43">
+      <c r="J25" s="42">
         <v>2</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -14661,7 +14660,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M3" sqref="M3:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14688,62 +14687,62 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="59" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>4</v>
       </c>
       <c r="K3" s="12">
@@ -14752,40 +14751,40 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>100</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="55">
         <v>1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <v>4</v>
       </c>
       <c r="K4" s="10">
@@ -14800,31 +14799,31 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="45">
         <v>116</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="46">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <v>4</v>
       </c>
       <c r="K5" s="10">
@@ -14839,30 +14838,30 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="45">
         <v>132</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="46">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <v>4</v>
       </c>
       <c r="K6" s="10">
@@ -14874,31 +14873,31 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>148</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <v>4</v>
       </c>
       <c r="K7" s="10">
@@ -14913,27 +14912,27 @@
       <c r="N7" s="3">
         <v>-186</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="45">
         <v>148</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>4</v>
       </c>
       <c r="K8" s="10">
@@ -14945,29 +14944,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="45">
         <v>164</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="46">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <v>4</v>
       </c>
       <c r="K9" s="10">
@@ -14982,24 +14981,24 @@
       <c r="N9" s="3">
         <v>-110</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="45">
         <v>164</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="46">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>4</v>
       </c>
       <c r="K10" s="10">
@@ -15014,23 +15013,23 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>148</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <v>4</v>
       </c>
       <c r="K11" s="10">
@@ -15042,46 +15041,46 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="59">
         <f>16*3</f>
         <v>48</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>116</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="70">
         <f t="shared" ref="B12:B14" si="0">((ROUND($L12/10,0))-1)*4+MOD($L12,10)+((J12-1)*16)</f>
         <v>61</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="70">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-54</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
         <v>-59.999859694228427</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>5</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <f t="shared" ref="G12:G14" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>4</v>
       </c>
       <c r="K12" s="10">
@@ -15094,42 +15093,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>132</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="70">
         <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-54</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>5</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>4</v>
       </c>
       <c r="K13" s="10">
@@ -15142,42 +15141,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>132</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="70">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-70</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
         <v>54.66323014923799</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>5</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <v>4</v>
       </c>
       <c r="K14" s="10">
@@ -15190,23 +15189,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>116</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>4</v>
       </c>
       <c r="K15" s="10">
@@ -15219,23 +15218,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>116</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <v>4</v>
       </c>
       <c r="K16" s="10">
@@ -15248,23 +15247,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>132</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>4</v>
       </c>
       <c r="K17" s="10">
@@ -15277,23 +15276,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <v>100</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="46">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>4</v>
       </c>
       <c r="K18" s="10">
@@ -15303,45 +15302,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <v>84</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="70">
         <f t="shared" ref="B19:B23" si="2">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>58</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="70">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-86</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <v>5</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <f t="shared" ref="G19:G23" si="3">IF($R$3*$R$4=-1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <v>4</v>
       </c>
       <c r="K19" s="10">
@@ -15354,42 +15353,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <v>100</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="70">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="70">
         <f>((+O20*COS($N$3)-P20*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-102</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="70">
         <f>((O20*SIN($N$3)+P20*COS($N$3)+$N$9)*$R$4)</f>
         <v>54.66323014923799</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M20/3.1416*180)+$N$5)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <v>5</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>4</v>
       </c>
       <c r="K20" s="10">
@@ -15402,42 +15401,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>84</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="46">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="71">
+      <c r="B21" s="70">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="70">
         <f>((+O21*COS($N$3)-P21*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-118</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="70">
         <f>((O21*SIN($N$3)+P21*COS($N$3)+$N$9)*$R$4)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M21/3.1416*180)+$N$5)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="69">
         <v>5</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <v>4</v>
       </c>
       <c r="K21" s="10">
@@ -15450,42 +15449,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="46">
+      <c r="O21" s="45">
         <v>68</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="46">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="70">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="70">
         <f>((+O22*COS($N$3)-P22*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-118</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="70">
         <f>((O22*SIN($N$3)+P22*COS($N$3)+$N$9)*$R$4)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M22/3.1416*180)+$N$5)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="69">
         <v>5</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>4</v>
       </c>
       <c r="K22" s="10">
@@ -15498,42 +15497,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="46">
+      <c r="O22" s="45">
         <v>68</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="70">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-86</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <v>5</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="43">
+      <c r="J23" s="42">
         <v>4</v>
       </c>
       <c r="K23" s="10">
@@ -15546,23 +15545,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="46">
+      <c r="O23" s="45">
         <v>100</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="46">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="43">
+      <c r="J24" s="42">
         <v>4</v>
       </c>
       <c r="K24" s="10">
@@ -15575,39 +15574,39 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="46">
+      <c r="O24" s="45">
         <v>84</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="46">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="43">
+      <c r="J25" s="42">
         <v>4</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>16</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="49">
         <v>43</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53">
+      <c r="N25" s="51"/>
+      <c r="O25" s="52">
         <v>84</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="53">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -15626,2809 +15625,2809 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G94"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="77"/>
-    <col min="5" max="5" width="11.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="76"/>
+    <col min="5" max="5" width="11.28515625" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="str">
+      <c r="A3" s="63" t="str">
         <f>IF(lower!A3=0, "", lower!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="66" t="str">
         <f>IF(lower!B3="", "", lower!B3)</f>
         <v/>
       </c>
-      <c r="C3" s="79" t="str">
+      <c r="C3" s="78" t="str">
         <f>IF(lower!C3="", "", lower!C3)</f>
         <v/>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="78" t="str">
         <f>IF(lower!D3="", "", lower!D3)</f>
         <v/>
       </c>
-      <c r="E3" s="79" t="str">
+      <c r="E3" s="78" t="str">
         <f>IF(lower!E3="", "", lower!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="64" t="str">
+      <c r="F3" s="63" t="str">
         <f>IF(lower!F3=0, "", lower!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="64" t="str">
+      <c r="G3" s="63" t="str">
         <f>IF(lower!$A3="", "", lower!G3)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="str">
+      <c r="A4" s="73" t="str">
         <f>IF(lower!A4=0, "", lower!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="75">
         <f>IF(lower!B4="", "", lower!B4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <f>IF(lower!C4="", "", lower!C4)</f>
         <v>-67.077748992511886</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <f>IF(lower!D4="", "", lower!D4)</f>
         <v>115.60254037844388</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="78">
         <f>IF(lower!E4="", "", lower!E4)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="73">
         <f>IF(lower!F4=0, "", lower!F4)</f>
         <v>5</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="73">
         <f>IF(lower!$A4="", "", lower!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="str">
+      <c r="A5" s="73" t="str">
         <f>IF(lower!A5=0, "", lower!A5)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="75">
         <f>IF(lower!B5="", "", lower!B5)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="78">
         <f>IF(lower!C5="", "", lower!C5)</f>
         <v>-76.315353299545905</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="78">
         <f>IF(lower!D5="", "", lower!D5)</f>
         <v>99.602540378443891</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="78">
         <f>IF(lower!E5="", "", lower!E5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="73">
         <f>IF(lower!F5=0, "", lower!F5)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="73">
         <f>IF(lower!$A5="", "", lower!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="str">
+      <c r="A6" s="73" t="str">
         <f>IF(lower!A6=0, "", lower!A6)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="75">
         <f>IF(lower!B6="", "", lower!B6)</f>
         <v>3</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="78">
         <f>IF(lower!C6="", "", lower!C6)</f>
         <v>-94.790561913613942</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <f>IF(lower!D6="", "", lower!D6)</f>
         <v>99.602540378443877</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="78">
         <f>IF(lower!E6="", "", lower!E6)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <f>IF(lower!F6=0, "", lower!F6)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="73">
         <f>IF(lower!$A6="", "", lower!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="str">
+      <c r="A7" s="73" t="str">
         <f>IF(lower!A7=0, "", lower!A7)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="75">
         <f>IF(lower!B7="", "", lower!B7)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="78">
         <f>IF(lower!C7="", "", lower!C7)</f>
         <v>-104.02816622064793</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <f>IF(lower!D7="", "", lower!D7)</f>
         <v>115.60254037844385</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="78">
         <f>IF(lower!E7="", "", lower!E7)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="73">
         <f>IF(lower!F7=0, "", lower!F7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <f>IF(lower!$A7="", "", lower!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="str">
+      <c r="A8" s="73" t="str">
         <f>IF(lower!A8=0, "", lower!A8)</f>
         <v/>
       </c>
-      <c r="B8" s="76" t="str">
+      <c r="B8" s="75" t="str">
         <f>IF(lower!B8="", "", lower!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="79" t="str">
+      <c r="C8" s="78" t="str">
         <f>IF(lower!C8="", "", lower!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="79" t="str">
+      <c r="D8" s="78" t="str">
         <f>IF(lower!D8="", "", lower!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="79" t="str">
+      <c r="E8" s="78" t="str">
         <f>IF(lower!E8="", "", lower!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="74" t="str">
+      <c r="F8" s="73" t="str">
         <f>IF(lower!F8=0, "", lower!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="74" t="str">
+      <c r="G8" s="73" t="str">
         <f>IF(lower!$A8="", "", lower!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="73" t="str">
         <f>IF(lower!A9=0, "", lower!A9)</f>
         <v/>
       </c>
-      <c r="B9" s="76" t="str">
+      <c r="B9" s="75" t="str">
         <f>IF(lower!B9="", "", lower!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="79" t="str">
+      <c r="C9" s="78" t="str">
         <f>IF(lower!C9="", "", lower!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="79" t="str">
+      <c r="D9" s="78" t="str">
         <f>IF(lower!D9="", "", lower!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="79" t="str">
+      <c r="E9" s="78" t="str">
         <f>IF(lower!E9="", "", lower!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="74" t="str">
+      <c r="F9" s="73" t="str">
         <f>IF(lower!F9=0, "", lower!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="74" t="str">
+      <c r="G9" s="73" t="str">
         <f>IF(lower!$A9="", "", lower!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="str">
+      <c r="A10" s="73" t="str">
         <f>IF(lower!A10=0, "", lower!A10)</f>
         <v/>
       </c>
-      <c r="B10" s="76" t="str">
+      <c r="B10" s="75" t="str">
         <f>IF(lower!B10="", "", lower!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="79" t="str">
+      <c r="C10" s="78" t="str">
         <f>IF(lower!C10="", "", lower!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="79" t="str">
+      <c r="D10" s="78" t="str">
         <f>IF(lower!D10="", "", lower!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="79" t="str">
+      <c r="E10" s="78" t="str">
         <f>IF(lower!E10="", "", lower!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="74" t="str">
+      <c r="F10" s="73" t="str">
         <f>IF(lower!F10=0, "", lower!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="74" t="str">
+      <c r="G10" s="73" t="str">
         <f>IF(lower!$A10="", "", lower!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="73" t="str">
         <f>IF(lower!A11=0, "", lower!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <f>IF(lower!B11="", "", lower!B11)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="78">
         <f>IF(lower!C11="", "", lower!C11)</f>
         <v>-76.315353299545876</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="78">
         <f>IF(lower!D11="", "", lower!D11)</f>
         <v>131.60254037844385</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="78">
         <f>IF(lower!E11="", "", lower!E11)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="73">
         <f>IF(lower!F11=0, "", lower!F11)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="73">
         <f>IF(lower!$A11="", "", lower!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="str">
+      <c r="A12" s="73" t="str">
         <f>IF(lower!A12=0, "", lower!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <f>IF(lower!B12="", "", lower!B12)</f>
         <v>13</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="78">
         <f>IF(lower!C12="", "", lower!C12)</f>
         <v>-94.790561913613885</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="78">
         <f>IF(lower!D12="", "", lower!D12)</f>
         <v>131.60254037844385</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="78">
         <f>IF(lower!E12="", "", lower!E12)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="73">
         <f>IF(lower!F12=0, "", lower!F12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="73">
         <f>IF(lower!$A12="", "", lower!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="73" t="str">
         <f>IF(lower!A13=0, "", lower!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <f>IF(lower!B13="", "", lower!B13)</f>
         <v>8</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="78">
         <f>IF(lower!C13="", "", lower!C13)</f>
         <v>-104.0281662206479</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <f>IF(lower!D13="", "", lower!D13)</f>
         <v>147.60254037844385</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="78">
         <f>IF(lower!E13="", "", lower!E13)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="73">
         <f>IF(lower!F13=0, "", lower!F13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="73">
         <f>IF(lower!$A13="", "", lower!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="str">
+      <c r="A14" s="73" t="str">
         <f>IF(lower!A14=0, "", lower!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <f>IF(lower!B14="", "", lower!B14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="78">
         <f>IF(lower!C14="", "", lower!C14)</f>
         <v>-94.790561913613885</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="78">
         <f>IF(lower!D14="", "", lower!D14)</f>
         <v>163.60254037844379</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="78">
         <f>IF(lower!E14="", "", lower!E14)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="73">
         <f>IF(lower!F14=0, "", lower!F14)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="73">
         <f>IF(lower!$A14="", "", lower!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="str">
+      <c r="A15" s="73" t="str">
         <f>IF(lower!A15=0, "", lower!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="76" t="str">
+      <c r="B15" s="75" t="str">
         <f>IF(lower!B15="", "", lower!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="78" t="str">
         <f>IF(lower!C15="", "", lower!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="79" t="str">
+      <c r="D15" s="78" t="str">
         <f>IF(lower!D15="", "", lower!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="79" t="str">
+      <c r="E15" s="78" t="str">
         <f>IF(lower!E15="", "", lower!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="74" t="str">
+      <c r="F15" s="73" t="str">
         <f>IF(lower!F15=0, "", lower!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="74" t="str">
+      <c r="G15" s="73" t="str">
         <f>IF(lower!$A15="", "", lower!G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="str">
+      <c r="A16" s="73" t="str">
         <f>IF(lower!A16=0, "", lower!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="76" t="str">
+      <c r="B16" s="75" t="str">
         <f>IF(lower!B16="", "", lower!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="79" t="str">
+      <c r="C16" s="78" t="str">
         <f>IF(lower!C16="", "", lower!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="79" t="str">
+      <c r="D16" s="78" t="str">
         <f>IF(lower!D16="", "", lower!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="79" t="str">
+      <c r="E16" s="78" t="str">
         <f>IF(lower!E16="", "", lower!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="74" t="str">
+      <c r="F16" s="73" t="str">
         <f>IF(lower!F16=0, "", lower!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="74" t="str">
+      <c r="G16" s="73" t="str">
         <f>IF(lower!$A16="", "", lower!G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="str">
+      <c r="A17" s="73" t="str">
         <f>IF(lower!A17=0, "", lower!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="76" t="str">
+      <c r="B17" s="75" t="str">
         <f>IF(lower!B17="", "", lower!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="79" t="str">
+      <c r="C17" s="78" t="str">
         <f>IF(lower!C17="", "", lower!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="79" t="str">
+      <c r="D17" s="78" t="str">
         <f>IF(lower!D17="", "", lower!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="79" t="str">
+      <c r="E17" s="78" t="str">
         <f>IF(lower!E17="", "", lower!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="74" t="str">
+      <c r="F17" s="73" t="str">
         <f>IF(lower!F17=0, "", lower!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="74" t="str">
+      <c r="G17" s="73" t="str">
         <f>IF(lower!$A17="", "", lower!G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="str">
+      <c r="A18" s="73" t="str">
         <f>IF(lower!A18=0, "", lower!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="76" t="str">
+      <c r="B18" s="75" t="str">
         <f>IF(lower!B18="", "", lower!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="79" t="str">
+      <c r="C18" s="78" t="str">
         <f>IF(lower!C18="", "", lower!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="79" t="str">
+      <c r="D18" s="78" t="str">
         <f>IF(lower!D18="", "", lower!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="79" t="str">
+      <c r="E18" s="78" t="str">
         <f>IF(lower!E18="", "", lower!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="74" t="str">
+      <c r="F18" s="73" t="str">
         <f>IF(lower!F18=0, "", lower!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="74" t="str">
+      <c r="G18" s="73" t="str">
         <f>IF(lower!$A18="", "", lower!G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="str">
+      <c r="A19" s="73" t="str">
         <f>IF(lower!A19=0, "", lower!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <f>IF(lower!B19="", "", lower!B19)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="78">
         <f>IF(lower!C19="", "", lower!C19)</f>
         <v>-76.315353299545848</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="78">
         <f>IF(lower!D19="", "", lower!D19)</f>
         <v>163.60254037844382</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="78">
         <f>IF(lower!E19="", "", lower!E19)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="73">
         <f>IF(lower!F19=0, "", lower!F19)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="73">
         <f>IF(lower!$A19="", "", lower!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="str">
+      <c r="A20" s="73" t="str">
         <f>IF(lower!A20=0, "", lower!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="76" t="str">
+      <c r="B20" s="75" t="str">
         <f>IF(lower!B20="", "", lower!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="79" t="str">
+      <c r="C20" s="78" t="str">
         <f>IF(lower!C20="", "", lower!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="79" t="str">
+      <c r="D20" s="78" t="str">
         <f>IF(lower!D20="", "", lower!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="79" t="str">
+      <c r="E20" s="78" t="str">
         <f>IF(lower!E20="", "", lower!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="74" t="str">
+      <c r="F20" s="73" t="str">
         <f>IF(lower!F20=0, "", lower!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="74" t="str">
+      <c r="G20" s="73" t="str">
         <f>IF(lower!$A20="", "", lower!G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="str">
+      <c r="A21" s="73" t="str">
         <f>IF(lower!A21=0, "", lower!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="76" t="str">
+      <c r="B21" s="75" t="str">
         <f>IF(lower!B21="", "", lower!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="79" t="str">
+      <c r="C21" s="78" t="str">
         <f>IF(lower!C21="", "", lower!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="79" t="str">
+      <c r="D21" s="78" t="str">
         <f>IF(lower!D21="", "", lower!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="79" t="str">
+      <c r="E21" s="78" t="str">
         <f>IF(lower!E21="", "", lower!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="74" t="str">
+      <c r="F21" s="73" t="str">
         <f>IF(lower!F21=0, "", lower!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="74" t="str">
+      <c r="G21" s="73" t="str">
         <f>IF(lower!$A21="", "", lower!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="str">
+      <c r="A22" s="73" t="str">
         <f>IF(lower!A22=0, "", lower!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="76" t="str">
+      <c r="B22" s="75" t="str">
         <f>IF(lower!B22="", "", lower!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="79" t="str">
+      <c r="C22" s="78" t="str">
         <f>IF(lower!C22="", "", lower!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="79" t="str">
+      <c r="D22" s="78" t="str">
         <f>IF(lower!D22="", "", lower!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="79" t="str">
+      <c r="E22" s="78" t="str">
         <f>IF(lower!E22="", "", lower!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="74" t="str">
+      <c r="F22" s="73" t="str">
         <f>IF(lower!F22=0, "", lower!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="74" t="str">
+      <c r="G22" s="73" t="str">
         <f>IF(lower!$A22="", "", lower!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="str">
+      <c r="A23" s="73" t="str">
         <f>IF(lower!A23=0, "", lower!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <f>IF(lower!B23="", "", lower!B23)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="78">
         <f>IF(lower!C23="", "", lower!C23)</f>
         <v>-67.077748992511857</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="78">
         <f>IF(lower!D23="", "", lower!D23)</f>
         <v>147.60254037844382</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="78">
         <f>IF(lower!E23="", "", lower!E23)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="73">
         <f>IF(lower!F23=0, "", lower!F23)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="73">
         <f>IF(lower!$A23="", "", lower!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="str">
+      <c r="A24" s="73" t="str">
         <f>IF(lower!A24=0, "", lower!A24)</f>
         <v/>
       </c>
-      <c r="B24" s="76" t="str">
+      <c r="B24" s="75" t="str">
         <f>IF(lower!B24="", "", lower!B24)</f>
         <v/>
       </c>
-      <c r="C24" s="79" t="str">
+      <c r="C24" s="78" t="str">
         <f>IF(lower!C24="", "", lower!C24)</f>
         <v/>
       </c>
-      <c r="D24" s="79" t="str">
+      <c r="D24" s="78" t="str">
         <f>IF(lower!D24="", "", lower!D24)</f>
         <v/>
       </c>
-      <c r="E24" s="79" t="str">
+      <c r="E24" s="78" t="str">
         <f>IF(lower!E24="", "", lower!E24)</f>
         <v/>
       </c>
-      <c r="F24" s="74" t="str">
+      <c r="F24" s="73" t="str">
         <f>IF(lower!F24=0, "", lower!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="74" t="str">
+      <c r="G24" s="73" t="str">
         <f>IF(lower!$A24="", "", lower!G24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="str">
+      <c r="A25" s="73" t="str">
         <f>IF(lower!A25=0, "", lower!A25)</f>
         <v/>
       </c>
-      <c r="B25" s="76" t="str">
+      <c r="B25" s="75" t="str">
         <f>IF(lower!B25="", "", lower!B25)</f>
         <v/>
       </c>
-      <c r="C25" s="79" t="str">
+      <c r="C25" s="78" t="str">
         <f>IF(lower!C25="", "", lower!C25)</f>
         <v/>
       </c>
-      <c r="D25" s="79" t="str">
+      <c r="D25" s="78" t="str">
         <f>IF(lower!D25="", "", lower!D25)</f>
         <v/>
       </c>
-      <c r="E25" s="79" t="str">
+      <c r="E25" s="78" t="str">
         <f>IF(lower!E25="", "", lower!E25)</f>
         <v/>
       </c>
-      <c r="F25" s="74" t="str">
+      <c r="F25" s="73" t="str">
         <f>IF(lower!F25=0, "", lower!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="74" t="str">
+      <c r="G25" s="73" t="str">
         <f>IF(lower!$A25="", "", lower!G25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="str">
+      <c r="A26" s="62" t="str">
         <f>IF(external!A3="", "", external!A3)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="62">
         <f>IF(external!B3="", "", external!B3)</f>
         <v>32</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="67">
         <f>IF(external!C3="", "", external!C3)</f>
         <v>-16.397459621556152</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <f>IF(external!D3="", "", external!D3)</f>
         <v>163.39745962155612</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <f>IF(external!E3="", "", external!E3)</f>
-        <v>-210</v>
-      </c>
-      <c r="F26" s="63">
+        <v>-90.000280611543147</v>
+      </c>
+      <c r="F26" s="62">
         <f>IF(external!F3="", "", external!F3)</f>
         <v>5</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="62">
         <f>IF(external!A3="", "", external!G3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="str">
+      <c r="A27" s="62" t="str">
         <f>IF(external!A4="", "", external!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <f>IF(external!B4="", "", external!B4)</f>
         <v>33</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="67">
         <f>IF(external!C4="", "", external!C4)</f>
         <v>-7.1598553145221402</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <f>IF(external!D4="", "", external!D4)</f>
         <v>147.39745962155615</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <f>IF(external!E4="", "", external!E4)</f>
         <v>-150.00014030577157</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="62">
         <f>IF(external!F4="", "", external!F4)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="62">
         <f>IF(external!A4="", "", external!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="str">
+      <c r="A28" s="62" t="str">
         <f>IF(external!A5="", "", external!A5)</f>
         <v/>
       </c>
-      <c r="B28" s="63" t="str">
+      <c r="B28" s="62" t="str">
         <f>IF(external!B5="", "", external!B5)</f>
         <v/>
       </c>
-      <c r="C28" s="68" t="str">
+      <c r="C28" s="67" t="str">
         <f>IF(external!C5="", "", external!C5)</f>
         <v/>
       </c>
-      <c r="D28" s="68" t="str">
+      <c r="D28" s="67" t="str">
         <f>IF(external!D5="", "", external!D5)</f>
         <v/>
       </c>
-      <c r="E28" s="68" t="str">
+      <c r="E28" s="67" t="str">
         <f>IF(external!E5="", "", external!E5)</f>
         <v/>
       </c>
-      <c r="F28" s="63" t="str">
+      <c r="F28" s="62" t="str">
         <f>IF(external!F5="", "", external!F5)</f>
         <v/>
       </c>
-      <c r="G28" s="63" t="str">
+      <c r="G28" s="62" t="str">
         <f>IF(external!A5="", "", external!G5)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="str">
+      <c r="A29" s="62" t="str">
         <f>IF(external!A6="", "", external!A6)</f>
         <v/>
       </c>
-      <c r="B29" s="63" t="str">
+      <c r="B29" s="62" t="str">
         <f>IF(external!B6="", "", external!B6)</f>
         <v/>
       </c>
-      <c r="C29" s="68" t="str">
+      <c r="C29" s="67" t="str">
         <f>IF(external!C6="", "", external!C6)</f>
         <v/>
       </c>
-      <c r="D29" s="68" t="str">
+      <c r="D29" s="67" t="str">
         <f>IF(external!D6="", "", external!D6)</f>
         <v/>
       </c>
-      <c r="E29" s="68" t="str">
+      <c r="E29" s="67" t="str">
         <f>IF(external!E6="", "", external!E6)</f>
         <v/>
       </c>
-      <c r="F29" s="63" t="str">
+      <c r="F29" s="62" t="str">
         <f>IF(external!F6="", "", external!F6)</f>
         <v/>
       </c>
-      <c r="G29" s="63" t="str">
+      <c r="G29" s="62" t="str">
         <f>IF(external!A6="", "", external!G6)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="str">
+      <c r="A30" s="62" t="str">
         <f>IF(external!A7="", "", external!A7)</f>
         <v/>
       </c>
-      <c r="B30" s="63" t="str">
+      <c r="B30" s="62" t="str">
         <f>IF(external!B7="", "", external!B7)</f>
         <v/>
       </c>
-      <c r="C30" s="68" t="str">
+      <c r="C30" s="67" t="str">
         <f>IF(external!C7="", "", external!C7)</f>
         <v/>
       </c>
-      <c r="D30" s="68" t="str">
+      <c r="D30" s="67" t="str">
         <f>IF(external!D7="", "", external!D7)</f>
         <v/>
       </c>
-      <c r="E30" s="68" t="str">
+      <c r="E30" s="67" t="str">
         <f>IF(external!E7="", "", external!E7)</f>
         <v/>
       </c>
-      <c r="F30" s="63" t="str">
+      <c r="F30" s="62" t="str">
         <f>IF(external!F7="", "", external!F7)</f>
         <v/>
       </c>
-      <c r="G30" s="63" t="str">
+      <c r="G30" s="62" t="str">
         <f>IF(external!A7="", "", external!G7)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="str">
+      <c r="A31" s="62" t="str">
         <f>IF(external!A8="", "", external!A8)</f>
         <v/>
       </c>
-      <c r="B31" s="63" t="str">
+      <c r="B31" s="62" t="str">
         <f>IF(external!B8="", "", external!B8)</f>
         <v/>
       </c>
-      <c r="C31" s="68" t="str">
+      <c r="C31" s="67" t="str">
         <f>IF(external!C8="", "", external!C8)</f>
         <v/>
       </c>
-      <c r="D31" s="68" t="str">
+      <c r="D31" s="67" t="str">
         <f>IF(external!D8="", "", external!D8)</f>
         <v/>
       </c>
-      <c r="E31" s="68" t="str">
+      <c r="E31" s="67" t="str">
         <f>IF(external!E8="", "", external!E8)</f>
         <v/>
       </c>
-      <c r="F31" s="63" t="str">
+      <c r="F31" s="62" t="str">
         <f>IF(external!F8="", "", external!F8)</f>
         <v/>
       </c>
-      <c r="G31" s="63" t="str">
+      <c r="G31" s="62" t="str">
         <f>IF(external!A8="", "", external!G8)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="str">
+      <c r="A32" s="62" t="str">
         <f>IF(external!A9="", "", external!A9)</f>
         <v/>
       </c>
-      <c r="B32" s="63" t="str">
+      <c r="B32" s="62" t="str">
         <f>IF(external!B9="", "", external!B9)</f>
         <v/>
       </c>
-      <c r="C32" s="68" t="str">
+      <c r="C32" s="67" t="str">
         <f>IF(external!C9="", "", external!C9)</f>
         <v/>
       </c>
-      <c r="D32" s="68" t="str">
+      <c r="D32" s="67" t="str">
         <f>IF(external!D9="", "", external!D9)</f>
         <v/>
       </c>
-      <c r="E32" s="68" t="str">
+      <c r="E32" s="67" t="str">
         <f>IF(external!E9="", "", external!E9)</f>
         <v/>
       </c>
-      <c r="F32" s="63" t="str">
+      <c r="F32" s="62" t="str">
         <f>IF(external!F9="", "", external!F9)</f>
         <v/>
       </c>
-      <c r="G32" s="63" t="str">
+      <c r="G32" s="62" t="str">
         <f>IF(external!A9="", "", external!G9)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="str">
+      <c r="A33" s="62" t="str">
         <f>IF(external!A10="", "", external!A10)</f>
         <v/>
       </c>
-      <c r="B33" s="63" t="str">
+      <c r="B33" s="62" t="str">
         <f>IF(external!B10="", "", external!B10)</f>
         <v/>
       </c>
-      <c r="C33" s="68" t="str">
+      <c r="C33" s="67" t="str">
         <f>IF(external!C10="", "", external!C10)</f>
         <v/>
       </c>
-      <c r="D33" s="68" t="str">
+      <c r="D33" s="67" t="str">
         <f>IF(external!D10="", "", external!D10)</f>
         <v/>
       </c>
-      <c r="E33" s="68" t="str">
+      <c r="E33" s="67" t="str">
         <f>IF(external!E10="", "", external!E10)</f>
         <v/>
       </c>
-      <c r="F33" s="63" t="str">
+      <c r="F33" s="62" t="str">
         <f>IF(external!F10="", "", external!F10)</f>
         <v/>
       </c>
-      <c r="G33" s="63" t="str">
+      <c r="G33" s="62" t="str">
         <f>IF(external!A10="", "", external!G10)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="str">
+      <c r="A34" s="62" t="str">
         <f>IF(external!A11="", "", external!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="62">
         <f>IF(external!B11="", "", external!B11)</f>
         <v>44</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="67">
         <f>IF(external!C11="", "", external!C11)</f>
         <v>-16.397459621556138</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="67">
         <f>IF(external!D11="", "", external!D11)</f>
         <v>131.39745962155615</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="67">
         <f>IF(external!E11="", "", external!E11)</f>
         <v>-210</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="62">
         <f>IF(external!F11="", "", external!F11)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="62">
         <f>IF(external!A11="", "", external!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="str">
+      <c r="A35" s="62" t="str">
         <f>IF(external!A12="", "", external!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="62">
         <f>IF(external!B12="", "", external!B12)</f>
         <v>45</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="67">
         <f>IF(external!C12="", "", external!C12)</f>
         <v>-7.1598553145221189</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="67">
         <f>IF(external!D12="", "", external!D12)</f>
         <v>115.39745962155618</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="67">
         <f>IF(external!E12="", "", external!E12)</f>
         <v>-150.00014030577157</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="62">
         <f>IF(external!F12="", "", external!F12)</f>
         <v>5</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="62">
         <f>IF(external!A12="", "", external!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="str">
+      <c r="A36" s="62" t="str">
         <f>IF(external!A13="", "", external!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="62">
         <f>IF(external!B13="", "", external!B13)</f>
         <v>40</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="67">
         <f>IF(external!C13="", "", external!C13)</f>
         <v>-16.397459621556123</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="67">
         <f>IF(external!D13="", "", external!D13)</f>
         <v>99.397459621556209</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="67">
         <f>IF(external!E13="", "", external!E13)</f>
         <v>-210</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="62">
         <f>IF(external!F13="", "", external!F13)</f>
         <v>5</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="62">
         <f>IF(external!A13="", "", external!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="str">
+      <c r="A37" s="62" t="str">
         <f>IF(external!A14="", "", external!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="62">
         <f>IF(external!B14="", "", external!B14)</f>
         <v>41</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="67">
         <f>IF(external!C14="", "", external!C14)</f>
         <v>-34.872668235624133</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="67">
         <f>IF(external!D14="", "", external!D14)</f>
         <v>99.397459621556209</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="67">
         <f>IF(external!E14="", "", external!E14)</f>
         <v>-269.99985969422841</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="62">
         <f>IF(external!F14="", "", external!F14)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="62">
         <f>IF(external!A14="", "", external!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="str">
+      <c r="A38" s="62" t="str">
         <f>IF(external!A15="", "", external!A15)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="62">
         <f>IF(external!B15="", "", external!B15)</f>
         <v>38</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="67">
         <f>IF(external!C15="", "", external!C15)</f>
         <v>-44.110272542658137</v>
       </c>
-      <c r="D38" s="68">
+      <c r="D38" s="67">
         <f>IF(external!D15="", "", external!D15)</f>
         <v>83.397459621556209</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="67">
         <f>IF(external!E15="", "", external!E15)</f>
         <v>-210</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="62">
         <f>IF(external!F15="", "", external!F15)</f>
         <v>5</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="62">
         <f>IF(external!A15="", "", external!G15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="str">
+      <c r="A39" s="62" t="str">
         <f>IF(external!A16="", "", external!A16)</f>
         <v/>
       </c>
-      <c r="B39" s="63" t="str">
+      <c r="B39" s="62" t="str">
         <f>IF(external!B16="", "", external!B16)</f>
         <v/>
       </c>
-      <c r="C39" s="68" t="str">
+      <c r="C39" s="67" t="str">
         <f>IF(external!C16="", "", external!C16)</f>
         <v/>
       </c>
-      <c r="D39" s="68" t="str">
+      <c r="D39" s="67" t="str">
         <f>IF(external!D16="", "", external!D16)</f>
         <v/>
       </c>
-      <c r="E39" s="68" t="str">
+      <c r="E39" s="67" t="str">
         <f>IF(external!E16="", "", external!E16)</f>
         <v/>
       </c>
-      <c r="F39" s="63" t="str">
+      <c r="F39" s="62" t="str">
         <f>IF(external!F16="", "", external!F16)</f>
         <v/>
       </c>
-      <c r="G39" s="63" t="str">
+      <c r="G39" s="62" t="str">
         <f>IF(external!A16="", "", external!G16)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="str">
+      <c r="A40" s="62" t="str">
         <f>IF(external!A17="", "", external!A17)</f>
         <v/>
       </c>
-      <c r="B40" s="63" t="str">
+      <c r="B40" s="62" t="str">
         <f>IF(external!B17="", "", external!B17)</f>
         <v/>
       </c>
-      <c r="C40" s="68" t="str">
+      <c r="C40" s="67" t="str">
         <f>IF(external!C17="", "", external!C17)</f>
         <v/>
       </c>
-      <c r="D40" s="68" t="str">
+      <c r="D40" s="67" t="str">
         <f>IF(external!D17="", "", external!D17)</f>
         <v/>
       </c>
-      <c r="E40" s="68" t="str">
+      <c r="E40" s="67" t="str">
         <f>IF(external!E17="", "", external!E17)</f>
         <v/>
       </c>
-      <c r="F40" s="63" t="str">
+      <c r="F40" s="62" t="str">
         <f>IF(external!F17="", "", external!F17)</f>
         <v/>
       </c>
-      <c r="G40" s="63" t="str">
+      <c r="G40" s="62" t="str">
         <f>IF(external!A17="", "", external!G17)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="str">
+      <c r="A41" s="62" t="str">
         <f>IF(external!A18="", "", external!A18)</f>
         <v/>
       </c>
-      <c r="B41" s="63" t="str">
+      <c r="B41" s="62" t="str">
         <f>IF(external!B18="", "", external!B18)</f>
         <v/>
       </c>
-      <c r="C41" s="68" t="str">
+      <c r="C41" s="67" t="str">
         <f>IF(external!C18="", "", external!C18)</f>
         <v/>
       </c>
-      <c r="D41" s="68" t="str">
+      <c r="D41" s="67" t="str">
         <f>IF(external!D18="", "", external!D18)</f>
         <v/>
       </c>
-      <c r="E41" s="68" t="str">
+      <c r="E41" s="67" t="str">
         <f>IF(external!E18="", "", external!E18)</f>
         <v/>
       </c>
-      <c r="F41" s="63" t="str">
+      <c r="F41" s="62" t="str">
         <f>IF(external!F18="", "", external!F18)</f>
         <v/>
       </c>
-      <c r="G41" s="63" t="str">
+      <c r="G41" s="62" t="str">
         <f>IF(external!A18="", "", external!G18)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="str">
+      <c r="A42" s="62" t="str">
         <f>IF(external!A19="", "", external!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <f>IF(external!B19="", "", external!B19)</f>
         <v>42</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="67">
         <f>IF(external!C19="", "", external!C19)</f>
         <v>-44.110272542658151</v>
       </c>
-      <c r="D42" s="68">
+      <c r="D42" s="67">
         <f>IF(external!D19="", "", external!D19)</f>
         <v>115.39745962155621</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="67">
         <f>IF(external!E19="", "", external!E19)</f>
         <v>-329.99971938845687</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="62">
         <f>IF(external!F19="", "", external!F19)</f>
         <v>5</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="62">
         <f>IF(external!A19="", "", external!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="str">
+      <c r="A43" s="62" t="str">
         <f>IF(external!A20="", "", external!A20)</f>
         <v/>
       </c>
-      <c r="B43" s="63" t="str">
+      <c r="B43" s="62" t="str">
         <f>IF(external!B20="", "", external!B20)</f>
         <v/>
       </c>
-      <c r="C43" s="68" t="str">
+      <c r="C43" s="67" t="str">
         <f>IF(external!C20="", "", external!C20)</f>
         <v/>
       </c>
-      <c r="D43" s="68" t="str">
+      <c r="D43" s="67" t="str">
         <f>IF(external!D20="", "", external!D20)</f>
         <v/>
       </c>
-      <c r="E43" s="68" t="str">
+      <c r="E43" s="67" t="str">
         <f>IF(external!E20="", "", external!E20)</f>
         <v/>
       </c>
-      <c r="F43" s="63" t="str">
+      <c r="F43" s="62" t="str">
         <f>IF(external!F20="", "", external!F20)</f>
         <v/>
       </c>
-      <c r="G43" s="63" t="str">
+      <c r="G43" s="62" t="str">
         <f>IF(external!A20="", "", external!G20)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="str">
+      <c r="A44" s="62" t="str">
         <f>IF(external!A21="", "", external!A21)</f>
         <v/>
       </c>
-      <c r="B44" s="63" t="str">
+      <c r="B44" s="62" t="str">
         <f>IF(external!B21="", "", external!B21)</f>
         <v/>
       </c>
-      <c r="C44" s="68" t="str">
+      <c r="C44" s="67" t="str">
         <f>IF(external!C21="", "", external!C21)</f>
         <v/>
       </c>
-      <c r="D44" s="68" t="str">
+      <c r="D44" s="67" t="str">
         <f>IF(external!D21="", "", external!D21)</f>
         <v/>
       </c>
-      <c r="E44" s="68" t="str">
+      <c r="E44" s="67" t="str">
         <f>IF(external!E21="", "", external!E21)</f>
         <v/>
       </c>
-      <c r="F44" s="63" t="str">
+      <c r="F44" s="62" t="str">
         <f>IF(external!F21="", "", external!F21)</f>
         <v/>
       </c>
-      <c r="G44" s="63" t="str">
+      <c r="G44" s="62" t="str">
         <f>IF(external!A21="", "", external!G21)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="str">
+      <c r="A45" s="62" t="str">
         <f>IF(external!A22="", "", external!A22)</f>
         <v/>
       </c>
-      <c r="B45" s="63" t="str">
+      <c r="B45" s="62" t="str">
         <f>IF(external!B22="", "", external!B22)</f>
         <v/>
       </c>
-      <c r="C45" s="68" t="str">
+      <c r="C45" s="67" t="str">
         <f>IF(external!C22="", "", external!C22)</f>
         <v/>
       </c>
-      <c r="D45" s="68" t="str">
+      <c r="D45" s="67" t="str">
         <f>IF(external!D22="", "", external!D22)</f>
         <v/>
       </c>
-      <c r="E45" s="68" t="str">
+      <c r="E45" s="67" t="str">
         <f>IF(external!E22="", "", external!E22)</f>
         <v/>
       </c>
-      <c r="F45" s="63" t="str">
+      <c r="F45" s="62" t="str">
         <f>IF(external!F22="", "", external!F22)</f>
         <v/>
       </c>
-      <c r="G45" s="63" t="str">
+      <c r="G45" s="62" t="str">
         <f>IF(external!A22="", "", external!G22)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="str">
+      <c r="A46" s="62" t="str">
         <f>IF(external!A23="", "", external!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B46" s="63">
+      <c r="B46" s="62">
         <f>IF(external!B23="", "", external!B23)</f>
         <v>43</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="67">
         <f>IF(external!C23="", "", external!C23)</f>
         <v>-34.872668235624147</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="67">
         <f>IF(external!D23="", "", external!D23)</f>
         <v>131.39745962155618</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="67">
         <f>IF(external!E23="", "", external!E23)</f>
         <v>-389.9995790826847</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="62">
         <f>IF(external!F23="", "", external!F23)</f>
         <v>5</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="62">
         <f>IF(external!A23="", "", external!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="str">
+      <c r="A47" s="62" t="str">
         <f>IF(external!A24="", "", external!A24)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="62">
         <f>IF(external!B24="", "", external!B24)</f>
         <v>46</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="67">
         <f>IF(external!C24="", "", external!C24)</f>
         <v>-44.110272542658166</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="67">
         <f>IF(external!D24="", "", external!D24)</f>
         <v>147.39745962155618</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="67">
         <f>IF(external!E24="", "", external!E24)</f>
         <v>-329.99971938845687</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="62">
         <f>IF(external!F24="", "", external!F24)</f>
         <v>5</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="62">
         <f>IF(external!A24="", "", external!G24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="str">
+      <c r="A48" s="62" t="str">
         <f>IF(external!A25="", "", external!A25)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B48" s="63">
+      <c r="B48" s="62">
         <f>IF(external!B25="", "", external!B25)</f>
         <v>47</v>
       </c>
-      <c r="C48" s="68">
+      <c r="C48" s="67">
         <f>IF(external!C25="", "", external!C25)</f>
         <v>-34.872668235624168</v>
       </c>
-      <c r="D48" s="68">
+      <c r="D48" s="67">
         <f>IF(external!D25="", "", external!D25)</f>
         <v>163.39745962155615</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="67">
         <f>IF(external!E25="", "", external!E25)</f>
         <v>-389.9995790826847</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="62">
         <f>IF(external!F25="", "", external!F25)</f>
         <v>5</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="62">
         <f>IF(external!A25="", "", external!G25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="62" t="str">
+      <c r="A49" s="61" t="str">
         <f>IF(internal!A3="", "", internal!A3)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B49" s="62">
+      <c r="B49" s="61">
         <f>IF(internal!B3="", "", internal!B3)</f>
         <v>16</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="68">
         <f>IF(internal!C3="", "", internal!C3)</f>
         <v>-126.60254037844388</v>
       </c>
-      <c r="D49" s="69">
+      <c r="D49" s="68">
         <f>IF(internal!D3="", "", internal!D3)</f>
         <v>84.602540378443877</v>
       </c>
-      <c r="E49" s="69">
+      <c r="E49" s="68">
         <f>IF(internal!E3="", "", internal!E3)</f>
-        <v>-30</v>
-      </c>
-      <c r="F49" s="62">
+        <v>89.999719388456853</v>
+      </c>
+      <c r="F49" s="61">
         <f>IF(internal!F3="", "", internal!F3)</f>
         <v>5</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="61">
         <f>IF(internal!A3="", "", internal!G3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="str">
+      <c r="A50" s="61" t="str">
         <f>IF(internal!A4="", "", internal!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B50" s="62">
+      <c r="B50" s="61">
         <f>IF(internal!B4="", "", internal!B4)</f>
         <v>17</v>
       </c>
-      <c r="C50" s="69">
+      <c r="C50" s="68">
         <f>IF(internal!C4="", "", internal!C4)</f>
         <v>-135.8401446854779</v>
       </c>
-      <c r="D50" s="69">
+      <c r="D50" s="68">
         <f>IF(internal!D4="", "", internal!D4)</f>
         <v>100.60254037844385</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="68">
         <f>IF(internal!E4="", "", internal!E4)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="61">
         <f>IF(internal!F4="", "", internal!F4)</f>
         <v>5</v>
       </c>
-      <c r="G50" s="62">
+      <c r="G50" s="61">
         <f>IF(internal!A4="", "", internal!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="str">
+      <c r="A51" s="61" t="str">
         <f>IF(internal!A5="", "", internal!A5)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B51" s="61">
         <f>IF(internal!B5="", "", internal!B5)</f>
         <v>18</v>
       </c>
-      <c r="C51" s="69">
+      <c r="C51" s="68">
         <f>IF(internal!C5="", "", internal!C5)</f>
         <v>-154.3153532995459</v>
       </c>
-      <c r="D51" s="69">
+      <c r="D51" s="68">
         <f>IF(internal!D5="", "", internal!D5)</f>
         <v>100.60254037844385</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="68">
         <f>IF(internal!E5="", "", internal!E5)</f>
         <v>89.999719388456853</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="61">
         <f>IF(internal!F5="", "", internal!F5)</f>
         <v>5</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="61">
         <f>IF(internal!A5="", "", internal!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="str">
+      <c r="A52" s="61" t="str">
         <f>IF(internal!A6="", "", internal!A6)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="61">
         <f>IF(internal!B6="", "", internal!B6)</f>
         <v>19</v>
       </c>
-      <c r="C52" s="69">
+      <c r="C52" s="68">
         <f>IF(internal!C6="", "", internal!C6)</f>
         <v>-163.55295760657992</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="68">
         <f>IF(internal!D6="", "", internal!D6)</f>
         <v>116.60254037844385</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="68">
         <f>IF(internal!E6="", "", internal!E6)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="61">
         <f>IF(internal!F6="", "", internal!F6)</f>
         <v>5</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="61">
         <f>IF(internal!A6="", "", internal!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="str">
+      <c r="A53" s="61" t="str">
         <f>IF(internal!A7="", "", internal!A7)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B53" s="61">
         <f>IF(internal!B7="", "", internal!B7)</f>
         <v>20</v>
       </c>
-      <c r="C53" s="69">
+      <c r="C53" s="68">
         <f>IF(internal!C7="", "", internal!C7)</f>
         <v>-154.31535329954593</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="68">
         <f>IF(internal!D7="", "", internal!D7)</f>
         <v>132.60254037844382</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="68">
         <f>IF(internal!E7="", "", internal!E7)</f>
         <v>-30</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="61">
         <f>IF(internal!F7="", "", internal!F7)</f>
         <v>5</v>
       </c>
-      <c r="G53" s="62">
+      <c r="G53" s="61">
         <f>IF(internal!A7="", "", internal!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="62" t="str">
+      <c r="A54" s="61" t="str">
         <f>IF(internal!A8="", "", internal!A8)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B54" s="62">
+      <c r="B54" s="61">
         <f>IF(internal!B8="", "", internal!B8)</f>
         <v>21</v>
       </c>
-      <c r="C54" s="69">
+      <c r="C54" s="68">
         <f>IF(internal!C8="", "", internal!C8)</f>
         <v>-163.55295760657998</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D54" s="68">
         <f>IF(internal!D8="", "", internal!D8)</f>
         <v>148.60254037844379</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E54" s="68">
         <f>IF(internal!E8="", "", internal!E8)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="61">
         <f>IF(internal!F8="", "", internal!F8)</f>
         <v>5</v>
       </c>
-      <c r="G54" s="62">
+      <c r="G54" s="61">
         <f>IF(internal!A8="", "", internal!G8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="str">
+      <c r="A55" s="61" t="str">
         <f>IF(internal!A9="", "", internal!A9)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B55" s="62">
+      <c r="B55" s="61">
         <f>IF(internal!B9="", "", internal!B9)</f>
         <v>22</v>
       </c>
-      <c r="C55" s="69">
+      <c r="C55" s="68">
         <f>IF(internal!C9="", "", internal!C9)</f>
         <v>-154.31535329954596</v>
       </c>
-      <c r="D55" s="69">
+      <c r="D55" s="68">
         <f>IF(internal!D9="", "", internal!D9)</f>
         <v>164.60254037844379</v>
       </c>
-      <c r="E55" s="69">
+      <c r="E55" s="68">
         <f>IF(internal!E9="", "", internal!E9)</f>
         <v>-30</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="61">
         <f>IF(internal!F9="", "", internal!F9)</f>
         <v>5</v>
       </c>
-      <c r="G55" s="62">
+      <c r="G55" s="61">
         <f>IF(internal!A9="", "", internal!G9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="str">
+      <c r="A56" s="61" t="str">
         <f>IF(internal!A10="", "", internal!A10)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B56" s="62">
+      <c r="B56" s="61">
         <f>IF(internal!B10="", "", internal!B10)</f>
         <v>23</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="68">
         <f>IF(internal!C10="", "", internal!C10)</f>
         <v>-135.84014468547795</v>
       </c>
-      <c r="D56" s="69">
+      <c r="D56" s="68">
         <f>IF(internal!D10="", "", internal!D10)</f>
         <v>164.60254037844379</v>
       </c>
-      <c r="E56" s="69">
+      <c r="E56" s="68">
         <f>IF(internal!E10="", "", internal!E10)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="61">
         <f>IF(internal!F10="", "", internal!F10)</f>
         <v>5</v>
       </c>
-      <c r="G56" s="62">
+      <c r="G56" s="61">
         <f>IF(internal!A10="", "", internal!G10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="62" t="str">
+      <c r="A57" s="61" t="str">
         <f>IF(internal!A11="", "", internal!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B57" s="62">
+      <c r="B57" s="61">
         <f>IF(internal!B11="", "", internal!B11)</f>
         <v>28</v>
       </c>
-      <c r="C57" s="69">
+      <c r="C57" s="68">
         <f>IF(internal!C11="", "", internal!C11)</f>
         <v>-126.6025403784439</v>
       </c>
-      <c r="D57" s="69">
+      <c r="D57" s="68">
         <f>IF(internal!D11="", "", internal!D11)</f>
         <v>116.60254037844382</v>
       </c>
-      <c r="E57" s="69">
+      <c r="E57" s="68">
         <f>IF(internal!E11="", "", internal!E11)</f>
         <v>-30</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="61">
         <f>IF(internal!F11="", "", internal!F11)</f>
         <v>5</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="61">
         <f>IF(internal!A11="", "", internal!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="str">
+      <c r="A58" s="61" t="str">
         <f>IF(internal!A12="", "", internal!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B58" s="62">
+      <c r="B58" s="61">
         <f>IF(internal!B12="", "", internal!B12)</f>
         <v>29</v>
       </c>
-      <c r="C58" s="69">
+      <c r="C58" s="68">
         <f>IF(internal!C12="", "", internal!C12)</f>
         <v>-135.84014468547792</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D58" s="68">
         <f>IF(internal!D12="", "", internal!D12)</f>
         <v>132.60254037844379</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="68">
         <f>IF(internal!E12="", "", internal!E12)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="61">
         <f>IF(internal!F12="", "", internal!F12)</f>
         <v>5</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="61">
         <f>IF(internal!A12="", "", internal!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="str">
+      <c r="A59" s="61" t="str">
         <f>IF(internal!A13="", "", internal!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B59" s="62">
+      <c r="B59" s="61">
         <f>IF(internal!B13="", "", internal!B13)</f>
         <v>24</v>
       </c>
-      <c r="C59" s="69">
+      <c r="C59" s="68">
         <f>IF(internal!C13="", "", internal!C13)</f>
         <v>-126.60254037844392</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D59" s="68">
         <f>IF(internal!D13="", "", internal!D13)</f>
         <v>148.60254037844379</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="68">
         <f>IF(internal!E13="", "", internal!E13)</f>
         <v>-30</v>
       </c>
-      <c r="F59" s="62">
+      <c r="F59" s="61">
         <f>IF(internal!F13="", "", internal!F13)</f>
         <v>5</v>
       </c>
-      <c r="G59" s="62">
+      <c r="G59" s="61">
         <f>IF(internal!A13="", "", internal!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="str">
+      <c r="A60" s="61" t="str">
         <f>IF(internal!A14="", "", internal!A14)</f>
         <v/>
       </c>
-      <c r="B60" s="62" t="str">
+      <c r="B60" s="61" t="str">
         <f>IF(internal!B14="", "", internal!B14)</f>
         <v/>
       </c>
-      <c r="C60" s="69" t="str">
+      <c r="C60" s="68" t="str">
         <f>IF(internal!C14="", "", internal!C14)</f>
         <v/>
       </c>
-      <c r="D60" s="69" t="str">
+      <c r="D60" s="68" t="str">
         <f>IF(internal!D14="", "", internal!D14)</f>
         <v/>
       </c>
-      <c r="E60" s="69" t="str">
+      <c r="E60" s="68" t="str">
         <f>IF(internal!E14="", "", internal!E14)</f>
         <v/>
       </c>
-      <c r="F60" s="62" t="str">
+      <c r="F60" s="61" t="str">
         <f>IF(internal!F14="", "", internal!F14)</f>
         <v/>
       </c>
-      <c r="G60" s="62" t="str">
+      <c r="G60" s="61" t="str">
         <f>IF(internal!A14="", "", internal!G14)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="62" t="str">
+      <c r="A61" s="61" t="str">
         <f>IF(internal!A15="", "", internal!A15)</f>
         <v/>
       </c>
-      <c r="B61" s="62" t="str">
+      <c r="B61" s="61" t="str">
         <f>IF(internal!B15="", "", internal!B15)</f>
         <v/>
       </c>
-      <c r="C61" s="69" t="str">
+      <c r="C61" s="68" t="str">
         <f>IF(internal!C15="", "", internal!C15)</f>
         <v/>
       </c>
-      <c r="D61" s="69" t="str">
+      <c r="D61" s="68" t="str">
         <f>IF(internal!D15="", "", internal!D15)</f>
         <v/>
       </c>
-      <c r="E61" s="69" t="str">
+      <c r="E61" s="68" t="str">
         <f>IF(internal!E15="", "", internal!E15)</f>
         <v/>
       </c>
-      <c r="F61" s="62" t="str">
+      <c r="F61" s="61" t="str">
         <f>IF(internal!F15="", "", internal!F15)</f>
         <v/>
       </c>
-      <c r="G61" s="62" t="str">
+      <c r="G61" s="61" t="str">
         <f>IF(internal!A15="", "", internal!G15)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="62" t="str">
+      <c r="A62" s="61" t="str">
         <f>IF(internal!A16="", "", internal!A16)</f>
         <v/>
       </c>
-      <c r="B62" s="62" t="str">
+      <c r="B62" s="61" t="str">
         <f>IF(internal!B16="", "", internal!B16)</f>
         <v/>
       </c>
-      <c r="C62" s="69" t="str">
+      <c r="C62" s="68" t="str">
         <f>IF(internal!C16="", "", internal!C16)</f>
         <v/>
       </c>
-      <c r="D62" s="69" t="str">
+      <c r="D62" s="68" t="str">
         <f>IF(internal!D16="", "", internal!D16)</f>
         <v/>
       </c>
-      <c r="E62" s="69" t="str">
+      <c r="E62" s="68" t="str">
         <f>IF(internal!E16="", "", internal!E16)</f>
         <v/>
       </c>
-      <c r="F62" s="62" t="str">
+      <c r="F62" s="61" t="str">
         <f>IF(internal!F16="", "", internal!F16)</f>
         <v/>
       </c>
-      <c r="G62" s="62" t="str">
+      <c r="G62" s="61" t="str">
         <f>IF(internal!A16="", "", internal!G16)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="str">
+      <c r="A63" s="61" t="str">
         <f>IF(internal!A17="", "", internal!A17)</f>
         <v/>
       </c>
-      <c r="B63" s="62" t="str">
+      <c r="B63" s="61" t="str">
         <f>IF(internal!B17="", "", internal!B17)</f>
         <v/>
       </c>
-      <c r="C63" s="69" t="str">
+      <c r="C63" s="68" t="str">
         <f>IF(internal!C17="", "", internal!C17)</f>
         <v/>
       </c>
-      <c r="D63" s="69" t="str">
+      <c r="D63" s="68" t="str">
         <f>IF(internal!D17="", "", internal!D17)</f>
         <v/>
       </c>
-      <c r="E63" s="69" t="str">
+      <c r="E63" s="68" t="str">
         <f>IF(internal!E17="", "", internal!E17)</f>
         <v/>
       </c>
-      <c r="F63" s="62" t="str">
+      <c r="F63" s="61" t="str">
         <f>IF(internal!F17="", "", internal!F17)</f>
         <v/>
       </c>
-      <c r="G63" s="62" t="str">
+      <c r="G63" s="61" t="str">
         <f>IF(internal!A17="", "", internal!G17)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="str">
+      <c r="A64" s="61" t="str">
         <f>IF(internal!A18="", "", internal!A18)</f>
         <v/>
       </c>
-      <c r="B64" s="62" t="str">
+      <c r="B64" s="61" t="str">
         <f>IF(internal!B18="", "", internal!B18)</f>
         <v/>
       </c>
-      <c r="C64" s="69" t="str">
+      <c r="C64" s="68" t="str">
         <f>IF(internal!C18="", "", internal!C18)</f>
         <v/>
       </c>
-      <c r="D64" s="69" t="str">
+      <c r="D64" s="68" t="str">
         <f>IF(internal!D18="", "", internal!D18)</f>
         <v/>
       </c>
-      <c r="E64" s="69" t="str">
+      <c r="E64" s="68" t="str">
         <f>IF(internal!E18="", "", internal!E18)</f>
         <v/>
       </c>
-      <c r="F64" s="62" t="str">
+      <c r="F64" s="61" t="str">
         <f>IF(internal!F18="", "", internal!F18)</f>
         <v/>
       </c>
-      <c r="G64" s="62" t="str">
+      <c r="G64" s="61" t="str">
         <f>IF(internal!A18="", "", internal!G18)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="62" t="str">
+      <c r="A65" s="61" t="str">
         <f>IF(internal!A19="", "", internal!A19)</f>
         <v/>
       </c>
-      <c r="B65" s="62" t="str">
+      <c r="B65" s="61" t="str">
         <f>IF(internal!B19="", "", internal!B19)</f>
         <v/>
       </c>
-      <c r="C65" s="69" t="str">
+      <c r="C65" s="68" t="str">
         <f>IF(internal!C19="", "", internal!C19)</f>
         <v/>
       </c>
-      <c r="D65" s="69" t="str">
+      <c r="D65" s="68" t="str">
         <f>IF(internal!D19="", "", internal!D19)</f>
         <v/>
       </c>
-      <c r="E65" s="69" t="str">
+      <c r="E65" s="68" t="str">
         <f>IF(internal!E19="", "", internal!E19)</f>
         <v/>
       </c>
-      <c r="F65" s="62" t="str">
+      <c r="F65" s="61" t="str">
         <f>IF(internal!F19="", "", internal!F19)</f>
         <v/>
       </c>
-      <c r="G65" s="62" t="str">
+      <c r="G65" s="61" t="str">
         <f>IF(internal!A19="", "", internal!G19)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="62" t="str">
+      <c r="A66" s="61" t="str">
         <f>IF(internal!A20="", "", internal!A20)</f>
         <v/>
       </c>
-      <c r="B66" s="62" t="str">
+      <c r="B66" s="61" t="str">
         <f>IF(internal!B20="", "", internal!B20)</f>
         <v/>
       </c>
-      <c r="C66" s="69" t="str">
+      <c r="C66" s="68" t="str">
         <f>IF(internal!C20="", "", internal!C20)</f>
         <v/>
       </c>
-      <c r="D66" s="69" t="str">
+      <c r="D66" s="68" t="str">
         <f>IF(internal!D20="", "", internal!D20)</f>
         <v/>
       </c>
-      <c r="E66" s="69" t="str">
+      <c r="E66" s="68" t="str">
         <f>IF(internal!E20="", "", internal!E20)</f>
         <v/>
       </c>
-      <c r="F66" s="62" t="str">
+      <c r="F66" s="61" t="str">
         <f>IF(internal!F20="", "", internal!F20)</f>
         <v/>
       </c>
-      <c r="G66" s="62" t="str">
+      <c r="G66" s="61" t="str">
         <f>IF(internal!A20="", "", internal!G20)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="str">
+      <c r="A67" s="61" t="str">
         <f>IF(internal!A21="", "", internal!A21)</f>
         <v/>
       </c>
-      <c r="B67" s="62" t="str">
+      <c r="B67" s="61" t="str">
         <f>IF(internal!B21="", "", internal!B21)</f>
         <v/>
       </c>
-      <c r="C67" s="69" t="str">
+      <c r="C67" s="68" t="str">
         <f>IF(internal!C21="", "", internal!C21)</f>
         <v/>
       </c>
-      <c r="D67" s="69" t="str">
+      <c r="D67" s="68" t="str">
         <f>IF(internal!D21="", "", internal!D21)</f>
         <v/>
       </c>
-      <c r="E67" s="69" t="str">
+      <c r="E67" s="68" t="str">
         <f>IF(internal!E21="", "", internal!E21)</f>
         <v/>
       </c>
-      <c r="F67" s="62" t="str">
+      <c r="F67" s="61" t="str">
         <f>IF(internal!F21="", "", internal!F21)</f>
         <v/>
       </c>
-      <c r="G67" s="62" t="str">
+      <c r="G67" s="61" t="str">
         <f>IF(internal!A21="", "", internal!G21)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="str">
+      <c r="A68" s="61" t="str">
         <f>IF(internal!A22="", "", internal!A22)</f>
         <v/>
       </c>
-      <c r="B68" s="62" t="str">
+      <c r="B68" s="61" t="str">
         <f>IF(internal!B22="", "", internal!B22)</f>
         <v/>
       </c>
-      <c r="C68" s="69" t="str">
+      <c r="C68" s="68" t="str">
         <f>IF(internal!C22="", "", internal!C22)</f>
         <v/>
       </c>
-      <c r="D68" s="69" t="str">
+      <c r="D68" s="68" t="str">
         <f>IF(internal!D22="", "", internal!D22)</f>
         <v/>
       </c>
-      <c r="E68" s="69" t="str">
+      <c r="E68" s="68" t="str">
         <f>IF(internal!E22="", "", internal!E22)</f>
         <v/>
       </c>
-      <c r="F68" s="62" t="str">
+      <c r="F68" s="61" t="str">
         <f>IF(internal!F22="", "", internal!F22)</f>
         <v/>
       </c>
-      <c r="G68" s="62" t="str">
+      <c r="G68" s="61" t="str">
         <f>IF(internal!A22="", "", internal!G22)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="str">
+      <c r="A69" s="61" t="str">
         <f>IF(internal!A23="", "", internal!A23)</f>
         <v/>
       </c>
-      <c r="B69" s="62" t="str">
+      <c r="B69" s="61" t="str">
         <f>IF(internal!B23="", "", internal!B23)</f>
         <v/>
       </c>
-      <c r="C69" s="69" t="str">
+      <c r="C69" s="68" t="str">
         <f>IF(internal!C23="", "", internal!C23)</f>
         <v/>
       </c>
-      <c r="D69" s="69" t="str">
+      <c r="D69" s="68" t="str">
         <f>IF(internal!D23="", "", internal!D23)</f>
         <v/>
       </c>
-      <c r="E69" s="69" t="str">
+      <c r="E69" s="68" t="str">
         <f>IF(internal!E23="", "", internal!E23)</f>
         <v/>
       </c>
-      <c r="F69" s="62" t="str">
+      <c r="F69" s="61" t="str">
         <f>IF(internal!F23="", "", internal!F23)</f>
         <v/>
       </c>
-      <c r="G69" s="62" t="str">
+      <c r="G69" s="61" t="str">
         <f>IF(internal!A23="", "", internal!G23)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="str">
+      <c r="A70" s="61" t="str">
         <f>IF(internal!A24="", "", internal!A24)</f>
         <v/>
       </c>
-      <c r="B70" s="62" t="str">
+      <c r="B70" s="61" t="str">
         <f>IF(internal!B24="", "", internal!B24)</f>
         <v/>
       </c>
-      <c r="C70" s="69" t="str">
+      <c r="C70" s="68" t="str">
         <f>IF(internal!C24="", "", internal!C24)</f>
         <v/>
       </c>
-      <c r="D70" s="69" t="str">
+      <c r="D70" s="68" t="str">
         <f>IF(internal!D24="", "", internal!D24)</f>
         <v/>
       </c>
-      <c r="E70" s="69" t="str">
+      <c r="E70" s="68" t="str">
         <f>IF(internal!E24="", "", internal!E24)</f>
         <v/>
       </c>
-      <c r="F70" s="62" t="str">
+      <c r="F70" s="61" t="str">
         <f>IF(internal!F24="", "", internal!F24)</f>
         <v/>
       </c>
-      <c r="G70" s="62" t="str">
+      <c r="G70" s="61" t="str">
         <f>IF(internal!A24="", "", internal!G24)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="str">
+      <c r="A71" s="61" t="str">
         <f>IF(internal!A25="", "", internal!A25)</f>
         <v/>
       </c>
-      <c r="B71" s="62" t="str">
+      <c r="B71" s="61" t="str">
         <f>IF(internal!B25="", "", internal!B25)</f>
         <v/>
       </c>
-      <c r="C71" s="69" t="str">
+      <c r="C71" s="68" t="str">
         <f>IF(internal!C25="", "", internal!C25)</f>
         <v/>
       </c>
-      <c r="D71" s="69" t="str">
+      <c r="D71" s="68" t="str">
         <f>IF(internal!D25="", "", internal!D25)</f>
         <v/>
       </c>
-      <c r="E71" s="69" t="str">
+      <c r="E71" s="68" t="str">
         <f>IF(internal!E25="", "", internal!E25)</f>
         <v/>
       </c>
-      <c r="F71" s="62" t="str">
+      <c r="F71" s="61" t="str">
         <f>IF(internal!F25="", "", internal!F25)</f>
         <v/>
       </c>
-      <c r="G71" s="62" t="str">
+      <c r="G71" s="61" t="str">
         <f>IF(internal!A25="", "", internal!G25)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="65" t="str">
+      <c r="A72" s="64" t="str">
         <f>IF(upper!A3="", "", upper!A3)</f>
         <v/>
       </c>
-      <c r="B72" s="65" t="str">
+      <c r="B72" s="64" t="str">
         <f>IF(upper!B3="", "", upper!B3)</f>
         <v/>
       </c>
-      <c r="C72" s="80" t="str">
+      <c r="C72" s="79" t="str">
         <f>IF(upper!C3="", "", upper!C3)</f>
         <v/>
       </c>
-      <c r="D72" s="80" t="str">
+      <c r="D72" s="79" t="str">
         <f>IF(upper!D3="", "", upper!D3)</f>
         <v/>
       </c>
-      <c r="E72" s="80" t="str">
+      <c r="E72" s="79" t="str">
         <f>IF(upper!E3="", "", upper!E3)</f>
         <v/>
       </c>
-      <c r="F72" s="65" t="str">
+      <c r="F72" s="64" t="str">
         <f>IF(upper!F3="", "", upper!F3)</f>
         <v/>
       </c>
-      <c r="G72" s="65" t="str">
+      <c r="G72" s="64" t="str">
         <f>IF(upper!A3="", "", upper!G3)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="75" t="str">
+      <c r="A73" s="74" t="str">
         <f>IF(upper!A4="", "", upper!A4)</f>
         <v/>
       </c>
-      <c r="B73" s="75" t="str">
+      <c r="B73" s="74" t="str">
         <f>IF(upper!B4="", "", upper!B4)</f>
         <v/>
       </c>
-      <c r="C73" s="80" t="str">
+      <c r="C73" s="79" t="str">
         <f>IF(upper!C4="", "", upper!C4)</f>
         <v/>
       </c>
-      <c r="D73" s="80" t="str">
+      <c r="D73" s="79" t="str">
         <f>IF(upper!D4="", "", upper!D4)</f>
         <v/>
       </c>
-      <c r="E73" s="80" t="str">
+      <c r="E73" s="79" t="str">
         <f>IF(upper!E4="", "", upper!E4)</f>
         <v/>
       </c>
-      <c r="F73" s="75" t="str">
+      <c r="F73" s="74" t="str">
         <f>IF(upper!F4="", "", upper!F4)</f>
         <v/>
       </c>
-      <c r="G73" s="75" t="str">
+      <c r="G73" s="74" t="str">
         <f>IF(upper!A4="", "", upper!G4)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="str">
+      <c r="A74" s="74" t="str">
         <f>IF(upper!A5="", "", upper!A5)</f>
         <v/>
       </c>
-      <c r="B74" s="75" t="str">
+      <c r="B74" s="74" t="str">
         <f>IF(upper!B5="", "", upper!B5)</f>
         <v/>
       </c>
-      <c r="C74" s="80" t="str">
+      <c r="C74" s="79" t="str">
         <f>IF(upper!C5="", "", upper!C5)</f>
         <v/>
       </c>
-      <c r="D74" s="80" t="str">
+      <c r="D74" s="79" t="str">
         <f>IF(upper!D5="", "", upper!D5)</f>
         <v/>
       </c>
-      <c r="E74" s="80" t="str">
+      <c r="E74" s="79" t="str">
         <f>IF(upper!E5="", "", upper!E5)</f>
         <v/>
       </c>
-      <c r="F74" s="75" t="str">
+      <c r="F74" s="74" t="str">
         <f>IF(upper!F5="", "", upper!F5)</f>
         <v/>
       </c>
-      <c r="G74" s="75" t="str">
+      <c r="G74" s="74" t="str">
         <f>IF(upper!A5="", "", upper!G5)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="75" t="str">
+      <c r="A75" s="74" t="str">
         <f>IF(upper!A6="", "", upper!A6)</f>
         <v/>
       </c>
-      <c r="B75" s="75" t="str">
+      <c r="B75" s="74" t="str">
         <f>IF(upper!B6="", "", upper!B6)</f>
         <v/>
       </c>
-      <c r="C75" s="80" t="str">
+      <c r="C75" s="79" t="str">
         <f>IF(upper!C6="", "", upper!C6)</f>
         <v/>
       </c>
-      <c r="D75" s="80" t="str">
+      <c r="D75" s="79" t="str">
         <f>IF(upper!D6="", "", upper!D6)</f>
         <v/>
       </c>
-      <c r="E75" s="80" t="str">
+      <c r="E75" s="79" t="str">
         <f>IF(upper!E6="", "", upper!E6)</f>
         <v/>
       </c>
-      <c r="F75" s="75" t="str">
+      <c r="F75" s="74" t="str">
         <f>IF(upper!F6="", "", upper!F6)</f>
         <v/>
       </c>
-      <c r="G75" s="75" t="str">
+      <c r="G75" s="74" t="str">
         <f>IF(upper!A6="", "", upper!G6)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="75" t="str">
+      <c r="A76" s="74" t="str">
         <f>IF(upper!A7="", "", upper!A7)</f>
         <v/>
       </c>
-      <c r="B76" s="75" t="str">
+      <c r="B76" s="74" t="str">
         <f>IF(upper!B7="", "", upper!B7)</f>
         <v/>
       </c>
-      <c r="C76" s="80" t="str">
+      <c r="C76" s="79" t="str">
         <f>IF(upper!C7="", "", upper!C7)</f>
         <v/>
       </c>
-      <c r="D76" s="80" t="str">
+      <c r="D76" s="79" t="str">
         <f>IF(upper!D7="", "", upper!D7)</f>
         <v/>
       </c>
-      <c r="E76" s="80" t="str">
+      <c r="E76" s="79" t="str">
         <f>IF(upper!E7="", "", upper!E7)</f>
         <v/>
       </c>
-      <c r="F76" s="75" t="str">
+      <c r="F76" s="74" t="str">
         <f>IF(upper!F7="", "", upper!F7)</f>
         <v/>
       </c>
-      <c r="G76" s="75" t="str">
+      <c r="G76" s="74" t="str">
         <f>IF(upper!A7="", "", upper!G7)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="str">
+      <c r="A77" s="74" t="str">
         <f>IF(upper!A8="", "", upper!A8)</f>
         <v/>
       </c>
-      <c r="B77" s="75" t="str">
+      <c r="B77" s="74" t="str">
         <f>IF(upper!B8="", "", upper!B8)</f>
         <v/>
       </c>
-      <c r="C77" s="80" t="str">
+      <c r="C77" s="79" t="str">
         <f>IF(upper!C8="", "", upper!C8)</f>
         <v/>
       </c>
-      <c r="D77" s="80" t="str">
+      <c r="D77" s="79" t="str">
         <f>IF(upper!D8="", "", upper!D8)</f>
         <v/>
       </c>
-      <c r="E77" s="80" t="str">
+      <c r="E77" s="79" t="str">
         <f>IF(upper!E8="", "", upper!E8)</f>
         <v/>
       </c>
-      <c r="F77" s="75" t="str">
+      <c r="F77" s="74" t="str">
         <f>IF(upper!F8="", "", upper!F8)</f>
         <v/>
       </c>
-      <c r="G77" s="75" t="str">
+      <c r="G77" s="74" t="str">
         <f>IF(upper!A8="", "", upper!G8)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="str">
+      <c r="A78" s="74" t="str">
         <f>IF(upper!A9="", "", upper!A9)</f>
         <v/>
       </c>
-      <c r="B78" s="75" t="str">
+      <c r="B78" s="74" t="str">
         <f>IF(upper!B9="", "", upper!B9)</f>
         <v/>
       </c>
-      <c r="C78" s="80" t="str">
+      <c r="C78" s="79" t="str">
         <f>IF(upper!C9="", "", upper!C9)</f>
         <v/>
       </c>
-      <c r="D78" s="80" t="str">
+      <c r="D78" s="79" t="str">
         <f>IF(upper!D9="", "", upper!D9)</f>
         <v/>
       </c>
-      <c r="E78" s="80" t="str">
+      <c r="E78" s="79" t="str">
         <f>IF(upper!E9="", "", upper!E9)</f>
         <v/>
       </c>
-      <c r="F78" s="75" t="str">
+      <c r="F78" s="74" t="str">
         <f>IF(upper!F9="", "", upper!F9)</f>
         <v/>
       </c>
-      <c r="G78" s="75" t="str">
+      <c r="G78" s="74" t="str">
         <f>IF(upper!A9="", "", upper!G9)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="75" t="str">
+      <c r="A79" s="74" t="str">
         <f>IF(upper!A10="", "", upper!A10)</f>
         <v/>
       </c>
-      <c r="B79" s="75" t="str">
+      <c r="B79" s="74" t="str">
         <f>IF(upper!B10="", "", upper!B10)</f>
         <v/>
       </c>
-      <c r="C79" s="80" t="str">
+      <c r="C79" s="79" t="str">
         <f>IF(upper!C10="", "", upper!C10)</f>
         <v/>
       </c>
-      <c r="D79" s="80" t="str">
+      <c r="D79" s="79" t="str">
         <f>IF(upper!D10="", "", upper!D10)</f>
         <v/>
       </c>
-      <c r="E79" s="80" t="str">
+      <c r="E79" s="79" t="str">
         <f>IF(upper!E10="", "", upper!E10)</f>
         <v/>
       </c>
-      <c r="F79" s="75" t="str">
+      <c r="F79" s="74" t="str">
         <f>IF(upper!F10="", "", upper!F10)</f>
         <v/>
       </c>
-      <c r="G79" s="75" t="str">
+      <c r="G79" s="74" t="str">
         <f>IF(upper!A10="", "", upper!G10)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="str">
+      <c r="A80" s="74" t="str">
         <f>IF(upper!A11="", "", upper!A11)</f>
         <v/>
       </c>
-      <c r="B80" s="75" t="str">
+      <c r="B80" s="74" t="str">
         <f>IF(upper!B11="", "", upper!B11)</f>
         <v/>
       </c>
-      <c r="C80" s="80" t="str">
+      <c r="C80" s="79" t="str">
         <f>IF(upper!C11="", "", upper!C11)</f>
         <v/>
       </c>
-      <c r="D80" s="80" t="str">
+      <c r="D80" s="79" t="str">
         <f>IF(upper!D11="", "", upper!D11)</f>
         <v/>
       </c>
-      <c r="E80" s="80" t="str">
+      <c r="E80" s="79" t="str">
         <f>IF(upper!E11="", "", upper!E11)</f>
         <v/>
       </c>
-      <c r="F80" s="75" t="str">
+      <c r="F80" s="74" t="str">
         <f>IF(upper!F11="", "", upper!F11)</f>
         <v/>
       </c>
-      <c r="G80" s="75" t="str">
+      <c r="G80" s="74" t="str">
         <f>IF(upper!A11="", "", upper!G11)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="str">
+      <c r="A81" s="74" t="str">
         <f>IF(upper!A12="", "", upper!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B81" s="75">
+      <c r="B81" s="74">
         <f>IF(upper!B12="", "", upper!B12)</f>
         <v>61</v>
       </c>
-      <c r="C81" s="80">
+      <c r="C81" s="79">
         <f>IF(upper!C12="", "", upper!C12)</f>
         <v>-54</v>
       </c>
-      <c r="D81" s="80">
+      <c r="D81" s="79">
         <f>IF(upper!D12="", "", upper!D12)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E81" s="80">
+      <c r="E81" s="79">
         <f>IF(upper!E12="", "", upper!E12)</f>
         <v>-59.999859694228427</v>
       </c>
-      <c r="F81" s="75">
+      <c r="F81" s="74">
         <f>IF(upper!F12="", "", upper!F12)</f>
         <v>5</v>
       </c>
-      <c r="G81" s="75">
+      <c r="G81" s="74">
         <f>IF(upper!A12="", "", upper!G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="75" t="str">
+      <c r="A82" s="74" t="str">
         <f>IF(upper!A13="", "", upper!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B82" s="75">
+      <c r="B82" s="74">
         <f>IF(upper!B13="", "", upper!B13)</f>
         <v>56</v>
       </c>
-      <c r="C82" s="80">
+      <c r="C82" s="79">
         <f>IF(upper!C13="", "", upper!C13)</f>
         <v>-54</v>
       </c>
-      <c r="D82" s="80">
+      <c r="D82" s="79">
         <f>IF(upper!D13="", "", upper!D13)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E82" s="80">
+      <c r="E82" s="79">
         <f>IF(upper!E13="", "", upper!E13)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="75">
+      <c r="F82" s="74">
         <f>IF(upper!F13="", "", upper!F13)</f>
         <v>5</v>
       </c>
-      <c r="G82" s="75">
+      <c r="G82" s="74">
         <f>IF(upper!A13="", "", upper!G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="75" t="str">
+      <c r="A83" s="74" t="str">
         <f>IF(upper!A14="", "", upper!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B83" s="75">
+      <c r="B83" s="74">
         <f>IF(upper!B14="", "", upper!B14)</f>
         <v>57</v>
       </c>
-      <c r="C83" s="80">
+      <c r="C83" s="79">
         <f>IF(upper!C14="", "", upper!C14)</f>
         <v>-70</v>
       </c>
-      <c r="D83" s="80">
+      <c r="D83" s="79">
         <f>IF(upper!D14="", "", upper!D14)</f>
         <v>54.66323014923799</v>
       </c>
-      <c r="E83" s="80">
+      <c r="E83" s="79">
         <f>IF(upper!E14="", "", upper!E14)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F83" s="75">
+      <c r="F83" s="74">
         <f>IF(upper!F14="", "", upper!F14)</f>
         <v>5</v>
       </c>
-      <c r="G83" s="75">
+      <c r="G83" s="74">
         <f>IF(upper!A14="", "", upper!G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="str">
+      <c r="A84" s="74" t="str">
         <f>IF(upper!A15="", "", upper!A15)</f>
         <v/>
       </c>
-      <c r="B84" s="75" t="str">
+      <c r="B84" s="74" t="str">
         <f>IF(upper!B15="", "", upper!B15)</f>
         <v/>
       </c>
-      <c r="C84" s="80" t="str">
+      <c r="C84" s="79" t="str">
         <f>IF(upper!C15="", "", upper!C15)</f>
         <v/>
       </c>
-      <c r="D84" s="80" t="str">
+      <c r="D84" s="79" t="str">
         <f>IF(upper!D15="", "", upper!D15)</f>
         <v/>
       </c>
-      <c r="E84" s="80" t="str">
+      <c r="E84" s="79" t="str">
         <f>IF(upper!E15="", "", upper!E15)</f>
         <v/>
       </c>
-      <c r="F84" s="75" t="str">
+      <c r="F84" s="74" t="str">
         <f>IF(upper!F15="", "", upper!F15)</f>
         <v/>
       </c>
-      <c r="G84" s="75" t="str">
+      <c r="G84" s="74" t="str">
         <f>IF(upper!A15="", "", upper!G15)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="75" t="str">
+      <c r="A85" s="74" t="str">
         <f>IF(upper!A16="", "", upper!A16)</f>
         <v/>
       </c>
-      <c r="B85" s="75" t="str">
+      <c r="B85" s="74" t="str">
         <f>IF(upper!B16="", "", upper!B16)</f>
         <v/>
       </c>
-      <c r="C85" s="80" t="str">
+      <c r="C85" s="79" t="str">
         <f>IF(upper!C16="", "", upper!C16)</f>
         <v/>
       </c>
-      <c r="D85" s="80" t="str">
+      <c r="D85" s="79" t="str">
         <f>IF(upper!D16="", "", upper!D16)</f>
         <v/>
       </c>
-      <c r="E85" s="80" t="str">
+      <c r="E85" s="79" t="str">
         <f>IF(upper!E16="", "", upper!E16)</f>
         <v/>
       </c>
-      <c r="F85" s="75" t="str">
+      <c r="F85" s="74" t="str">
         <f>IF(upper!F16="", "", upper!F16)</f>
         <v/>
       </c>
-      <c r="G85" s="75" t="str">
+      <c r="G85" s="74" t="str">
         <f>IF(upper!A16="", "", upper!G16)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="str">
+      <c r="A86" s="74" t="str">
         <f>IF(upper!A17="", "", upper!A17)</f>
         <v/>
       </c>
-      <c r="B86" s="75" t="str">
+      <c r="B86" s="74" t="str">
         <f>IF(upper!B17="", "", upper!B17)</f>
         <v/>
       </c>
-      <c r="C86" s="80" t="str">
+      <c r="C86" s="79" t="str">
         <f>IF(upper!C17="", "", upper!C17)</f>
         <v/>
       </c>
-      <c r="D86" s="80" t="str">
+      <c r="D86" s="79" t="str">
         <f>IF(upper!D17="", "", upper!D17)</f>
         <v/>
       </c>
-      <c r="E86" s="80" t="str">
+      <c r="E86" s="79" t="str">
         <f>IF(upper!E17="", "", upper!E17)</f>
         <v/>
       </c>
-      <c r="F86" s="75" t="str">
+      <c r="F86" s="74" t="str">
         <f>IF(upper!F17="", "", upper!F17)</f>
         <v/>
       </c>
-      <c r="G86" s="75" t="str">
+      <c r="G86" s="74" t="str">
         <f>IF(upper!A17="", "", upper!G17)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="str">
+      <c r="A87" s="74" t="str">
         <f>IF(upper!A18="", "", upper!A18)</f>
         <v/>
       </c>
-      <c r="B87" s="75" t="str">
+      <c r="B87" s="74" t="str">
         <f>IF(upper!B18="", "", upper!B18)</f>
         <v/>
       </c>
-      <c r="C87" s="80" t="str">
+      <c r="C87" s="79" t="str">
         <f>IF(upper!C18="", "", upper!C18)</f>
         <v/>
       </c>
-      <c r="D87" s="80" t="str">
+      <c r="D87" s="79" t="str">
         <f>IF(upper!D18="", "", upper!D18)</f>
         <v/>
       </c>
-      <c r="E87" s="80" t="str">
+      <c r="E87" s="79" t="str">
         <f>IF(upper!E18="", "", upper!E18)</f>
         <v/>
       </c>
-      <c r="F87" s="75" t="str">
+      <c r="F87" s="74" t="str">
         <f>IF(upper!F18="", "", upper!F18)</f>
         <v/>
       </c>
-      <c r="G87" s="75" t="str">
+      <c r="G87" s="74" t="str">
         <f>IF(upper!A18="", "", upper!G18)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="str">
+      <c r="A88" s="74" t="str">
         <f>IF(upper!A19="", "", upper!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B88" s="75">
+      <c r="B88" s="74">
         <f>IF(upper!B19="", "", upper!B19)</f>
         <v>58</v>
       </c>
-      <c r="C88" s="80">
+      <c r="C88" s="79">
         <f>IF(upper!C19="", "", upper!C19)</f>
         <v>-86</v>
       </c>
-      <c r="D88" s="80">
+      <c r="D88" s="79">
         <f>IF(upper!D19="", "", upper!D19)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="79">
         <f>IF(upper!E19="", "", upper!E19)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F88" s="75">
+      <c r="F88" s="74">
         <f>IF(upper!F19="", "", upper!F19)</f>
         <v>5</v>
       </c>
-      <c r="G88" s="75">
+      <c r="G88" s="74">
         <f>IF(upper!A19="", "", upper!G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="str">
+      <c r="A89" s="74" t="str">
         <f>IF(upper!A20="", "", upper!A20)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B89" s="75">
+      <c r="B89" s="74">
         <f>IF(upper!B20="", "", upper!B20)</f>
         <v>53</v>
       </c>
-      <c r="C89" s="80">
+      <c r="C89" s="79">
         <f>IF(upper!C20="", "", upper!C20)</f>
         <v>-102</v>
       </c>
-      <c r="D89" s="80">
+      <c r="D89" s="79">
         <f>IF(upper!D20="", "", upper!D20)</f>
         <v>54.66323014923799</v>
       </c>
-      <c r="E89" s="80">
+      <c r="E89" s="79">
         <f>IF(upper!E20="", "", upper!E20)</f>
         <v>59.999859694228427</v>
       </c>
-      <c r="F89" s="75">
+      <c r="F89" s="74">
         <f>IF(upper!F20="", "", upper!F20)</f>
         <v>5</v>
       </c>
-      <c r="G89" s="75">
+      <c r="G89" s="74">
         <f>IF(upper!A20="", "", upper!G20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="75" t="str">
+      <c r="A90" s="74" t="str">
         <f>IF(upper!A21="", "", upper!A21)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B90" s="75">
+      <c r="B90" s="74">
         <f>IF(upper!B21="", "", upper!B21)</f>
         <v>63</v>
       </c>
-      <c r="C90" s="80">
+      <c r="C90" s="79">
         <f>IF(upper!C21="", "", upper!C21)</f>
         <v>-118</v>
       </c>
-      <c r="D90" s="80">
+      <c r="D90" s="79">
         <f>IF(upper!D21="", "", upper!D21)</f>
         <v>45.425625842203999</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="79">
         <f>IF(upper!E21="", "", upper!E21)</f>
         <v>119.99971938845685</v>
       </c>
-      <c r="F90" s="75">
+      <c r="F90" s="74">
         <f>IF(upper!F21="", "", upper!F21)</f>
         <v>5</v>
       </c>
-      <c r="G90" s="75">
+      <c r="G90" s="74">
         <f>IF(upper!A21="", "", upper!G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="str">
+      <c r="A91" s="74" t="str">
         <f>IF(upper!A22="", "", upper!A22)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B91" s="75">
+      <c r="B91" s="74">
         <f>IF(upper!B22="", "", upper!B22)</f>
         <v>48</v>
       </c>
-      <c r="C91" s="80">
+      <c r="C91" s="79">
         <f>IF(upper!C22="", "", upper!C22)</f>
         <v>-118</v>
       </c>
-      <c r="D91" s="80">
+      <c r="D91" s="79">
         <f>IF(upper!D22="", "", upper!D22)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E91" s="80">
+      <c r="E91" s="79">
         <f>IF(upper!E22="", "", upper!E22)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F91" s="75">
+      <c r="F91" s="74">
         <f>IF(upper!F22="", "", upper!F22)</f>
         <v>5</v>
       </c>
-      <c r="G91" s="75">
+      <c r="G91" s="74">
         <f>IF(upper!A22="", "", upper!G22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="75" t="str">
+      <c r="A92" s="74" t="str">
         <f>IF(upper!A23="", "", upper!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B92" s="75">
+      <c r="B92" s="74">
         <f>IF(upper!B23="", "", upper!B23)</f>
         <v>59</v>
       </c>
-      <c r="C92" s="80">
+      <c r="C92" s="79">
         <f>IF(upper!C23="", "", upper!C23)</f>
         <v>-86</v>
       </c>
-      <c r="D92" s="80">
+      <c r="D92" s="79">
         <f>IF(upper!D23="", "", upper!D23)</f>
         <v>26.95041722813599</v>
       </c>
-      <c r="E92" s="80">
+      <c r="E92" s="79">
         <f>IF(upper!E23="", "", upper!E23)</f>
         <v>179.99957908268468</v>
       </c>
-      <c r="F92" s="75">
+      <c r="F92" s="74">
         <f>IF(upper!F23="", "", upper!F23)</f>
         <v>5</v>
       </c>
-      <c r="G92" s="75">
+      <c r="G92" s="74">
         <f>IF(upper!A23="", "", upper!G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="str">
+      <c r="A93" s="74" t="str">
         <f>IF(upper!A24="", "", upper!A24)</f>
         <v/>
       </c>
-      <c r="B93" s="75" t="str">
+      <c r="B93" s="74" t="str">
         <f>IF(upper!B24="", "", upper!B24)</f>
         <v/>
       </c>
-      <c r="C93" s="80" t="str">
+      <c r="C93" s="79" t="str">
         <f>IF(upper!C24="", "", upper!C24)</f>
         <v/>
       </c>
-      <c r="D93" s="80" t="str">
+      <c r="D93" s="79" t="str">
         <f>IF(upper!D24="", "", upper!D24)</f>
         <v/>
       </c>
-      <c r="E93" s="80" t="str">
+      <c r="E93" s="79" t="str">
         <f>IF(upper!E24="", "", upper!E24)</f>
         <v/>
       </c>
-      <c r="F93" s="75" t="str">
+      <c r="F93" s="74" t="str">
         <f>IF(upper!F24="", "", upper!F24)</f>
         <v/>
       </c>
-      <c r="G93" s="75" t="str">
+      <c r="G93" s="74" t="str">
         <f>IF(upper!A24="", "", upper!G24)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="str">
+      <c r="A94" s="74" t="str">
         <f>IF(upper!A25="", "", upper!A25)</f>
         <v/>
       </c>
-      <c r="B94" s="75" t="str">
+      <c r="B94" s="74" t="str">
         <f>IF(upper!B25="", "", upper!B25)</f>
         <v/>
       </c>
-      <c r="C94" s="80" t="str">
+      <c r="C94" s="79" t="str">
         <f>IF(upper!C25="", "", upper!C25)</f>
         <v/>
       </c>
-      <c r="D94" s="80" t="str">
+      <c r="D94" s="79" t="str">
         <f>IF(upper!D25="", "", upper!D25)</f>
         <v/>
       </c>
-      <c r="E94" s="80" t="str">
+      <c r="E94" s="79" t="str">
         <f>IF(upper!E25="", "", upper!E25)</f>
         <v/>
       </c>
-      <c r="F94" s="75" t="str">
+      <c r="F94" s="74" t="str">
         <f>IF(upper!F25="", "", upper!F25)</f>
         <v/>
       </c>
-      <c r="G94" s="75" t="str">
+      <c r="G94" s="74" t="str">
         <f>IF(upper!A25="", "", upper!G25)</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
